--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_function_design(screen)_WA10203_Project_Update.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_function_design(screen)_WA10203_Project_Update.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D39B3F-FE2E-4860-8669-05C4371CE117}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619F7B60-14B2-4B06-8E1E-97CBBDBF88CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21270" windowHeight="10575" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="5505" windowWidth="22920" windowHeight="6990" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="30" r:id="rId1"/>
@@ -822,7 +822,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="264">
   <si>
     <t>No.</t>
   </si>
@@ -964,9 +964,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>○</t>
   </si>
   <si>
     <t>I</t>
@@ -1482,17 +1479,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>○</t>
-    </r>
-  </si>
-  <si>
     <t>Screen event name</t>
   </si>
   <si>
@@ -1877,6 +1863,9 @@
   </si>
   <si>
     <t>Required</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -2912,6 +2901,15 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2951,6 +2949,12 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2960,24 +2964,57 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2987,158 +3024,53 @@
     <xf numFmtId="49" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -3149,59 +3081,29 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -3212,6 +3114,15 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3221,32 +3132,140 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3257,6 +3276,33 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3272,38 +3318,23 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3346,48 +3377,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -4719,7 +4708,7 @@
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="128" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
@@ -4780,7 +4769,7 @@
     <row r="4" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="129" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="129"/>
       <c r="D4" s="130"/>
@@ -4820,7 +4809,7 @@
       <c r="A5" s="6"/>
       <c r="B5" s="129"/>
       <c r="C5" s="129" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" s="130"/>
       <c r="E5" s="27"/>
@@ -4895,7 +4884,7 @@
     <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="129" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="6"/>
@@ -4935,7 +4924,7 @@
       <c r="A8" s="6"/>
       <c r="B8" s="27"/>
       <c r="C8" s="129" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="27"/>
@@ -4974,7 +4963,7 @@
       <c r="A9" s="6"/>
       <c r="B9" s="27"/>
       <c r="C9" s="130" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I9" s="32"/>
       <c r="J9" s="27"/>
@@ -5008,7 +4997,7 @@
       <c r="A10" s="6"/>
       <c r="B10" s="32"/>
       <c r="C10" s="130" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10" s="32"/>
       <c r="E10" s="32"/>
@@ -5047,7 +5036,7 @@
       <c r="A11" s="6"/>
       <c r="B11" s="14"/>
       <c r="C11" s="130" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="27"/>
@@ -5086,7 +5075,7 @@
       <c r="A12" s="6"/>
       <c r="B12" s="14"/>
       <c r="C12" s="130" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H12" s="27"/>
       <c r="I12" s="28"/>
@@ -5121,7 +5110,7 @@
       <c r="A13" s="6"/>
       <c r="B13" s="28"/>
       <c r="C13" s="130" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
@@ -5195,7 +5184,7 @@
     <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="129" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="28"/>
@@ -5235,7 +5224,7 @@
       <c r="A16" s="6"/>
       <c r="B16" s="27"/>
       <c r="C16" s="129" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
@@ -5274,7 +5263,7 @@
       <c r="A17" s="6"/>
       <c r="B17" s="27"/>
       <c r="C17" s="130" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D17" s="28"/>
       <c r="E17" s="28"/>
@@ -5313,7 +5302,7 @@
       <c r="A18" s="6"/>
       <c r="B18" s="32"/>
       <c r="C18" s="130" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
@@ -5352,7 +5341,7 @@
       <c r="A19" s="6"/>
       <c r="B19" s="14"/>
       <c r="C19" s="130" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D19" s="28"/>
       <c r="E19" s="28"/>
@@ -5391,7 +5380,7 @@
       <c r="A20" s="6"/>
       <c r="B20" s="14"/>
       <c r="C20" s="130" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D20" s="28"/>
       <c r="E20" s="28"/>
@@ -5430,7 +5419,7 @@
       <c r="A21" s="6"/>
       <c r="B21" s="28"/>
       <c r="C21" s="130" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D21" s="28"/>
       <c r="E21" s="28"/>
@@ -5505,7 +5494,7 @@
     <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="129" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C23" s="27"/>
       <c r="D23" s="28"/>
@@ -5545,7 +5534,7 @@
       <c r="A24" s="2"/>
       <c r="B24" s="27"/>
       <c r="C24" s="129" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="28"/>
       <c r="E24" s="28"/>
@@ -5584,7 +5573,7 @@
       <c r="A25" s="2"/>
       <c r="B25" s="27"/>
       <c r="C25" s="130" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="28"/>
       <c r="E25" s="28"/>
@@ -5623,7 +5612,7 @@
       <c r="A26" s="2"/>
       <c r="B26" s="32"/>
       <c r="C26" s="130" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="39"/>
@@ -5662,7 +5651,7 @@
       <c r="A27" s="2"/>
       <c r="B27" s="14"/>
       <c r="C27" s="130" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="39"/>
@@ -5701,7 +5690,7 @@
       <c r="A28" s="2"/>
       <c r="B28" s="14"/>
       <c r="C28" s="130" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="39"/>
@@ -5740,7 +5729,7 @@
       <c r="A29" s="2"/>
       <c r="B29" s="28"/>
       <c r="C29" s="130" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D29" s="39"/>
       <c r="E29" s="39"/>
@@ -6151,137 +6140,137 @@
     <row r="1" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:33" s="56" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="131" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" s="131"/>
     </row>
     <row r="3" spans="2:33" s="56" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="131"/>
       <c r="C3" s="131" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="2:33" s="56" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="2:33" s="56" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="57"/>
-      <c r="C5" s="197" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="198"/>
-      <c r="E5" s="198"/>
-      <c r="F5" s="199"/>
-      <c r="G5" s="206" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="207"/>
-      <c r="I5" s="207"/>
-      <c r="J5" s="207"/>
-      <c r="K5" s="207"/>
-      <c r="L5" s="198"/>
-      <c r="M5" s="198"/>
-      <c r="N5" s="198"/>
-      <c r="O5" s="198"/>
-      <c r="P5" s="198"/>
-      <c r="Q5" s="198"/>
-      <c r="R5" s="198"/>
-      <c r="S5" s="198"/>
-      <c r="T5" s="198"/>
-      <c r="U5" s="198"/>
-      <c r="V5" s="198"/>
-      <c r="W5" s="198"/>
-      <c r="X5" s="198"/>
-      <c r="Y5" s="198"/>
-      <c r="Z5" s="198"/>
-      <c r="AA5" s="198"/>
-      <c r="AB5" s="198"/>
-      <c r="AC5" s="198"/>
-      <c r="AD5" s="198"/>
-      <c r="AE5" s="198"/>
-      <c r="AF5" s="198"/>
-      <c r="AG5" s="199"/>
+      <c r="C5" s="200" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="201"/>
+      <c r="E5" s="201"/>
+      <c r="F5" s="202"/>
+      <c r="G5" s="203" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="204"/>
+      <c r="I5" s="204"/>
+      <c r="J5" s="204"/>
+      <c r="K5" s="204"/>
+      <c r="L5" s="201"/>
+      <c r="M5" s="201"/>
+      <c r="N5" s="201"/>
+      <c r="O5" s="201"/>
+      <c r="P5" s="201"/>
+      <c r="Q5" s="201"/>
+      <c r="R5" s="201"/>
+      <c r="S5" s="201"/>
+      <c r="T5" s="201"/>
+      <c r="U5" s="201"/>
+      <c r="V5" s="201"/>
+      <c r="W5" s="201"/>
+      <c r="X5" s="201"/>
+      <c r="Y5" s="201"/>
+      <c r="Z5" s="201"/>
+      <c r="AA5" s="201"/>
+      <c r="AB5" s="201"/>
+      <c r="AC5" s="201"/>
+      <c r="AD5" s="201"/>
+      <c r="AE5" s="201"/>
+      <c r="AF5" s="201"/>
+      <c r="AG5" s="202"/>
     </row>
     <row r="6" spans="2:33" s="56" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="57"/>
-      <c r="C6" s="200" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="201"/>
-      <c r="E6" s="201"/>
-      <c r="F6" s="202"/>
-      <c r="G6" s="206" t="s">
-        <v>94</v>
-      </c>
-      <c r="H6" s="198"/>
-      <c r="I6" s="198"/>
-      <c r="J6" s="198"/>
-      <c r="K6" s="198"/>
-      <c r="L6" s="198"/>
-      <c r="M6" s="198"/>
-      <c r="N6" s="198"/>
-      <c r="O6" s="198"/>
-      <c r="P6" s="198"/>
-      <c r="Q6" s="198"/>
-      <c r="R6" s="198"/>
-      <c r="S6" s="198"/>
-      <c r="T6" s="198"/>
-      <c r="U6" s="198"/>
-      <c r="V6" s="198"/>
-      <c r="W6" s="198"/>
-      <c r="X6" s="198"/>
-      <c r="Y6" s="198"/>
-      <c r="Z6" s="198"/>
-      <c r="AA6" s="198"/>
-      <c r="AB6" s="198"/>
-      <c r="AC6" s="198"/>
-      <c r="AD6" s="198"/>
-      <c r="AE6" s="198"/>
-      <c r="AF6" s="198"/>
-      <c r="AG6" s="199"/>
+      <c r="C6" s="205" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="206"/>
+      <c r="E6" s="206"/>
+      <c r="F6" s="207"/>
+      <c r="G6" s="203" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" s="201"/>
+      <c r="I6" s="201"/>
+      <c r="J6" s="201"/>
+      <c r="K6" s="201"/>
+      <c r="L6" s="201"/>
+      <c r="M6" s="201"/>
+      <c r="N6" s="201"/>
+      <c r="O6" s="201"/>
+      <c r="P6" s="201"/>
+      <c r="Q6" s="201"/>
+      <c r="R6" s="201"/>
+      <c r="S6" s="201"/>
+      <c r="T6" s="201"/>
+      <c r="U6" s="201"/>
+      <c r="V6" s="201"/>
+      <c r="W6" s="201"/>
+      <c r="X6" s="201"/>
+      <c r="Y6" s="201"/>
+      <c r="Z6" s="201"/>
+      <c r="AA6" s="201"/>
+      <c r="AB6" s="201"/>
+      <c r="AC6" s="201"/>
+      <c r="AD6" s="201"/>
+      <c r="AE6" s="201"/>
+      <c r="AF6" s="201"/>
+      <c r="AG6" s="202"/>
     </row>
     <row r="7" spans="2:33" s="56" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="57"/>
-      <c r="C7" s="188" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="189"/>
-      <c r="E7" s="189"/>
-      <c r="F7" s="190"/>
-      <c r="G7" s="342" t="s">
-        <v>93</v>
-      </c>
-      <c r="H7" s="343"/>
-      <c r="I7" s="343"/>
-      <c r="J7" s="343"/>
-      <c r="K7" s="343"/>
-      <c r="L7" s="343"/>
-      <c r="M7" s="343"/>
-      <c r="N7" s="343"/>
-      <c r="O7" s="343"/>
-      <c r="P7" s="343"/>
-      <c r="Q7" s="343"/>
-      <c r="R7" s="343"/>
-      <c r="S7" s="343"/>
-      <c r="T7" s="343"/>
-      <c r="U7" s="343"/>
-      <c r="V7" s="343"/>
-      <c r="W7" s="343"/>
-      <c r="X7" s="343"/>
-      <c r="Y7" s="343"/>
-      <c r="Z7" s="343"/>
-      <c r="AA7" s="343"/>
-      <c r="AB7" s="343"/>
-      <c r="AC7" s="343"/>
-      <c r="AD7" s="343"/>
-      <c r="AE7" s="343"/>
-      <c r="AF7" s="343"/>
-      <c r="AG7" s="344"/>
+      <c r="C7" s="191" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="192"/>
+      <c r="E7" s="192"/>
+      <c r="F7" s="193"/>
+      <c r="G7" s="187" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" s="188"/>
+      <c r="I7" s="188"/>
+      <c r="J7" s="188"/>
+      <c r="K7" s="188"/>
+      <c r="L7" s="188"/>
+      <c r="M7" s="188"/>
+      <c r="N7" s="188"/>
+      <c r="O7" s="188"/>
+      <c r="P7" s="188"/>
+      <c r="Q7" s="188"/>
+      <c r="R7" s="188"/>
+      <c r="S7" s="188"/>
+      <c r="T7" s="188"/>
+      <c r="U7" s="188"/>
+      <c r="V7" s="188"/>
+      <c r="W7" s="188"/>
+      <c r="X7" s="188"/>
+      <c r="Y7" s="188"/>
+      <c r="Z7" s="188"/>
+      <c r="AA7" s="188"/>
+      <c r="AB7" s="188"/>
+      <c r="AC7" s="188"/>
+      <c r="AD7" s="188"/>
+      <c r="AE7" s="188"/>
+      <c r="AF7" s="188"/>
+      <c r="AG7" s="189"/>
     </row>
     <row r="8" spans="2:33" s="56" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="57"/>
-      <c r="C8" s="191"/>
-      <c r="D8" s="192"/>
-      <c r="E8" s="192"/>
-      <c r="F8" s="193"/>
+      <c r="C8" s="194"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="195"/>
+      <c r="F8" s="196"/>
       <c r="G8" s="58"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -6312,10 +6301,10 @@
     </row>
     <row r="9" spans="2:33" s="56" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="57"/>
-      <c r="C9" s="191"/>
-      <c r="D9" s="192"/>
-      <c r="E9" s="192"/>
-      <c r="F9" s="193"/>
+      <c r="C9" s="194"/>
+      <c r="D9" s="195"/>
+      <c r="E9" s="195"/>
+      <c r="F9" s="196"/>
       <c r="G9" s="123"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
@@ -6346,10 +6335,10 @@
     </row>
     <row r="10" spans="2:33" s="56" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="57"/>
-      <c r="C10" s="194"/>
-      <c r="D10" s="195"/>
-      <c r="E10" s="195"/>
-      <c r="F10" s="196"/>
+      <c r="C10" s="197"/>
+      <c r="D10" s="198"/>
+      <c r="E10" s="198"/>
+      <c r="F10" s="199"/>
       <c r="G10" s="60"/>
       <c r="H10" s="61"/>
       <c r="I10" s="61"/>
@@ -6380,14 +6369,14 @@
     </row>
     <row r="11" spans="2:33" s="56" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="57"/>
-      <c r="C11" s="187" t="s">
+      <c r="C11" s="190" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="190"/>
+      <c r="E11" s="190"/>
+      <c r="F11" s="190"/>
+      <c r="G11" s="132" t="s">
         <v>91</v>
-      </c>
-      <c r="D11" s="187"/>
-      <c r="E11" s="187"/>
-      <c r="F11" s="187"/>
-      <c r="G11" s="132" t="s">
-        <v>92</v>
       </c>
       <c r="H11" s="63"/>
       <c r="I11" s="63"/>
@@ -6492,12 +6481,12 @@
     <row r="1" spans="2:38" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="133" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="2:38" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="130" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AL3" s="117"/>
     </row>
@@ -6542,7 +6531,7 @@
     <row r="42" spans="3:39" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="43" spans="3:39" ht="12" x14ac:dyDescent="0.2">
       <c r="C43" s="133" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D43" s="134"/>
       <c r="E43" s="134"/>
@@ -6615,39 +6604,39 @@
       <c r="D45" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="E45" s="227" t="s">
+      <c r="E45" s="270" t="s">
+        <v>95</v>
+      </c>
+      <c r="F45" s="270"/>
+      <c r="G45" s="270"/>
+      <c r="H45" s="270"/>
+      <c r="I45" s="270"/>
+      <c r="J45" s="270"/>
+      <c r="K45" s="270"/>
+      <c r="L45" s="270"/>
+      <c r="M45" s="270"/>
+      <c r="N45" s="270" t="s">
         <v>96</v>
       </c>
-      <c r="F45" s="227"/>
-      <c r="G45" s="227"/>
-      <c r="H45" s="227"/>
-      <c r="I45" s="227"/>
-      <c r="J45" s="227"/>
-      <c r="K45" s="227"/>
-      <c r="L45" s="227"/>
-      <c r="M45" s="227"/>
-      <c r="N45" s="227" t="s">
+      <c r="O45" s="270"/>
+      <c r="P45" s="270"/>
+      <c r="Q45" s="270" t="s">
         <v>97</v>
       </c>
-      <c r="O45" s="227"/>
-      <c r="P45" s="227"/>
-      <c r="Q45" s="227" t="s">
+      <c r="R45" s="270"/>
+      <c r="S45" s="270"/>
+      <c r="T45" s="270"/>
+      <c r="U45" s="270"/>
+      <c r="V45" s="270" t="s">
         <v>98</v>
       </c>
-      <c r="R45" s="227"/>
-      <c r="S45" s="227"/>
-      <c r="T45" s="227"/>
-      <c r="U45" s="227"/>
-      <c r="V45" s="227" t="s">
-        <v>99</v>
-      </c>
-      <c r="W45" s="227"/>
-      <c r="X45" s="227"/>
-      <c r="Y45" s="227"/>
-      <c r="Z45" s="227"/>
-      <c r="AA45" s="227"/>
-      <c r="AB45" s="227"/>
-      <c r="AC45" s="227"/>
+      <c r="W45" s="270"/>
+      <c r="X45" s="270"/>
+      <c r="Y45" s="270"/>
+      <c r="Z45" s="270"/>
+      <c r="AA45" s="270"/>
+      <c r="AB45" s="270"/>
+      <c r="AC45" s="270"/>
       <c r="AD45" s="93"/>
       <c r="AE45" s="93"/>
       <c r="AF45" s="93"/>
@@ -6659,39 +6648,39 @@
       <c r="D46" s="136">
         <v>1</v>
       </c>
-      <c r="E46" s="228" t="s">
+      <c r="E46" s="303" t="s">
         <v>27</v>
       </c>
-      <c r="F46" s="228"/>
-      <c r="G46" s="228"/>
-      <c r="H46" s="228"/>
-      <c r="I46" s="228"/>
-      <c r="J46" s="228"/>
-      <c r="K46" s="228"/>
-      <c r="L46" s="228"/>
-      <c r="M46" s="228"/>
-      <c r="N46" s="228" t="s">
+      <c r="F46" s="303"/>
+      <c r="G46" s="303"/>
+      <c r="H46" s="303"/>
+      <c r="I46" s="303"/>
+      <c r="J46" s="303"/>
+      <c r="K46" s="303"/>
+      <c r="L46" s="303"/>
+      <c r="M46" s="303"/>
+      <c r="N46" s="303" t="s">
         <v>27</v>
       </c>
-      <c r="O46" s="228"/>
-      <c r="P46" s="228"/>
-      <c r="Q46" s="241" t="s">
+      <c r="O46" s="303"/>
+      <c r="P46" s="303"/>
+      <c r="Q46" s="308" t="s">
         <v>27</v>
       </c>
-      <c r="R46" s="241"/>
-      <c r="S46" s="241"/>
-      <c r="T46" s="241"/>
-      <c r="U46" s="241"/>
-      <c r="V46" s="241" t="s">
+      <c r="R46" s="308"/>
+      <c r="S46" s="308"/>
+      <c r="T46" s="308"/>
+      <c r="U46" s="308"/>
+      <c r="V46" s="308" t="s">
         <v>27</v>
       </c>
-      <c r="W46" s="241"/>
-      <c r="X46" s="241"/>
-      <c r="Y46" s="241"/>
-      <c r="Z46" s="241"/>
-      <c r="AA46" s="241"/>
-      <c r="AB46" s="241"/>
-      <c r="AC46" s="241"/>
+      <c r="W46" s="308"/>
+      <c r="X46" s="308"/>
+      <c r="Y46" s="308"/>
+      <c r="Z46" s="308"/>
+      <c r="AA46" s="308"/>
+      <c r="AB46" s="308"/>
+      <c r="AC46" s="308"/>
       <c r="AM46" s="9"/>
     </row>
     <row r="47" spans="3:39" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6728,7 +6717,7 @@
     </row>
     <row r="49" spans="3:53" ht="12" x14ac:dyDescent="0.2">
       <c r="C49" s="130" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AK49" s="57"/>
       <c r="AL49" s="57"/>
@@ -6768,95 +6757,95 @@
       <c r="AZ50" s="90"/>
     </row>
     <row r="51" spans="3:53" s="56" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="D51" s="242" t="s">
+      <c r="D51" s="294" t="s">
         <v>0</v>
       </c>
-      <c r="E51" s="245" t="s">
+      <c r="E51" s="287" t="s">
+        <v>99</v>
+      </c>
+      <c r="F51" s="288"/>
+      <c r="G51" s="288"/>
+      <c r="H51" s="288"/>
+      <c r="I51" s="288"/>
+      <c r="J51" s="288"/>
+      <c r="K51" s="288"/>
+      <c r="L51" s="288"/>
+      <c r="M51" s="288"/>
+      <c r="N51" s="288"/>
+      <c r="O51" s="288"/>
+      <c r="P51" s="288"/>
+      <c r="Q51" s="288"/>
+      <c r="R51" s="288"/>
+      <c r="S51" s="288"/>
+      <c r="T51" s="288"/>
+      <c r="U51" s="288"/>
+      <c r="V51" s="288"/>
+      <c r="W51" s="288"/>
+      <c r="X51" s="288"/>
+      <c r="Y51" s="288"/>
+      <c r="Z51" s="288"/>
+      <c r="AA51" s="288"/>
+      <c r="AB51" s="288"/>
+      <c r="AC51" s="289"/>
+      <c r="AD51" s="191" t="s">
         <v>100</v>
       </c>
-      <c r="F51" s="246"/>
-      <c r="G51" s="246"/>
-      <c r="H51" s="246"/>
-      <c r="I51" s="246"/>
-      <c r="J51" s="246"/>
-      <c r="K51" s="246"/>
-      <c r="L51" s="246"/>
-      <c r="M51" s="246"/>
-      <c r="N51" s="246"/>
-      <c r="O51" s="246"/>
-      <c r="P51" s="246"/>
-      <c r="Q51" s="246"/>
-      <c r="R51" s="246"/>
-      <c r="S51" s="246"/>
-      <c r="T51" s="246"/>
-      <c r="U51" s="246"/>
-      <c r="V51" s="246"/>
-      <c r="W51" s="246"/>
-      <c r="X51" s="246"/>
-      <c r="Y51" s="246"/>
-      <c r="Z51" s="246"/>
-      <c r="AA51" s="246"/>
-      <c r="AB51" s="246"/>
-      <c r="AC51" s="247"/>
-      <c r="AD51" s="188" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE51" s="189"/>
-      <c r="AF51" s="189"/>
-      <c r="AG51" s="190"/>
+      <c r="AE51" s="192"/>
+      <c r="AF51" s="192"/>
+      <c r="AG51" s="193"/>
       <c r="AH51" s="90"/>
       <c r="AI51" s="90"/>
       <c r="AJ51" s="90"/>
       <c r="AK51" s="138" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AL51" s="90"/>
       <c r="AM51" s="90"/>
       <c r="AN51" s="90"/>
     </row>
     <row r="52" spans="3:53" s="56" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D52" s="243"/>
-      <c r="E52" s="188" t="s">
+      <c r="D52" s="295"/>
+      <c r="E52" s="191" t="s">
+        <v>101</v>
+      </c>
+      <c r="F52" s="192"/>
+      <c r="G52" s="192"/>
+      <c r="H52" s="193"/>
+      <c r="I52" s="297" t="s">
         <v>102</v>
       </c>
-      <c r="F52" s="189"/>
-      <c r="G52" s="189"/>
-      <c r="H52" s="190"/>
-      <c r="I52" s="235" t="s">
+      <c r="J52" s="298"/>
+      <c r="K52" s="298"/>
+      <c r="L52" s="299"/>
+      <c r="M52" s="297" t="s">
         <v>103</v>
       </c>
-      <c r="J52" s="236"/>
-      <c r="K52" s="236"/>
-      <c r="L52" s="237"/>
-      <c r="M52" s="235" t="s">
+      <c r="N52" s="298"/>
+      <c r="O52" s="298"/>
+      <c r="P52" s="298"/>
+      <c r="Q52" s="298"/>
+      <c r="R52" s="298"/>
+      <c r="S52" s="298"/>
+      <c r="T52" s="299"/>
+      <c r="U52" s="191" t="s">
         <v>104</v>
       </c>
-      <c r="N52" s="236"/>
-      <c r="O52" s="236"/>
-      <c r="P52" s="236"/>
-      <c r="Q52" s="236"/>
-      <c r="R52" s="236"/>
-      <c r="S52" s="236"/>
-      <c r="T52" s="237"/>
-      <c r="U52" s="188" t="s">
+      <c r="V52" s="192"/>
+      <c r="W52" s="192"/>
+      <c r="X52" s="192"/>
+      <c r="Y52" s="193"/>
+      <c r="Z52" s="191" t="s">
         <v>105</v>
       </c>
-      <c r="V52" s="189"/>
-      <c r="W52" s="189"/>
-      <c r="X52" s="189"/>
-      <c r="Y52" s="190"/>
-      <c r="Z52" s="188" t="s">
+      <c r="AA52" s="192"/>
+      <c r="AB52" s="193"/>
+      <c r="AC52" s="268" t="s">
         <v>106</v>
       </c>
-      <c r="AA52" s="189"/>
-      <c r="AB52" s="190"/>
-      <c r="AC52" s="345" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD52" s="191"/>
-      <c r="AE52" s="192"/>
-      <c r="AF52" s="192"/>
-      <c r="AG52" s="193"/>
+      <c r="AD52" s="194"/>
+      <c r="AE52" s="195"/>
+      <c r="AF52" s="195"/>
+      <c r="AG52" s="196"/>
       <c r="AH52" s="90"/>
       <c r="AI52" s="90"/>
       <c r="AJ52" s="90"/>
@@ -6872,91 +6861,91 @@
       <c r="AT52" s="90"/>
     </row>
     <row r="53" spans="3:53" s="56" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="D53" s="244"/>
-      <c r="E53" s="194"/>
-      <c r="F53" s="195"/>
-      <c r="G53" s="195"/>
-      <c r="H53" s="196"/>
-      <c r="I53" s="238"/>
-      <c r="J53" s="239"/>
-      <c r="K53" s="239"/>
-      <c r="L53" s="240"/>
-      <c r="M53" s="238"/>
-      <c r="N53" s="239"/>
-      <c r="O53" s="239"/>
-      <c r="P53" s="239"/>
-      <c r="Q53" s="239"/>
-      <c r="R53" s="239"/>
-      <c r="S53" s="239"/>
-      <c r="T53" s="240"/>
-      <c r="U53" s="194"/>
-      <c r="V53" s="195"/>
-      <c r="W53" s="195"/>
-      <c r="X53" s="195"/>
-      <c r="Y53" s="196"/>
-      <c r="Z53" s="194"/>
-      <c r="AA53" s="195"/>
-      <c r="AB53" s="196"/>
-      <c r="AC53" s="346"/>
-      <c r="AD53" s="194"/>
-      <c r="AE53" s="195"/>
-      <c r="AF53" s="195"/>
-      <c r="AG53" s="196"/>
+      <c r="D53" s="296"/>
+      <c r="E53" s="197"/>
+      <c r="F53" s="198"/>
+      <c r="G53" s="198"/>
+      <c r="H53" s="199"/>
+      <c r="I53" s="300"/>
+      <c r="J53" s="301"/>
+      <c r="K53" s="301"/>
+      <c r="L53" s="302"/>
+      <c r="M53" s="300"/>
+      <c r="N53" s="301"/>
+      <c r="O53" s="301"/>
+      <c r="P53" s="301"/>
+      <c r="Q53" s="301"/>
+      <c r="R53" s="301"/>
+      <c r="S53" s="301"/>
+      <c r="T53" s="302"/>
+      <c r="U53" s="197"/>
+      <c r="V53" s="198"/>
+      <c r="W53" s="198"/>
+      <c r="X53" s="198"/>
+      <c r="Y53" s="199"/>
+      <c r="Z53" s="197"/>
+      <c r="AA53" s="198"/>
+      <c r="AB53" s="199"/>
+      <c r="AC53" s="269"/>
+      <c r="AD53" s="197"/>
+      <c r="AE53" s="198"/>
+      <c r="AF53" s="198"/>
+      <c r="AG53" s="199"/>
       <c r="AH53" s="90"/>
       <c r="AI53" s="90"/>
       <c r="AJ53" s="90"/>
       <c r="AK53" s="90"/>
-      <c r="AL53" s="203" t="s">
-        <v>128</v>
-      </c>
-      <c r="AM53" s="204"/>
-      <c r="AN53" s="204"/>
-      <c r="AO53" s="204"/>
-      <c r="AP53" s="205"/>
+      <c r="AL53" s="249" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM53" s="250"/>
+      <c r="AN53" s="250"/>
+      <c r="AO53" s="250"/>
+      <c r="AP53" s="251"/>
       <c r="AQ53" s="90"/>
       <c r="AR53" s="90"/>
       <c r="AS53" s="90"/>
       <c r="AT53" s="90"/>
     </row>
     <row r="54" spans="3:53" s="56" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D54" s="229" t="s">
-        <v>119</v>
-      </c>
-      <c r="E54" s="230"/>
-      <c r="F54" s="230"/>
-      <c r="G54" s="230"/>
-      <c r="H54" s="230"/>
-      <c r="I54" s="230"/>
-      <c r="J54" s="230"/>
-      <c r="K54" s="230"/>
-      <c r="L54" s="230"/>
-      <c r="M54" s="230"/>
-      <c r="N54" s="230"/>
-      <c r="O54" s="230"/>
-      <c r="P54" s="230"/>
-      <c r="Q54" s="230"/>
-      <c r="R54" s="230"/>
-      <c r="S54" s="230"/>
-      <c r="T54" s="230"/>
-      <c r="U54" s="230"/>
-      <c r="V54" s="230"/>
-      <c r="W54" s="230"/>
-      <c r="X54" s="230"/>
-      <c r="Y54" s="230"/>
-      <c r="Z54" s="230"/>
-      <c r="AA54" s="230"/>
-      <c r="AB54" s="230"/>
-      <c r="AC54" s="230"/>
-      <c r="AD54" s="230"/>
-      <c r="AE54" s="230"/>
-      <c r="AF54" s="230"/>
-      <c r="AG54" s="231"/>
+      <c r="D54" s="304" t="s">
+        <v>118</v>
+      </c>
+      <c r="E54" s="305"/>
+      <c r="F54" s="305"/>
+      <c r="G54" s="305"/>
+      <c r="H54" s="305"/>
+      <c r="I54" s="305"/>
+      <c r="J54" s="305"/>
+      <c r="K54" s="305"/>
+      <c r="L54" s="305"/>
+      <c r="M54" s="305"/>
+      <c r="N54" s="305"/>
+      <c r="O54" s="305"/>
+      <c r="P54" s="305"/>
+      <c r="Q54" s="305"/>
+      <c r="R54" s="305"/>
+      <c r="S54" s="305"/>
+      <c r="T54" s="305"/>
+      <c r="U54" s="305"/>
+      <c r="V54" s="305"/>
+      <c r="W54" s="305"/>
+      <c r="X54" s="305"/>
+      <c r="Y54" s="305"/>
+      <c r="Z54" s="305"/>
+      <c r="AA54" s="305"/>
+      <c r="AB54" s="305"/>
+      <c r="AC54" s="305"/>
+      <c r="AD54" s="305"/>
+      <c r="AE54" s="305"/>
+      <c r="AF54" s="305"/>
+      <c r="AG54" s="306"/>
       <c r="AH54" s="90"/>
       <c r="AI54" s="90"/>
       <c r="AJ54" s="90"/>
       <c r="AK54" s="90"/>
       <c r="AL54" s="139" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AM54" s="140"/>
       <c r="AN54" s="140"/>
@@ -6971,63 +6960,63 @@
       <c r="D55" s="137">
         <v>1</v>
       </c>
-      <c r="E55" s="206" t="s">
-        <v>108</v>
-      </c>
-      <c r="F55" s="207"/>
-      <c r="G55" s="207"/>
+      <c r="E55" s="203" t="s">
+        <v>107</v>
+      </c>
+      <c r="F55" s="204"/>
+      <c r="G55" s="204"/>
       <c r="H55" s="208"/>
-      <c r="I55" s="226" t="s">
+      <c r="I55" s="215" t="s">
         <v>24</v>
       </c>
-      <c r="J55" s="226"/>
-      <c r="K55" s="226"/>
-      <c r="L55" s="226"/>
-      <c r="M55" s="220" t="s">
-        <v>129</v>
-      </c>
-      <c r="N55" s="221"/>
-      <c r="O55" s="221"/>
-      <c r="P55" s="221"/>
-      <c r="Q55" s="221"/>
-      <c r="R55" s="221"/>
-      <c r="S55" s="221"/>
-      <c r="T55" s="222"/>
-      <c r="U55" s="232" t="s">
+      <c r="J55" s="215"/>
+      <c r="K55" s="215"/>
+      <c r="L55" s="215"/>
+      <c r="M55" s="221" t="s">
+        <v>128</v>
+      </c>
+      <c r="N55" s="222"/>
+      <c r="O55" s="222"/>
+      <c r="P55" s="222"/>
+      <c r="Q55" s="222"/>
+      <c r="R55" s="222"/>
+      <c r="S55" s="222"/>
+      <c r="T55" s="223"/>
+      <c r="U55" s="224" t="s">
         <v>27</v>
       </c>
-      <c r="V55" s="224"/>
-      <c r="W55" s="224"/>
-      <c r="X55" s="224"/>
-      <c r="Y55" s="225"/>
-      <c r="Z55" s="223" t="s">
+      <c r="V55" s="213"/>
+      <c r="W55" s="213"/>
+      <c r="X55" s="213"/>
+      <c r="Y55" s="214"/>
+      <c r="Z55" s="212" t="s">
         <v>17</v>
       </c>
-      <c r="AA55" s="224"/>
-      <c r="AB55" s="225"/>
+      <c r="AA55" s="213"/>
+      <c r="AB55" s="214"/>
       <c r="AC55" s="142" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD55" s="212" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE55" s="213"/>
-      <c r="AF55" s="213"/>
-      <c r="AG55" s="214"/>
-      <c r="AL55" s="206" t="s">
-        <v>50</v>
-      </c>
-      <c r="AM55" s="207" t="s">
-        <v>43</v>
-      </c>
-      <c r="AN55" s="207" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO55" s="207" t="s">
-        <v>43</v>
+        <v>263</v>
+      </c>
+      <c r="AD55" s="209" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE55" s="210"/>
+      <c r="AF55" s="210"/>
+      <c r="AG55" s="211"/>
+      <c r="AL55" s="203" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM55" s="204" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN55" s="204" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO55" s="204" t="s">
+        <v>42</v>
       </c>
       <c r="AP55" s="208" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AU55" s="86"/>
       <c r="AV55" s="86"/>
@@ -7039,63 +7028,63 @@
       <c r="D56" s="137">
         <v>2</v>
       </c>
-      <c r="E56" s="206" t="s">
-        <v>109</v>
-      </c>
-      <c r="F56" s="207"/>
-      <c r="G56" s="207"/>
+      <c r="E56" s="203" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" s="204"/>
+      <c r="G56" s="204"/>
       <c r="H56" s="208"/>
-      <c r="I56" s="226" t="s">
+      <c r="I56" s="215" t="s">
         <v>24</v>
       </c>
-      <c r="J56" s="226"/>
-      <c r="K56" s="226"/>
-      <c r="L56" s="226"/>
-      <c r="M56" s="220" t="s">
-        <v>129</v>
-      </c>
-      <c r="N56" s="221"/>
-      <c r="O56" s="221"/>
-      <c r="P56" s="221"/>
-      <c r="Q56" s="221"/>
-      <c r="R56" s="221"/>
-      <c r="S56" s="221"/>
-      <c r="T56" s="222"/>
-      <c r="U56" s="232" t="s">
+      <c r="J56" s="215"/>
+      <c r="K56" s="215"/>
+      <c r="L56" s="215"/>
+      <c r="M56" s="221" t="s">
+        <v>128</v>
+      </c>
+      <c r="N56" s="222"/>
+      <c r="O56" s="222"/>
+      <c r="P56" s="222"/>
+      <c r="Q56" s="222"/>
+      <c r="R56" s="222"/>
+      <c r="S56" s="222"/>
+      <c r="T56" s="223"/>
+      <c r="U56" s="224" t="s">
         <v>27</v>
       </c>
-      <c r="V56" s="224"/>
-      <c r="W56" s="224"/>
-      <c r="X56" s="224"/>
-      <c r="Y56" s="225"/>
-      <c r="Z56" s="223" t="s">
+      <c r="V56" s="213"/>
+      <c r="W56" s="213"/>
+      <c r="X56" s="213"/>
+      <c r="Y56" s="214"/>
+      <c r="Z56" s="212" t="s">
         <v>17</v>
       </c>
-      <c r="AA56" s="224"/>
-      <c r="AB56" s="225"/>
+      <c r="AA56" s="213"/>
+      <c r="AB56" s="214"/>
       <c r="AC56" s="142" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD56" s="212" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE56" s="213"/>
-      <c r="AF56" s="213"/>
-      <c r="AG56" s="214"/>
-      <c r="AL56" s="206" t="s">
-        <v>51</v>
-      </c>
-      <c r="AM56" s="207" t="s">
-        <v>43</v>
-      </c>
-      <c r="AN56" s="207" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO56" s="207" t="s">
-        <v>43</v>
+        <v>263</v>
+      </c>
+      <c r="AD56" s="209" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE56" s="210"/>
+      <c r="AF56" s="210"/>
+      <c r="AG56" s="211"/>
+      <c r="AL56" s="203" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM56" s="204" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN56" s="204" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO56" s="204" t="s">
+        <v>42</v>
       </c>
       <c r="AP56" s="208" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AU56" s="86"/>
       <c r="AV56" s="86"/>
@@ -7107,67 +7096,67 @@
       <c r="D57" s="137">
         <v>3</v>
       </c>
-      <c r="E57" s="206" t="s">
-        <v>110</v>
-      </c>
-      <c r="F57" s="207"/>
-      <c r="G57" s="207"/>
+      <c r="E57" s="203" t="s">
+        <v>109</v>
+      </c>
+      <c r="F57" s="204"/>
+      <c r="G57" s="204"/>
       <c r="H57" s="208"/>
-      <c r="I57" s="226" t="s">
+      <c r="I57" s="215" t="s">
         <v>25</v>
       </c>
-      <c r="J57" s="226"/>
-      <c r="K57" s="226"/>
-      <c r="L57" s="226"/>
-      <c r="M57" s="220" t="s">
-        <v>130</v>
-      </c>
-      <c r="N57" s="221"/>
-      <c r="O57" s="221"/>
-      <c r="P57" s="221"/>
-      <c r="Q57" s="221"/>
-      <c r="R57" s="221"/>
-      <c r="S57" s="221"/>
-      <c r="T57" s="222"/>
-      <c r="U57" s="233" t="s">
+      <c r="J57" s="215"/>
+      <c r="K57" s="215"/>
+      <c r="L57" s="215"/>
+      <c r="M57" s="221" t="s">
+        <v>129</v>
+      </c>
+      <c r="N57" s="222"/>
+      <c r="O57" s="222"/>
+      <c r="P57" s="222"/>
+      <c r="Q57" s="222"/>
+      <c r="R57" s="222"/>
+      <c r="S57" s="222"/>
+      <c r="T57" s="223"/>
+      <c r="U57" s="307" t="s">
         <v>27</v>
       </c>
-      <c r="V57" s="234"/>
-      <c r="W57" s="234"/>
-      <c r="X57" s="234"/>
-      <c r="Y57" s="234"/>
-      <c r="Z57" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA57" s="234"/>
-      <c r="AB57" s="234"/>
+      <c r="V57" s="283"/>
+      <c r="W57" s="283"/>
+      <c r="X57" s="283"/>
+      <c r="Y57" s="283"/>
+      <c r="Z57" s="282" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA57" s="283"/>
+      <c r="AB57" s="283"/>
       <c r="AC57" s="142" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD57" s="212" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE57" s="213"/>
-      <c r="AF57" s="213"/>
-      <c r="AG57" s="214"/>
+        <v>263</v>
+      </c>
+      <c r="AD57" s="209" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE57" s="210"/>
+      <c r="AF57" s="210"/>
+      <c r="AG57" s="211"/>
       <c r="AH57" s="90"/>
       <c r="AI57" s="90"/>
       <c r="AJ57" s="90"/>
       <c r="AK57" s="90"/>
-      <c r="AL57" s="206" t="s">
-        <v>52</v>
-      </c>
-      <c r="AM57" s="207" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN57" s="207" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO57" s="207" t="s">
-        <v>38</v>
+      <c r="AL57" s="203" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM57" s="204" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN57" s="204" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO57" s="204" t="s">
+        <v>37</v>
       </c>
       <c r="AP57" s="208" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AQ57" s="90"/>
       <c r="AR57" s="90"/>
@@ -7178,67 +7167,67 @@
       <c r="D58" s="137">
         <v>4</v>
       </c>
-      <c r="E58" s="206" t="s">
-        <v>111</v>
-      </c>
-      <c r="F58" s="207"/>
-      <c r="G58" s="207"/>
+      <c r="E58" s="203" t="s">
+        <v>110</v>
+      </c>
+      <c r="F58" s="204"/>
+      <c r="G58" s="204"/>
       <c r="H58" s="208"/>
-      <c r="I58" s="226" t="s">
+      <c r="I58" s="215" t="s">
         <v>24</v>
       </c>
-      <c r="J58" s="226"/>
-      <c r="K58" s="226"/>
-      <c r="L58" s="226"/>
-      <c r="M58" s="220" t="s">
-        <v>131</v>
-      </c>
-      <c r="N58" s="221"/>
-      <c r="O58" s="221"/>
-      <c r="P58" s="221"/>
-      <c r="Q58" s="221"/>
-      <c r="R58" s="221"/>
-      <c r="S58" s="221"/>
-      <c r="T58" s="222"/>
-      <c r="U58" s="212" t="s">
-        <v>140</v>
-      </c>
-      <c r="V58" s="213"/>
-      <c r="W58" s="213"/>
-      <c r="X58" s="213"/>
-      <c r="Y58" s="214"/>
-      <c r="Z58" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA58" s="234"/>
-      <c r="AB58" s="234"/>
+      <c r="J58" s="215"/>
+      <c r="K58" s="215"/>
+      <c r="L58" s="215"/>
+      <c r="M58" s="221" t="s">
+        <v>130</v>
+      </c>
+      <c r="N58" s="222"/>
+      <c r="O58" s="222"/>
+      <c r="P58" s="222"/>
+      <c r="Q58" s="222"/>
+      <c r="R58" s="222"/>
+      <c r="S58" s="222"/>
+      <c r="T58" s="223"/>
+      <c r="U58" s="209" t="s">
+        <v>139</v>
+      </c>
+      <c r="V58" s="210"/>
+      <c r="W58" s="210"/>
+      <c r="X58" s="210"/>
+      <c r="Y58" s="211"/>
+      <c r="Z58" s="282" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA58" s="283"/>
+      <c r="AB58" s="283"/>
       <c r="AC58" s="142" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD58" s="212" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE58" s="213"/>
-      <c r="AF58" s="213"/>
-      <c r="AG58" s="214"/>
+        <v>263</v>
+      </c>
+      <c r="AD58" s="209" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE58" s="210"/>
+      <c r="AF58" s="210"/>
+      <c r="AG58" s="211"/>
       <c r="AH58" s="90"/>
       <c r="AI58" s="90"/>
       <c r="AJ58" s="90"/>
       <c r="AK58" s="90"/>
-      <c r="AL58" s="206" t="s">
-        <v>53</v>
-      </c>
-      <c r="AM58" s="207" t="s">
-        <v>39</v>
-      </c>
-      <c r="AN58" s="207" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO58" s="207" t="s">
-        <v>39</v>
+      <c r="AL58" s="203" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM58" s="204" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN58" s="204" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO58" s="204" t="s">
+        <v>38</v>
       </c>
       <c r="AP58" s="208" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AQ58" s="90"/>
       <c r="AR58" s="90"/>
@@ -7249,67 +7238,67 @@
       <c r="D59" s="137">
         <v>5</v>
       </c>
-      <c r="E59" s="206" t="s">
-        <v>112</v>
-      </c>
-      <c r="F59" s="207"/>
-      <c r="G59" s="207"/>
+      <c r="E59" s="203" t="s">
+        <v>111</v>
+      </c>
+      <c r="F59" s="204"/>
+      <c r="G59" s="204"/>
       <c r="H59" s="208"/>
-      <c r="I59" s="226" t="s">
-        <v>49</v>
-      </c>
-      <c r="J59" s="226"/>
-      <c r="K59" s="226"/>
-      <c r="L59" s="226"/>
-      <c r="M59" s="220" t="s">
-        <v>132</v>
-      </c>
-      <c r="N59" s="221"/>
-      <c r="O59" s="221"/>
-      <c r="P59" s="221"/>
-      <c r="Q59" s="221"/>
-      <c r="R59" s="221"/>
-      <c r="S59" s="221"/>
-      <c r="T59" s="222"/>
-      <c r="U59" s="212" t="s">
-        <v>141</v>
-      </c>
-      <c r="V59" s="213"/>
-      <c r="W59" s="213"/>
-      <c r="X59" s="213"/>
-      <c r="Y59" s="214"/>
-      <c r="Z59" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA59" s="234"/>
-      <c r="AB59" s="234"/>
+      <c r="I59" s="215" t="s">
+        <v>48</v>
+      </c>
+      <c r="J59" s="215"/>
+      <c r="K59" s="215"/>
+      <c r="L59" s="215"/>
+      <c r="M59" s="221" t="s">
+        <v>131</v>
+      </c>
+      <c r="N59" s="222"/>
+      <c r="O59" s="222"/>
+      <c r="P59" s="222"/>
+      <c r="Q59" s="222"/>
+      <c r="R59" s="222"/>
+      <c r="S59" s="222"/>
+      <c r="T59" s="223"/>
+      <c r="U59" s="209" t="s">
+        <v>140</v>
+      </c>
+      <c r="V59" s="210"/>
+      <c r="W59" s="210"/>
+      <c r="X59" s="210"/>
+      <c r="Y59" s="211"/>
+      <c r="Z59" s="282" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA59" s="283"/>
+      <c r="AB59" s="283"/>
       <c r="AC59" s="142" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD59" s="212" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE59" s="213"/>
-      <c r="AF59" s="213"/>
-      <c r="AG59" s="214"/>
+        <v>263</v>
+      </c>
+      <c r="AD59" s="209" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE59" s="210"/>
+      <c r="AF59" s="210"/>
+      <c r="AG59" s="211"/>
       <c r="AH59" s="90"/>
       <c r="AI59" s="90"/>
       <c r="AJ59" s="90"/>
       <c r="AK59" s="90"/>
-      <c r="AL59" s="206" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM59" s="207" t="s">
-        <v>40</v>
-      </c>
-      <c r="AN59" s="207" t="s">
-        <v>40</v>
-      </c>
-      <c r="AO59" s="207" t="s">
-        <v>40</v>
+      <c r="AL59" s="203" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM59" s="204" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN59" s="204" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO59" s="204" t="s">
+        <v>39</v>
       </c>
       <c r="AP59" s="208" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AQ59" s="90"/>
       <c r="AR59" s="90"/>
@@ -7320,63 +7309,63 @@
       <c r="D60" s="137">
         <v>6</v>
       </c>
-      <c r="E60" s="206" t="s">
-        <v>263</v>
-      </c>
-      <c r="F60" s="207"/>
-      <c r="G60" s="207"/>
+      <c r="E60" s="203" t="s">
+        <v>261</v>
+      </c>
+      <c r="F60" s="204"/>
+      <c r="G60" s="204"/>
       <c r="H60" s="208"/>
-      <c r="I60" s="302" t="s">
+      <c r="I60" s="220" t="s">
         <v>25</v>
       </c>
-      <c r="J60" s="302"/>
-      <c r="K60" s="302"/>
-      <c r="L60" s="302"/>
-      <c r="M60" s="220" t="s">
-        <v>133</v>
-      </c>
-      <c r="N60" s="221"/>
-      <c r="O60" s="221"/>
-      <c r="P60" s="221"/>
-      <c r="Q60" s="221"/>
-      <c r="R60" s="221"/>
-      <c r="S60" s="221"/>
-      <c r="T60" s="222"/>
-      <c r="U60" s="212" t="s">
-        <v>142</v>
-      </c>
-      <c r="V60" s="213"/>
-      <c r="W60" s="213"/>
-      <c r="X60" s="213"/>
-      <c r="Y60" s="214"/>
-      <c r="Z60" s="223" t="s">
+      <c r="J60" s="220"/>
+      <c r="K60" s="220"/>
+      <c r="L60" s="220"/>
+      <c r="M60" s="221" t="s">
+        <v>132</v>
+      </c>
+      <c r="N60" s="222"/>
+      <c r="O60" s="222"/>
+      <c r="P60" s="222"/>
+      <c r="Q60" s="222"/>
+      <c r="R60" s="222"/>
+      <c r="S60" s="222"/>
+      <c r="T60" s="223"/>
+      <c r="U60" s="209" t="s">
+        <v>141</v>
+      </c>
+      <c r="V60" s="210"/>
+      <c r="W60" s="210"/>
+      <c r="X60" s="210"/>
+      <c r="Y60" s="211"/>
+      <c r="Z60" s="212" t="s">
         <v>17</v>
       </c>
-      <c r="AA60" s="224"/>
-      <c r="AB60" s="225"/>
+      <c r="AA60" s="213"/>
+      <c r="AB60" s="214"/>
       <c r="AC60" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="AD60" s="212" t="s">
-        <v>113</v>
-      </c>
-      <c r="AE60" s="213"/>
-      <c r="AF60" s="213"/>
-      <c r="AG60" s="214"/>
-      <c r="AL60" s="206" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM60" s="207" t="s">
-        <v>47</v>
-      </c>
-      <c r="AN60" s="207" t="s">
-        <v>47</v>
-      </c>
-      <c r="AO60" s="207" t="s">
-        <v>47</v>
+      <c r="AD60" s="209" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE60" s="210"/>
+      <c r="AF60" s="210"/>
+      <c r="AG60" s="211"/>
+      <c r="AL60" s="203" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM60" s="204" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN60" s="204" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO60" s="204" t="s">
+        <v>46</v>
       </c>
       <c r="AP60" s="208" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AY60" s="71"/>
     </row>
@@ -7384,63 +7373,63 @@
       <c r="D61" s="137">
         <v>7</v>
       </c>
-      <c r="E61" s="206" t="s">
-        <v>114</v>
-      </c>
-      <c r="F61" s="207"/>
-      <c r="G61" s="207"/>
+      <c r="E61" s="203" t="s">
+        <v>113</v>
+      </c>
+      <c r="F61" s="204"/>
+      <c r="G61" s="204"/>
       <c r="H61" s="208"/>
-      <c r="I61" s="226" t="s">
+      <c r="I61" s="215" t="s">
         <v>23</v>
       </c>
-      <c r="J61" s="226"/>
-      <c r="K61" s="226"/>
-      <c r="L61" s="226"/>
-      <c r="M61" s="220" t="s">
-        <v>134</v>
-      </c>
-      <c r="N61" s="221"/>
-      <c r="O61" s="221"/>
-      <c r="P61" s="221"/>
-      <c r="Q61" s="221"/>
-      <c r="R61" s="221"/>
-      <c r="S61" s="221"/>
-      <c r="T61" s="222"/>
-      <c r="U61" s="232" t="s">
+      <c r="J61" s="215"/>
+      <c r="K61" s="215"/>
+      <c r="L61" s="215"/>
+      <c r="M61" s="221" t="s">
+        <v>133</v>
+      </c>
+      <c r="N61" s="222"/>
+      <c r="O61" s="222"/>
+      <c r="P61" s="222"/>
+      <c r="Q61" s="222"/>
+      <c r="R61" s="222"/>
+      <c r="S61" s="222"/>
+      <c r="T61" s="223"/>
+      <c r="U61" s="224" t="s">
         <v>27</v>
       </c>
-      <c r="V61" s="224"/>
-      <c r="W61" s="224"/>
-      <c r="X61" s="224"/>
-      <c r="Y61" s="225"/>
-      <c r="Z61" s="223" t="s">
+      <c r="V61" s="213"/>
+      <c r="W61" s="213"/>
+      <c r="X61" s="213"/>
+      <c r="Y61" s="214"/>
+      <c r="Z61" s="212" t="s">
         <v>17</v>
       </c>
-      <c r="AA61" s="224"/>
-      <c r="AB61" s="225"/>
+      <c r="AA61" s="213"/>
+      <c r="AB61" s="214"/>
       <c r="AC61" s="142" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD61" s="212" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE61" s="213"/>
-      <c r="AF61" s="213"/>
-      <c r="AG61" s="214"/>
-      <c r="AL61" s="206" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM61" s="207" t="s">
-        <v>43</v>
-      </c>
-      <c r="AN61" s="207" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO61" s="207" t="s">
-        <v>43</v>
+        <v>263</v>
+      </c>
+      <c r="AD61" s="209" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE61" s="210"/>
+      <c r="AF61" s="210"/>
+      <c r="AG61" s="211"/>
+      <c r="AL61" s="203" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM61" s="204" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN61" s="204" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO61" s="204" t="s">
+        <v>42</v>
       </c>
       <c r="AP61" s="208" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AU61" s="86"/>
       <c r="AV61" s="86"/>
@@ -7452,63 +7441,63 @@
       <c r="D62" s="137">
         <v>8</v>
       </c>
-      <c r="E62" s="206" t="s">
-        <v>115</v>
-      </c>
-      <c r="F62" s="207"/>
-      <c r="G62" s="207"/>
+      <c r="E62" s="203" t="s">
+        <v>114</v>
+      </c>
+      <c r="F62" s="204"/>
+      <c r="G62" s="204"/>
       <c r="H62" s="208"/>
-      <c r="I62" s="226" t="s">
+      <c r="I62" s="215" t="s">
         <v>25</v>
       </c>
-      <c r="J62" s="226"/>
-      <c r="K62" s="226"/>
-      <c r="L62" s="226"/>
-      <c r="M62" s="220" t="s">
-        <v>135</v>
-      </c>
-      <c r="N62" s="221"/>
-      <c r="O62" s="221"/>
-      <c r="P62" s="221"/>
-      <c r="Q62" s="221"/>
-      <c r="R62" s="221"/>
-      <c r="S62" s="221"/>
-      <c r="T62" s="222"/>
-      <c r="U62" s="232" t="s">
+      <c r="J62" s="215"/>
+      <c r="K62" s="215"/>
+      <c r="L62" s="215"/>
+      <c r="M62" s="221" t="s">
+        <v>134</v>
+      </c>
+      <c r="N62" s="222"/>
+      <c r="O62" s="222"/>
+      <c r="P62" s="222"/>
+      <c r="Q62" s="222"/>
+      <c r="R62" s="222"/>
+      <c r="S62" s="222"/>
+      <c r="T62" s="223"/>
+      <c r="U62" s="224" t="s">
         <v>27</v>
       </c>
-      <c r="V62" s="224"/>
-      <c r="W62" s="224"/>
-      <c r="X62" s="224"/>
-      <c r="Y62" s="225"/>
-      <c r="Z62" s="223" t="s">
+      <c r="V62" s="213"/>
+      <c r="W62" s="213"/>
+      <c r="X62" s="213"/>
+      <c r="Y62" s="214"/>
+      <c r="Z62" s="212" t="s">
         <v>17</v>
       </c>
-      <c r="AA62" s="224"/>
-      <c r="AB62" s="225"/>
+      <c r="AA62" s="213"/>
+      <c r="AB62" s="214"/>
       <c r="AC62" s="142" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD62" s="212" t="s">
-        <v>125</v>
-      </c>
-      <c r="AE62" s="213"/>
-      <c r="AF62" s="213"/>
-      <c r="AG62" s="214"/>
-      <c r="AL62" s="206" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM62" s="207" t="s">
-        <v>44</v>
-      </c>
-      <c r="AN62" s="207" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO62" s="207" t="s">
-        <v>44</v>
+        <v>263</v>
+      </c>
+      <c r="AD62" s="209" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE62" s="210"/>
+      <c r="AF62" s="210"/>
+      <c r="AG62" s="211"/>
+      <c r="AL62" s="203" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM62" s="204" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN62" s="204" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO62" s="204" t="s">
+        <v>43</v>
       </c>
       <c r="AP62" s="208" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AU62" s="86"/>
       <c r="AV62" s="65"/>
@@ -7520,63 +7509,63 @@
       <c r="D63" s="137">
         <v>9</v>
       </c>
-      <c r="E63" s="206" t="s">
-        <v>116</v>
-      </c>
-      <c r="F63" s="207"/>
-      <c r="G63" s="207"/>
+      <c r="E63" s="203" t="s">
+        <v>115</v>
+      </c>
+      <c r="F63" s="204"/>
+      <c r="G63" s="204"/>
       <c r="H63" s="208"/>
-      <c r="I63" s="226" t="s">
+      <c r="I63" s="215" t="s">
         <v>25</v>
       </c>
-      <c r="J63" s="226"/>
-      <c r="K63" s="226"/>
-      <c r="L63" s="226"/>
-      <c r="M63" s="220" t="s">
-        <v>136</v>
-      </c>
-      <c r="N63" s="221"/>
-      <c r="O63" s="221"/>
-      <c r="P63" s="221"/>
-      <c r="Q63" s="221"/>
-      <c r="R63" s="221"/>
-      <c r="S63" s="221"/>
-      <c r="T63" s="222"/>
-      <c r="U63" s="232" t="s">
+      <c r="J63" s="215"/>
+      <c r="K63" s="215"/>
+      <c r="L63" s="215"/>
+      <c r="M63" s="221" t="s">
+        <v>135</v>
+      </c>
+      <c r="N63" s="222"/>
+      <c r="O63" s="222"/>
+      <c r="P63" s="222"/>
+      <c r="Q63" s="222"/>
+      <c r="R63" s="222"/>
+      <c r="S63" s="222"/>
+      <c r="T63" s="223"/>
+      <c r="U63" s="224" t="s">
         <v>27</v>
       </c>
-      <c r="V63" s="224"/>
-      <c r="W63" s="224"/>
-      <c r="X63" s="224"/>
-      <c r="Y63" s="225"/>
-      <c r="Z63" s="223" t="s">
+      <c r="V63" s="213"/>
+      <c r="W63" s="213"/>
+      <c r="X63" s="213"/>
+      <c r="Y63" s="214"/>
+      <c r="Z63" s="212" t="s">
         <v>17</v>
       </c>
-      <c r="AA63" s="224"/>
-      <c r="AB63" s="225"/>
+      <c r="AA63" s="213"/>
+      <c r="AB63" s="214"/>
       <c r="AC63" s="142" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD63" s="212" t="s">
-        <v>125</v>
-      </c>
-      <c r="AE63" s="213"/>
-      <c r="AF63" s="213"/>
-      <c r="AG63" s="214"/>
-      <c r="AL63" s="212" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM63" s="213" t="s">
-        <v>45</v>
-      </c>
-      <c r="AN63" s="213" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO63" s="213" t="s">
-        <v>45</v>
-      </c>
-      <c r="AP63" s="214" t="s">
-        <v>45</v>
+        <v>263</v>
+      </c>
+      <c r="AD63" s="209" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE63" s="210"/>
+      <c r="AF63" s="210"/>
+      <c r="AG63" s="211"/>
+      <c r="AL63" s="209" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM63" s="210" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN63" s="210" t="s">
+        <v>44</v>
+      </c>
+      <c r="AO63" s="210" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP63" s="211" t="s">
+        <v>44</v>
       </c>
       <c r="AR63" s="90"/>
       <c r="AS63" s="90"/>
@@ -7586,67 +7575,67 @@
       <c r="D64" s="137">
         <v>10</v>
       </c>
-      <c r="E64" s="212" t="s">
-        <v>117</v>
-      </c>
-      <c r="F64" s="213"/>
-      <c r="G64" s="213"/>
-      <c r="H64" s="214"/>
-      <c r="I64" s="226" t="s">
+      <c r="E64" s="209" t="s">
+        <v>116</v>
+      </c>
+      <c r="F64" s="210"/>
+      <c r="G64" s="210"/>
+      <c r="H64" s="211"/>
+      <c r="I64" s="215" t="s">
         <v>25</v>
       </c>
-      <c r="J64" s="226"/>
-      <c r="K64" s="226"/>
-      <c r="L64" s="226"/>
-      <c r="M64" s="220" t="s">
-        <v>137</v>
-      </c>
-      <c r="N64" s="221"/>
-      <c r="O64" s="221"/>
-      <c r="P64" s="221"/>
-      <c r="Q64" s="221"/>
-      <c r="R64" s="221"/>
-      <c r="S64" s="221"/>
-      <c r="T64" s="222"/>
-      <c r="U64" s="212" t="s">
-        <v>143</v>
-      </c>
-      <c r="V64" s="213"/>
-      <c r="W64" s="213"/>
-      <c r="X64" s="213"/>
-      <c r="Y64" s="214"/>
-      <c r="Z64" s="223" t="s">
+      <c r="J64" s="215"/>
+      <c r="K64" s="215"/>
+      <c r="L64" s="215"/>
+      <c r="M64" s="221" t="s">
+        <v>136</v>
+      </c>
+      <c r="N64" s="222"/>
+      <c r="O64" s="222"/>
+      <c r="P64" s="222"/>
+      <c r="Q64" s="222"/>
+      <c r="R64" s="222"/>
+      <c r="S64" s="222"/>
+      <c r="T64" s="223"/>
+      <c r="U64" s="209" t="s">
+        <v>142</v>
+      </c>
+      <c r="V64" s="210"/>
+      <c r="W64" s="210"/>
+      <c r="X64" s="210"/>
+      <c r="Y64" s="211"/>
+      <c r="Z64" s="212" t="s">
         <v>17</v>
       </c>
-      <c r="AA64" s="224"/>
-      <c r="AB64" s="225"/>
+      <c r="AA64" s="213"/>
+      <c r="AB64" s="214"/>
       <c r="AC64" s="142" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD64" s="212" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE64" s="213"/>
-      <c r="AF64" s="213"/>
-      <c r="AG64" s="214"/>
+        <v>263</v>
+      </c>
+      <c r="AD64" s="209" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE64" s="210"/>
+      <c r="AF64" s="210"/>
+      <c r="AG64" s="211"/>
       <c r="AH64" s="103"/>
       <c r="AI64" s="103"/>
       <c r="AJ64" s="103"/>
       <c r="AK64" s="90"/>
-      <c r="AL64" s="206" t="s">
-        <v>59</v>
-      </c>
-      <c r="AM64" s="207" t="s">
-        <v>41</v>
-      </c>
-      <c r="AN64" s="207" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO64" s="207" t="s">
-        <v>41</v>
+      <c r="AL64" s="203" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM64" s="204" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN64" s="204" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO64" s="204" t="s">
+        <v>40</v>
       </c>
       <c r="AP64" s="208" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AQ64" s="90"/>
       <c r="AR64" s="90"/>
@@ -7655,63 +7644,63 @@
       <c r="D65" s="137">
         <v>11</v>
       </c>
-      <c r="E65" s="212" t="s">
-        <v>118</v>
-      </c>
-      <c r="F65" s="213"/>
-      <c r="G65" s="213"/>
-      <c r="H65" s="214"/>
-      <c r="I65" s="226" t="s">
+      <c r="E65" s="209" t="s">
+        <v>117</v>
+      </c>
+      <c r="F65" s="210"/>
+      <c r="G65" s="210"/>
+      <c r="H65" s="211"/>
+      <c r="I65" s="215" t="s">
         <v>25</v>
       </c>
-      <c r="J65" s="226"/>
-      <c r="K65" s="226"/>
-      <c r="L65" s="226"/>
-      <c r="M65" s="220" t="s">
-        <v>138</v>
-      </c>
-      <c r="N65" s="221"/>
-      <c r="O65" s="221"/>
-      <c r="P65" s="221"/>
-      <c r="Q65" s="221"/>
-      <c r="R65" s="221"/>
-      <c r="S65" s="221"/>
-      <c r="T65" s="222"/>
-      <c r="U65" s="212" t="s">
-        <v>143</v>
-      </c>
-      <c r="V65" s="213"/>
-      <c r="W65" s="213"/>
-      <c r="X65" s="213"/>
-      <c r="Y65" s="214"/>
-      <c r="Z65" s="223" t="s">
+      <c r="J65" s="215"/>
+      <c r="K65" s="215"/>
+      <c r="L65" s="215"/>
+      <c r="M65" s="221" t="s">
+        <v>137</v>
+      </c>
+      <c r="N65" s="222"/>
+      <c r="O65" s="222"/>
+      <c r="P65" s="222"/>
+      <c r="Q65" s="222"/>
+      <c r="R65" s="222"/>
+      <c r="S65" s="222"/>
+      <c r="T65" s="223"/>
+      <c r="U65" s="209" t="s">
+        <v>142</v>
+      </c>
+      <c r="V65" s="210"/>
+      <c r="W65" s="210"/>
+      <c r="X65" s="210"/>
+      <c r="Y65" s="211"/>
+      <c r="Z65" s="212" t="s">
         <v>17</v>
       </c>
-      <c r="AA65" s="224"/>
-      <c r="AB65" s="225"/>
+      <c r="AA65" s="213"/>
+      <c r="AB65" s="214"/>
       <c r="AC65" s="142" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD65" s="212" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE65" s="213"/>
-      <c r="AF65" s="213"/>
-      <c r="AG65" s="214"/>
-      <c r="AL65" s="206" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM65" s="207" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN65" s="207" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO65" s="207" t="s">
-        <v>42</v>
+        <v>263</v>
+      </c>
+      <c r="AD65" s="209" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE65" s="210"/>
+      <c r="AF65" s="210"/>
+      <c r="AG65" s="211"/>
+      <c r="AL65" s="203" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM65" s="204" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN65" s="204" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO65" s="204" t="s">
+        <v>41</v>
       </c>
       <c r="AP65" s="208" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AU65" s="86"/>
       <c r="AV65" s="86"/>
@@ -7723,63 +7712,63 @@
       <c r="D66" s="137">
         <v>12</v>
       </c>
-      <c r="E66" s="206" t="s">
-        <v>99</v>
-      </c>
-      <c r="F66" s="207"/>
-      <c r="G66" s="207"/>
+      <c r="E66" s="203" t="s">
+        <v>98</v>
+      </c>
+      <c r="F66" s="204"/>
+      <c r="G66" s="204"/>
       <c r="H66" s="208"/>
-      <c r="I66" s="226" t="s">
+      <c r="I66" s="215" t="s">
         <v>26</v>
       </c>
-      <c r="J66" s="226"/>
-      <c r="K66" s="226"/>
-      <c r="L66" s="226"/>
-      <c r="M66" s="220" t="s">
-        <v>139</v>
-      </c>
-      <c r="N66" s="221"/>
-      <c r="O66" s="221"/>
-      <c r="P66" s="221"/>
-      <c r="Q66" s="221"/>
-      <c r="R66" s="221"/>
-      <c r="S66" s="221"/>
-      <c r="T66" s="222"/>
-      <c r="U66" s="232" t="s">
+      <c r="J66" s="215"/>
+      <c r="K66" s="215"/>
+      <c r="L66" s="215"/>
+      <c r="M66" s="221" t="s">
+        <v>138</v>
+      </c>
+      <c r="N66" s="222"/>
+      <c r="O66" s="222"/>
+      <c r="P66" s="222"/>
+      <c r="Q66" s="222"/>
+      <c r="R66" s="222"/>
+      <c r="S66" s="222"/>
+      <c r="T66" s="223"/>
+      <c r="U66" s="224" t="s">
         <v>27</v>
       </c>
-      <c r="V66" s="224"/>
-      <c r="W66" s="224"/>
-      <c r="X66" s="224"/>
-      <c r="Y66" s="225"/>
-      <c r="Z66" s="223" t="s">
+      <c r="V66" s="213"/>
+      <c r="W66" s="213"/>
+      <c r="X66" s="213"/>
+      <c r="Y66" s="214"/>
+      <c r="Z66" s="212" t="s">
         <v>17</v>
       </c>
-      <c r="AA66" s="224"/>
-      <c r="AB66" s="225"/>
+      <c r="AA66" s="213"/>
+      <c r="AB66" s="214"/>
       <c r="AC66" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="AD66" s="212" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE66" s="213"/>
-      <c r="AF66" s="213"/>
-      <c r="AG66" s="214"/>
-      <c r="AL66" s="206" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM66" s="207" t="s">
-        <v>46</v>
-      </c>
-      <c r="AN66" s="207" t="s">
-        <v>46</v>
-      </c>
-      <c r="AO66" s="207" t="s">
-        <v>46</v>
+      <c r="AD66" s="209" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE66" s="210"/>
+      <c r="AF66" s="210"/>
+      <c r="AG66" s="211"/>
+      <c r="AL66" s="203" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM66" s="204" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN66" s="204" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO66" s="204" t="s">
+        <v>45</v>
       </c>
       <c r="AP66" s="208" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AY66" s="71"/>
     </row>
@@ -7830,7 +7819,7 @@
     </row>
     <row r="69" spans="3:53" ht="12" x14ac:dyDescent="0.2">
       <c r="C69" s="130" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D69" s="83"/>
       <c r="E69" s="84"/>
@@ -7891,49 +7880,49 @@
       <c r="AW70" s="68"/>
     </row>
     <row r="71" spans="3:53" ht="12" x14ac:dyDescent="0.15">
-      <c r="D71" s="249" t="s">
+      <c r="D71" s="271" t="s">
         <v>0</v>
       </c>
-      <c r="E71" s="251" t="s">
+      <c r="E71" s="273" t="s">
+        <v>143</v>
+      </c>
+      <c r="F71" s="274"/>
+      <c r="G71" s="274"/>
+      <c r="H71" s="274"/>
+      <c r="I71" s="274"/>
+      <c r="J71" s="275"/>
+      <c r="K71" s="273" t="s">
         <v>144</v>
       </c>
-      <c r="F71" s="252"/>
-      <c r="G71" s="252"/>
-      <c r="H71" s="252"/>
-      <c r="I71" s="252"/>
-      <c r="J71" s="253"/>
-      <c r="K71" s="251" t="s">
+      <c r="L71" s="274"/>
+      <c r="M71" s="274"/>
+      <c r="N71" s="275"/>
+      <c r="O71" s="290" t="s">
         <v>145</v>
       </c>
-      <c r="L71" s="252"/>
-      <c r="M71" s="252"/>
-      <c r="N71" s="253"/>
-      <c r="O71" s="268" t="s">
+      <c r="P71" s="146" t="s">
         <v>146</v>
-      </c>
-      <c r="P71" s="146" t="s">
-        <v>147</v>
       </c>
       <c r="Q71" s="147"/>
       <c r="R71" s="147"/>
       <c r="S71" s="147"/>
       <c r="T71" s="147"/>
       <c r="U71" s="147"/>
-      <c r="V71" s="251" t="s">
-        <v>99</v>
-      </c>
-      <c r="W71" s="252"/>
-      <c r="X71" s="252"/>
-      <c r="Y71" s="252"/>
-      <c r="Z71" s="252"/>
-      <c r="AA71" s="252"/>
-      <c r="AB71" s="252"/>
-      <c r="AC71" s="252"/>
-      <c r="AD71" s="252"/>
-      <c r="AE71" s="252"/>
-      <c r="AF71" s="252"/>
-      <c r="AG71" s="252"/>
-      <c r="AH71" s="253"/>
+      <c r="V71" s="273" t="s">
+        <v>98</v>
+      </c>
+      <c r="W71" s="274"/>
+      <c r="X71" s="274"/>
+      <c r="Y71" s="274"/>
+      <c r="Z71" s="274"/>
+      <c r="AA71" s="274"/>
+      <c r="AB71" s="274"/>
+      <c r="AC71" s="274"/>
+      <c r="AD71" s="274"/>
+      <c r="AE71" s="274"/>
+      <c r="AF71" s="274"/>
+      <c r="AG71" s="274"/>
+      <c r="AH71" s="275"/>
       <c r="AK71" s="68"/>
       <c r="AL71" s="68"/>
       <c r="AM71" s="68"/>
@@ -7949,47 +7938,47 @@
       <c r="AW71" s="68"/>
     </row>
     <row r="72" spans="3:53" ht="12" x14ac:dyDescent="0.15">
-      <c r="D72" s="250"/>
-      <c r="E72" s="254"/>
-      <c r="F72" s="255"/>
-      <c r="G72" s="255"/>
-      <c r="H72" s="255"/>
-      <c r="I72" s="255"/>
-      <c r="J72" s="256"/>
-      <c r="K72" s="254"/>
-      <c r="L72" s="255"/>
-      <c r="M72" s="255"/>
-      <c r="N72" s="256"/>
-      <c r="O72" s="269"/>
+      <c r="D72" s="272"/>
+      <c r="E72" s="276"/>
+      <c r="F72" s="277"/>
+      <c r="G72" s="277"/>
+      <c r="H72" s="277"/>
+      <c r="I72" s="277"/>
+      <c r="J72" s="278"/>
+      <c r="K72" s="276"/>
+      <c r="L72" s="277"/>
+      <c r="M72" s="277"/>
+      <c r="N72" s="278"/>
+      <c r="O72" s="291"/>
       <c r="P72" s="148" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q72" s="148" t="s">
         <v>148</v>
       </c>
-      <c r="Q72" s="148" t="s">
+      <c r="R72" s="148" t="s">
         <v>149</v>
       </c>
-      <c r="R72" s="148" t="s">
+      <c r="S72" s="148" t="s">
         <v>150</v>
       </c>
-      <c r="S72" s="148" t="s">
+      <c r="T72" s="292" t="s">
         <v>151</v>
       </c>
-      <c r="T72" s="270" t="s">
-        <v>152</v>
-      </c>
-      <c r="U72" s="271"/>
-      <c r="V72" s="254"/>
-      <c r="W72" s="255"/>
-      <c r="X72" s="255"/>
-      <c r="Y72" s="255"/>
-      <c r="Z72" s="255"/>
-      <c r="AA72" s="255"/>
-      <c r="AB72" s="255"/>
-      <c r="AC72" s="255"/>
-      <c r="AD72" s="255"/>
-      <c r="AE72" s="255"/>
-      <c r="AF72" s="255"/>
-      <c r="AG72" s="255"/>
-      <c r="AH72" s="256"/>
+      <c r="U72" s="293"/>
+      <c r="V72" s="276"/>
+      <c r="W72" s="277"/>
+      <c r="X72" s="277"/>
+      <c r="Y72" s="277"/>
+      <c r="Z72" s="277"/>
+      <c r="AA72" s="277"/>
+      <c r="AB72" s="277"/>
+      <c r="AC72" s="277"/>
+      <c r="AD72" s="277"/>
+      <c r="AE72" s="277"/>
+      <c r="AF72" s="277"/>
+      <c r="AG72" s="277"/>
+      <c r="AH72" s="278"/>
       <c r="AK72" s="68"/>
       <c r="AL72" s="68"/>
       <c r="AM72" s="68"/>
@@ -8008,28 +7997,28 @@
       <c r="D73" s="149">
         <v>1</v>
       </c>
-      <c r="E73" s="215" t="s">
+      <c r="E73" s="240" t="s">
+        <v>152</v>
+      </c>
+      <c r="F73" s="241"/>
+      <c r="G73" s="241"/>
+      <c r="H73" s="241"/>
+      <c r="I73" s="241"/>
+      <c r="J73" s="242"/>
+      <c r="K73" s="209" t="s">
         <v>153</v>
       </c>
-      <c r="F73" s="216"/>
-      <c r="G73" s="216"/>
-      <c r="H73" s="216"/>
-      <c r="I73" s="216"/>
-      <c r="J73" s="217"/>
-      <c r="K73" s="212" t="s">
-        <v>154</v>
-      </c>
-      <c r="L73" s="213"/>
-      <c r="M73" s="213"/>
-      <c r="N73" s="214"/>
+      <c r="L73" s="210"/>
+      <c r="M73" s="210"/>
+      <c r="N73" s="211"/>
       <c r="O73" s="150" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P73" s="151" t="s">
         <v>27</v>
       </c>
       <c r="Q73" s="151" t="s">
-        <v>155</v>
+        <v>263</v>
       </c>
       <c r="R73" s="151" t="s">
         <v>27</v>
@@ -8037,25 +8026,25 @@
       <c r="S73" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="T73" s="218" t="s">
+      <c r="T73" s="309" t="s">
         <v>27</v>
       </c>
-      <c r="U73" s="219"/>
-      <c r="V73" s="212" t="s">
+      <c r="U73" s="310"/>
+      <c r="V73" s="209" t="s">
         <v>17</v>
       </c>
-      <c r="W73" s="213"/>
-      <c r="X73" s="213"/>
-      <c r="Y73" s="213"/>
-      <c r="Z73" s="213"/>
-      <c r="AA73" s="213"/>
-      <c r="AB73" s="213"/>
-      <c r="AC73" s="213"/>
-      <c r="AD73" s="213"/>
-      <c r="AE73" s="213"/>
-      <c r="AF73" s="213"/>
-      <c r="AG73" s="213"/>
-      <c r="AH73" s="214"/>
+      <c r="W73" s="210"/>
+      <c r="X73" s="210"/>
+      <c r="Y73" s="210"/>
+      <c r="Z73" s="210"/>
+      <c r="AA73" s="210"/>
+      <c r="AB73" s="210"/>
+      <c r="AC73" s="210"/>
+      <c r="AD73" s="210"/>
+      <c r="AE73" s="210"/>
+      <c r="AF73" s="210"/>
+      <c r="AG73" s="210"/>
+      <c r="AH73" s="211"/>
       <c r="AK73" s="68"/>
       <c r="AL73" s="68"/>
       <c r="AM73" s="68"/>
@@ -8164,7 +8153,7 @@
     </row>
     <row r="76" spans="3:53" ht="12" x14ac:dyDescent="0.2">
       <c r="C76" s="130" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D76" s="130"/>
       <c r="E76" s="130"/>
@@ -8189,271 +8178,271 @@
       <c r="D78" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="E78" s="300" t="s">
+      <c r="E78" s="216" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" s="217"/>
+      <c r="G78" s="217"/>
+      <c r="H78" s="217"/>
+      <c r="I78" s="217"/>
+      <c r="J78" s="218"/>
+      <c r="K78" s="216" t="s">
+        <v>155</v>
+      </c>
+      <c r="L78" s="217"/>
+      <c r="M78" s="217"/>
+      <c r="N78" s="217"/>
+      <c r="O78" s="217"/>
+      <c r="P78" s="217"/>
+      <c r="Q78" s="219"/>
+      <c r="R78" s="200" t="s">
         <v>156</v>
       </c>
-      <c r="F78" s="257"/>
-      <c r="G78" s="257"/>
-      <c r="H78" s="257"/>
-      <c r="I78" s="257"/>
-      <c r="J78" s="301"/>
-      <c r="K78" s="300" t="s">
+      <c r="S78" s="217"/>
+      <c r="T78" s="217"/>
+      <c r="U78" s="217"/>
+      <c r="V78" s="217"/>
+      <c r="W78" s="217"/>
+      <c r="X78" s="217"/>
+      <c r="Y78" s="219"/>
+      <c r="Z78" s="287" t="s">
         <v>157</v>
       </c>
-      <c r="L78" s="257"/>
-      <c r="M78" s="257"/>
-      <c r="N78" s="257"/>
-      <c r="O78" s="257"/>
-      <c r="P78" s="257"/>
-      <c r="Q78" s="258"/>
-      <c r="R78" s="197" t="s">
+      <c r="AA78" s="288"/>
+      <c r="AB78" s="288"/>
+      <c r="AC78" s="288"/>
+      <c r="AD78" s="289"/>
+      <c r="AE78" s="284" t="s">
         <v>158</v>
       </c>
-      <c r="S78" s="257"/>
-      <c r="T78" s="257"/>
-      <c r="U78" s="257"/>
-      <c r="V78" s="257"/>
-      <c r="W78" s="257"/>
-      <c r="X78" s="257"/>
-      <c r="Y78" s="258"/>
-      <c r="Z78" s="245" t="s">
-        <v>159</v>
-      </c>
-      <c r="AA78" s="246"/>
-      <c r="AB78" s="246"/>
-      <c r="AC78" s="246"/>
-      <c r="AD78" s="247"/>
-      <c r="AE78" s="262" t="s">
-        <v>160</v>
-      </c>
-      <c r="AF78" s="263"/>
-      <c r="AG78" s="263"/>
-      <c r="AH78" s="264"/>
+      <c r="AF78" s="285"/>
+      <c r="AG78" s="285"/>
+      <c r="AH78" s="286"/>
     </row>
     <row r="79" spans="3:53" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D79" s="137">
         <v>1</v>
       </c>
-      <c r="E79" s="212" t="s">
+      <c r="E79" s="209" t="s">
+        <v>159</v>
+      </c>
+      <c r="F79" s="210"/>
+      <c r="G79" s="210"/>
+      <c r="H79" s="210"/>
+      <c r="I79" s="210"/>
+      <c r="J79" s="211"/>
+      <c r="K79" s="209" t="s">
+        <v>27</v>
+      </c>
+      <c r="L79" s="210"/>
+      <c r="M79" s="210"/>
+      <c r="N79" s="210"/>
+      <c r="O79" s="210"/>
+      <c r="P79" s="210"/>
+      <c r="Q79" s="211"/>
+      <c r="R79" s="209" t="s">
+        <v>160</v>
+      </c>
+      <c r="S79" s="210"/>
+      <c r="T79" s="210"/>
+      <c r="U79" s="210"/>
+      <c r="V79" s="210"/>
+      <c r="W79" s="210"/>
+      <c r="X79" s="210"/>
+      <c r="Y79" s="211"/>
+      <c r="Z79" s="209" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA79" s="210"/>
+      <c r="AB79" s="210"/>
+      <c r="AC79" s="210"/>
+      <c r="AD79" s="211"/>
+      <c r="AE79" s="246" t="s">
         <v>161</v>
       </c>
-      <c r="F79" s="213"/>
-      <c r="G79" s="213"/>
-      <c r="H79" s="213"/>
-      <c r="I79" s="213"/>
-      <c r="J79" s="214"/>
-      <c r="K79" s="212" t="s">
-        <v>27</v>
-      </c>
-      <c r="L79" s="213"/>
-      <c r="M79" s="213"/>
-      <c r="N79" s="213"/>
-      <c r="O79" s="213"/>
-      <c r="P79" s="213"/>
-      <c r="Q79" s="214"/>
-      <c r="R79" s="212" t="s">
-        <v>162</v>
-      </c>
-      <c r="S79" s="213"/>
-      <c r="T79" s="213"/>
-      <c r="U79" s="213"/>
-      <c r="V79" s="213"/>
-      <c r="W79" s="213"/>
-      <c r="X79" s="213"/>
-      <c r="Y79" s="214"/>
-      <c r="Z79" s="212" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA79" s="213"/>
-      <c r="AB79" s="213"/>
-      <c r="AC79" s="213"/>
-      <c r="AD79" s="214"/>
-      <c r="AE79" s="265" t="s">
-        <v>163</v>
-      </c>
-      <c r="AF79" s="266"/>
-      <c r="AG79" s="266"/>
-      <c r="AH79" s="267"/>
+      <c r="AF79" s="247"/>
+      <c r="AG79" s="247"/>
+      <c r="AH79" s="248"/>
     </row>
     <row r="80" spans="3:53" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D80" s="153">
         <v>2</v>
       </c>
-      <c r="E80" s="294" t="s">
+      <c r="E80" s="228" t="s">
+        <v>162</v>
+      </c>
+      <c r="F80" s="229"/>
+      <c r="G80" s="229"/>
+      <c r="H80" s="229"/>
+      <c r="I80" s="229"/>
+      <c r="J80" s="230"/>
+      <c r="K80" s="228" t="s">
+        <v>163</v>
+      </c>
+      <c r="L80" s="229"/>
+      <c r="M80" s="229"/>
+      <c r="N80" s="229"/>
+      <c r="O80" s="229"/>
+      <c r="P80" s="229"/>
+      <c r="Q80" s="230"/>
+      <c r="R80" s="228" t="s">
         <v>164</v>
       </c>
-      <c r="F80" s="295"/>
-      <c r="G80" s="295"/>
-      <c r="H80" s="295"/>
-      <c r="I80" s="295"/>
-      <c r="J80" s="296"/>
-      <c r="K80" s="294" t="s">
+      <c r="S80" s="229"/>
+      <c r="T80" s="229"/>
+      <c r="U80" s="229"/>
+      <c r="V80" s="229"/>
+      <c r="W80" s="229"/>
+      <c r="X80" s="229"/>
+      <c r="Y80" s="230"/>
+      <c r="Z80" s="228" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA80" s="229"/>
+      <c r="AB80" s="229"/>
+      <c r="AC80" s="229"/>
+      <c r="AD80" s="230"/>
+      <c r="AE80" s="231" t="s">
         <v>165</v>
       </c>
-      <c r="L80" s="295"/>
-      <c r="M80" s="295"/>
-      <c r="N80" s="295"/>
-      <c r="O80" s="295"/>
-      <c r="P80" s="295"/>
-      <c r="Q80" s="296"/>
-      <c r="R80" s="294" t="s">
-        <v>166</v>
-      </c>
-      <c r="S80" s="295"/>
-      <c r="T80" s="295"/>
-      <c r="U80" s="295"/>
-      <c r="V80" s="295"/>
-      <c r="W80" s="295"/>
-      <c r="X80" s="295"/>
-      <c r="Y80" s="296"/>
-      <c r="Z80" s="294" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA80" s="295"/>
-      <c r="AB80" s="295"/>
-      <c r="AC80" s="295"/>
-      <c r="AD80" s="296"/>
-      <c r="AE80" s="297" t="s">
-        <v>167</v>
-      </c>
-      <c r="AF80" s="298"/>
-      <c r="AG80" s="298"/>
-      <c r="AH80" s="299"/>
+      <c r="AF80" s="232"/>
+      <c r="AG80" s="232"/>
+      <c r="AH80" s="233"/>
     </row>
     <row r="81" spans="1:56" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D81" s="137">
         <v>3</v>
       </c>
-      <c r="E81" s="212" t="s">
+      <c r="E81" s="209" t="s">
+        <v>166</v>
+      </c>
+      <c r="F81" s="210"/>
+      <c r="G81" s="210"/>
+      <c r="H81" s="210"/>
+      <c r="I81" s="210"/>
+      <c r="J81" s="211"/>
+      <c r="K81" s="209" t="s">
+        <v>169</v>
+      </c>
+      <c r="L81" s="210"/>
+      <c r="M81" s="210"/>
+      <c r="N81" s="210"/>
+      <c r="O81" s="210"/>
+      <c r="P81" s="210"/>
+      <c r="Q81" s="211"/>
+      <c r="R81" s="209" t="s">
+        <v>167</v>
+      </c>
+      <c r="S81" s="210"/>
+      <c r="T81" s="210"/>
+      <c r="U81" s="210"/>
+      <c r="V81" s="210"/>
+      <c r="W81" s="210"/>
+      <c r="X81" s="210"/>
+      <c r="Y81" s="211"/>
+      <c r="Z81" s="209" t="s">
         <v>168</v>
       </c>
-      <c r="F81" s="213"/>
-      <c r="G81" s="213"/>
-      <c r="H81" s="213"/>
-      <c r="I81" s="213"/>
-      <c r="J81" s="214"/>
-      <c r="K81" s="212" t="s">
-        <v>171</v>
-      </c>
-      <c r="L81" s="213"/>
-      <c r="M81" s="213"/>
-      <c r="N81" s="213"/>
-      <c r="O81" s="213"/>
-      <c r="P81" s="213"/>
-      <c r="Q81" s="214"/>
-      <c r="R81" s="212" t="s">
-        <v>169</v>
-      </c>
-      <c r="S81" s="213"/>
-      <c r="T81" s="213"/>
-      <c r="U81" s="213"/>
-      <c r="V81" s="213"/>
-      <c r="W81" s="213"/>
-      <c r="X81" s="213"/>
-      <c r="Y81" s="214"/>
-      <c r="Z81" s="212" t="s">
-        <v>170</v>
-      </c>
-      <c r="AA81" s="213"/>
-      <c r="AB81" s="213"/>
-      <c r="AC81" s="213"/>
-      <c r="AD81" s="214"/>
-      <c r="AE81" s="265" t="s">
-        <v>163</v>
-      </c>
-      <c r="AF81" s="266"/>
-      <c r="AG81" s="266"/>
-      <c r="AH81" s="267"/>
+      <c r="AA81" s="210"/>
+      <c r="AB81" s="210"/>
+      <c r="AC81" s="210"/>
+      <c r="AD81" s="211"/>
+      <c r="AE81" s="246" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF81" s="247"/>
+      <c r="AG81" s="247"/>
+      <c r="AH81" s="248"/>
     </row>
     <row r="82" spans="1:56" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D82" s="154">
         <v>4</v>
       </c>
-      <c r="E82" s="285" t="s">
-        <v>178</v>
-      </c>
-      <c r="F82" s="286"/>
-      <c r="G82" s="286"/>
-      <c r="H82" s="286"/>
-      <c r="I82" s="286"/>
-      <c r="J82" s="287"/>
-      <c r="K82" s="212" t="s">
+      <c r="E82" s="243" t="s">
+        <v>176</v>
+      </c>
+      <c r="F82" s="244"/>
+      <c r="G82" s="244"/>
+      <c r="H82" s="244"/>
+      <c r="I82" s="244"/>
+      <c r="J82" s="245"/>
+      <c r="K82" s="209" t="s">
+        <v>170</v>
+      </c>
+      <c r="L82" s="210"/>
+      <c r="M82" s="210"/>
+      <c r="N82" s="210"/>
+      <c r="O82" s="210"/>
+      <c r="P82" s="210"/>
+      <c r="Q82" s="211"/>
+      <c r="R82" s="209" t="s">
+        <v>171</v>
+      </c>
+      <c r="S82" s="210"/>
+      <c r="T82" s="210"/>
+      <c r="U82" s="210"/>
+      <c r="V82" s="210"/>
+      <c r="W82" s="210"/>
+      <c r="X82" s="210"/>
+      <c r="Y82" s="211"/>
+      <c r="Z82" s="209" t="s">
         <v>172</v>
       </c>
-      <c r="L82" s="213"/>
-      <c r="M82" s="213"/>
-      <c r="N82" s="213"/>
-      <c r="O82" s="213"/>
-      <c r="P82" s="213"/>
-      <c r="Q82" s="214"/>
-      <c r="R82" s="212" t="s">
-        <v>173</v>
-      </c>
-      <c r="S82" s="213"/>
-      <c r="T82" s="213"/>
-      <c r="U82" s="213"/>
-      <c r="V82" s="213"/>
-      <c r="W82" s="213"/>
-      <c r="X82" s="213"/>
-      <c r="Y82" s="214"/>
-      <c r="Z82" s="212" t="s">
-        <v>174</v>
-      </c>
-      <c r="AA82" s="213"/>
-      <c r="AB82" s="213"/>
-      <c r="AC82" s="213"/>
-      <c r="AD82" s="214"/>
-      <c r="AE82" s="265" t="s">
-        <v>163</v>
-      </c>
-      <c r="AF82" s="266"/>
-      <c r="AG82" s="266"/>
-      <c r="AH82" s="267"/>
+      <c r="AA82" s="210"/>
+      <c r="AB82" s="210"/>
+      <c r="AC82" s="210"/>
+      <c r="AD82" s="211"/>
+      <c r="AE82" s="246" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF82" s="247"/>
+      <c r="AG82" s="247"/>
+      <c r="AH82" s="248"/>
     </row>
     <row r="83" spans="1:56" s="71" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D83" s="154">
         <v>5</v>
       </c>
-      <c r="E83" s="285" t="s">
-        <v>179</v>
-      </c>
-      <c r="F83" s="286"/>
-      <c r="G83" s="286"/>
-      <c r="H83" s="286"/>
-      <c r="I83" s="286"/>
-      <c r="J83" s="287"/>
-      <c r="K83" s="212" t="s">
+      <c r="E83" s="243" t="s">
+        <v>177</v>
+      </c>
+      <c r="F83" s="244"/>
+      <c r="G83" s="244"/>
+      <c r="H83" s="244"/>
+      <c r="I83" s="244"/>
+      <c r="J83" s="245"/>
+      <c r="K83" s="209" t="s">
+        <v>173</v>
+      </c>
+      <c r="L83" s="210"/>
+      <c r="M83" s="210"/>
+      <c r="N83" s="210"/>
+      <c r="O83" s="210"/>
+      <c r="P83" s="210"/>
+      <c r="Q83" s="211"/>
+      <c r="R83" s="209" t="s">
+        <v>174</v>
+      </c>
+      <c r="S83" s="210"/>
+      <c r="T83" s="210"/>
+      <c r="U83" s="210"/>
+      <c r="V83" s="210"/>
+      <c r="W83" s="210"/>
+      <c r="X83" s="210"/>
+      <c r="Y83" s="211"/>
+      <c r="Z83" s="209" t="s">
         <v>175</v>
       </c>
-      <c r="L83" s="213"/>
-      <c r="M83" s="213"/>
-      <c r="N83" s="213"/>
-      <c r="O83" s="213"/>
-      <c r="P83" s="213"/>
-      <c r="Q83" s="214"/>
-      <c r="R83" s="212" t="s">
-        <v>176</v>
-      </c>
-      <c r="S83" s="213"/>
-      <c r="T83" s="213"/>
-      <c r="U83" s="213"/>
-      <c r="V83" s="213"/>
-      <c r="W83" s="213"/>
-      <c r="X83" s="213"/>
-      <c r="Y83" s="214"/>
-      <c r="Z83" s="212" t="s">
-        <v>177</v>
-      </c>
-      <c r="AA83" s="213"/>
-      <c r="AB83" s="213"/>
-      <c r="AC83" s="213"/>
-      <c r="AD83" s="214"/>
-      <c r="AE83" s="265" t="s">
-        <v>163</v>
-      </c>
-      <c r="AF83" s="266"/>
-      <c r="AG83" s="266"/>
-      <c r="AH83" s="267"/>
+      <c r="AA83" s="210"/>
+      <c r="AB83" s="210"/>
+      <c r="AC83" s="210"/>
+      <c r="AD83" s="211"/>
+      <c r="AE83" s="246" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF83" s="247"/>
+      <c r="AG83" s="247"/>
+      <c r="AH83" s="248"/>
       <c r="AN83" s="5"/>
       <c r="AO83" s="5"/>
       <c r="AP83" s="5"/>
@@ -8512,7 +8501,7 @@
     </row>
     <row r="85" spans="1:56" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C85" s="130" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D85" s="133"/>
       <c r="E85" s="133"/>
@@ -8558,7 +8547,7 @@
     <row r="86" spans="1:56" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C86" s="130"/>
       <c r="D86" s="133" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E86" s="133"/>
       <c r="F86" s="130"/>
@@ -8643,7 +8632,7 @@
       <c r="C88" s="130"/>
       <c r="D88" s="133"/>
       <c r="E88" s="133" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F88" s="130"/>
       <c r="G88" s="130"/>
@@ -8699,7 +8688,7 @@
       <c r="D90" s="133"/>
       <c r="E90" s="133"/>
       <c r="F90" s="130" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G90" s="130"/>
       <c r="H90" s="130"/>
@@ -8792,7 +8781,7 @@
       <c r="C93" s="130"/>
       <c r="D93" s="130"/>
       <c r="E93" s="130" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F93" s="130"/>
       <c r="G93" s="130"/>
@@ -8821,7 +8810,7 @@
       <c r="D94" s="130"/>
       <c r="E94" s="130"/>
       <c r="F94" s="130" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G94" s="130"/>
       <c r="H94" s="130"/>
@@ -8875,30 +8864,30 @@
       <c r="D96" s="130"/>
       <c r="E96" s="130"/>
       <c r="F96" s="130"/>
-      <c r="G96" s="203" t="s">
-        <v>185</v>
-      </c>
-      <c r="H96" s="204"/>
-      <c r="I96" s="204"/>
-      <c r="J96" s="204"/>
-      <c r="K96" s="204"/>
-      <c r="L96" s="204"/>
-      <c r="M96" s="204"/>
-      <c r="N96" s="204"/>
-      <c r="O96" s="204"/>
-      <c r="P96" s="205"/>
-      <c r="Q96" s="276" t="s">
-        <v>186</v>
-      </c>
-      <c r="R96" s="277"/>
-      <c r="S96" s="277"/>
-      <c r="T96" s="277"/>
-      <c r="U96" s="277"/>
-      <c r="V96" s="277"/>
-      <c r="W96" s="277"/>
-      <c r="X96" s="277"/>
-      <c r="Y96" s="277"/>
-      <c r="Z96" s="278"/>
+      <c r="G96" s="249" t="s">
+        <v>183</v>
+      </c>
+      <c r="H96" s="250"/>
+      <c r="I96" s="250"/>
+      <c r="J96" s="250"/>
+      <c r="K96" s="250"/>
+      <c r="L96" s="250"/>
+      <c r="M96" s="250"/>
+      <c r="N96" s="250"/>
+      <c r="O96" s="250"/>
+      <c r="P96" s="251"/>
+      <c r="Q96" s="252" t="s">
+        <v>184</v>
+      </c>
+      <c r="R96" s="253"/>
+      <c r="S96" s="253"/>
+      <c r="T96" s="253"/>
+      <c r="U96" s="253"/>
+      <c r="V96" s="253"/>
+      <c r="W96" s="253"/>
+      <c r="X96" s="253"/>
+      <c r="Y96" s="253"/>
+      <c r="Z96" s="254"/>
       <c r="AA96" s="1"/>
       <c r="AB96" s="1"/>
       <c r="AC96" s="1"/>
@@ -8908,30 +8897,30 @@
       <c r="D97" s="130"/>
       <c r="E97" s="130"/>
       <c r="F97" s="130"/>
-      <c r="G97" s="279" t="s">
-        <v>187</v>
-      </c>
-      <c r="H97" s="280"/>
-      <c r="I97" s="280"/>
-      <c r="J97" s="280"/>
-      <c r="K97" s="280"/>
-      <c r="L97" s="280"/>
-      <c r="M97" s="280"/>
-      <c r="N97" s="280"/>
-      <c r="O97" s="280"/>
-      <c r="P97" s="281"/>
-      <c r="Q97" s="215" t="s">
-        <v>188</v>
-      </c>
-      <c r="R97" s="216"/>
-      <c r="S97" s="216"/>
-      <c r="T97" s="216"/>
-      <c r="U97" s="216"/>
-      <c r="V97" s="216"/>
-      <c r="W97" s="216"/>
-      <c r="X97" s="216"/>
-      <c r="Y97" s="216"/>
-      <c r="Z97" s="217"/>
+      <c r="G97" s="234" t="s">
+        <v>185</v>
+      </c>
+      <c r="H97" s="235"/>
+      <c r="I97" s="235"/>
+      <c r="J97" s="235"/>
+      <c r="K97" s="235"/>
+      <c r="L97" s="235"/>
+      <c r="M97" s="235"/>
+      <c r="N97" s="235"/>
+      <c r="O97" s="235"/>
+      <c r="P97" s="236"/>
+      <c r="Q97" s="240" t="s">
+        <v>186</v>
+      </c>
+      <c r="R97" s="241"/>
+      <c r="S97" s="241"/>
+      <c r="T97" s="241"/>
+      <c r="U97" s="241"/>
+      <c r="V97" s="241"/>
+      <c r="W97" s="241"/>
+      <c r="X97" s="241"/>
+      <c r="Y97" s="241"/>
+      <c r="Z97" s="242"/>
       <c r="AG97" s="72"/>
       <c r="AH97" s="72"/>
     </row>
@@ -8940,28 +8929,28 @@
       <c r="D98" s="130"/>
       <c r="E98" s="130"/>
       <c r="F98" s="130"/>
-      <c r="G98" s="282"/>
-      <c r="H98" s="283"/>
-      <c r="I98" s="283"/>
-      <c r="J98" s="283"/>
-      <c r="K98" s="283"/>
-      <c r="L98" s="283"/>
-      <c r="M98" s="283"/>
-      <c r="N98" s="283"/>
-      <c r="O98" s="283"/>
-      <c r="P98" s="284"/>
-      <c r="Q98" s="215" t="s">
-        <v>189</v>
-      </c>
-      <c r="R98" s="216"/>
-      <c r="S98" s="216"/>
-      <c r="T98" s="216"/>
-      <c r="U98" s="216"/>
-      <c r="V98" s="216"/>
-      <c r="W98" s="216"/>
-      <c r="X98" s="216"/>
-      <c r="Y98" s="216"/>
-      <c r="Z98" s="217"/>
+      <c r="G98" s="237"/>
+      <c r="H98" s="238"/>
+      <c r="I98" s="238"/>
+      <c r="J98" s="238"/>
+      <c r="K98" s="238"/>
+      <c r="L98" s="238"/>
+      <c r="M98" s="238"/>
+      <c r="N98" s="238"/>
+      <c r="O98" s="238"/>
+      <c r="P98" s="239"/>
+      <c r="Q98" s="240" t="s">
+        <v>187</v>
+      </c>
+      <c r="R98" s="241"/>
+      <c r="S98" s="241"/>
+      <c r="T98" s="241"/>
+      <c r="U98" s="241"/>
+      <c r="V98" s="241"/>
+      <c r="W98" s="241"/>
+      <c r="X98" s="241"/>
+      <c r="Y98" s="241"/>
+      <c r="Z98" s="242"/>
       <c r="AC98" s="73"/>
       <c r="AD98" s="73"/>
       <c r="AE98" s="73"/>
@@ -8984,28 +8973,28 @@
       <c r="D99" s="130"/>
       <c r="E99" s="130"/>
       <c r="F99" s="130"/>
-      <c r="G99" s="209" t="s">
-        <v>194</v>
-      </c>
-      <c r="H99" s="210"/>
-      <c r="I99" s="210"/>
-      <c r="J99" s="210"/>
-      <c r="K99" s="210"/>
-      <c r="L99" s="210"/>
-      <c r="M99" s="210"/>
-      <c r="N99" s="210"/>
-      <c r="O99" s="210"/>
-      <c r="P99" s="210"/>
-      <c r="Q99" s="210"/>
-      <c r="R99" s="210"/>
-      <c r="S99" s="210"/>
-      <c r="T99" s="210"/>
-      <c r="U99" s="210"/>
-      <c r="V99" s="210"/>
-      <c r="W99" s="210"/>
-      <c r="X99" s="210"/>
-      <c r="Y99" s="210"/>
-      <c r="Z99" s="211"/>
+      <c r="G99" s="225" t="s">
+        <v>192</v>
+      </c>
+      <c r="H99" s="226"/>
+      <c r="I99" s="226"/>
+      <c r="J99" s="226"/>
+      <c r="K99" s="226"/>
+      <c r="L99" s="226"/>
+      <c r="M99" s="226"/>
+      <c r="N99" s="226"/>
+      <c r="O99" s="226"/>
+      <c r="P99" s="226"/>
+      <c r="Q99" s="226"/>
+      <c r="R99" s="226"/>
+      <c r="S99" s="226"/>
+      <c r="T99" s="226"/>
+      <c r="U99" s="226"/>
+      <c r="V99" s="226"/>
+      <c r="W99" s="226"/>
+      <c r="X99" s="226"/>
+      <c r="Y99" s="226"/>
+      <c r="Z99" s="227"/>
       <c r="AJ99" s="73"/>
       <c r="AK99" s="73"/>
       <c r="AL99" s="73"/>
@@ -9086,7 +9075,7 @@
       <c r="F101" s="130"/>
       <c r="G101" s="159"/>
       <c r="H101" s="160" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I101" s="160"/>
       <c r="J101" s="160"/>
@@ -9097,10 +9086,10 @@
       <c r="O101" s="130"/>
       <c r="P101" s="130"/>
       <c r="Q101" s="161" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="R101" s="160" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="S101" s="160"/>
       <c r="T101" s="160"/>
@@ -9255,7 +9244,7 @@
     </row>
     <row r="105" spans="3:58" ht="12" x14ac:dyDescent="0.2">
       <c r="E105" s="130" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F105" s="130"/>
       <c r="G105" s="130"/>
@@ -9318,7 +9307,7 @@
     <row r="107" spans="3:58" ht="12" x14ac:dyDescent="0.2">
       <c r="E107" s="138"/>
       <c r="F107" s="138" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G107" s="130"/>
       <c r="H107" s="130"/>
@@ -9351,7 +9340,7 @@
       <c r="E108" s="138"/>
       <c r="F108" s="169"/>
       <c r="G108" s="138" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H108" s="130"/>
       <c r="I108" s="130"/>
@@ -9408,7 +9397,7 @@
     <row r="110" spans="3:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C110" s="68"/>
       <c r="D110" s="133" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E110" s="133"/>
       <c r="F110" s="130"/>
@@ -9495,7 +9484,7 @@
       <c r="C112" s="5"/>
       <c r="D112" s="133"/>
       <c r="E112" s="133" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F112" s="130"/>
       <c r="G112" s="130"/>
@@ -9553,7 +9542,7 @@
       <c r="D114" s="133"/>
       <c r="E114" s="133"/>
       <c r="F114" s="130" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G114" s="130"/>
       <c r="H114" s="130"/>
@@ -9647,7 +9636,7 @@
     <row r="117" spans="1:58" ht="12" x14ac:dyDescent="0.2">
       <c r="D117" s="130"/>
       <c r="E117" s="130" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F117" s="130"/>
       <c r="G117" s="130"/>
@@ -9676,7 +9665,7 @@
       <c r="D118" s="130"/>
       <c r="E118" s="130"/>
       <c r="F118" s="130" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G118" s="130"/>
       <c r="H118" s="130"/>
@@ -9730,60 +9719,60 @@
       <c r="D120" s="130"/>
       <c r="E120" s="130"/>
       <c r="F120" s="130"/>
-      <c r="G120" s="203" t="s">
-        <v>185</v>
-      </c>
-      <c r="H120" s="204"/>
-      <c r="I120" s="204"/>
-      <c r="J120" s="204"/>
-      <c r="K120" s="204"/>
-      <c r="L120" s="204"/>
-      <c r="M120" s="204"/>
-      <c r="N120" s="204"/>
-      <c r="O120" s="204"/>
-      <c r="P120" s="205"/>
-      <c r="Q120" s="276" t="s">
-        <v>186</v>
-      </c>
-      <c r="R120" s="277"/>
-      <c r="S120" s="277"/>
-      <c r="T120" s="277"/>
-      <c r="U120" s="277"/>
-      <c r="V120" s="277"/>
-      <c r="W120" s="277"/>
-      <c r="X120" s="277"/>
-      <c r="Y120" s="277"/>
-      <c r="Z120" s="278"/>
+      <c r="G120" s="249" t="s">
+        <v>183</v>
+      </c>
+      <c r="H120" s="250"/>
+      <c r="I120" s="250"/>
+      <c r="J120" s="250"/>
+      <c r="K120" s="250"/>
+      <c r="L120" s="250"/>
+      <c r="M120" s="250"/>
+      <c r="N120" s="250"/>
+      <c r="O120" s="250"/>
+      <c r="P120" s="251"/>
+      <c r="Q120" s="252" t="s">
+        <v>184</v>
+      </c>
+      <c r="R120" s="253"/>
+      <c r="S120" s="253"/>
+      <c r="T120" s="253"/>
+      <c r="U120" s="253"/>
+      <c r="V120" s="253"/>
+      <c r="W120" s="253"/>
+      <c r="X120" s="253"/>
+      <c r="Y120" s="253"/>
+      <c r="Z120" s="254"/>
       <c r="AA120" s="130"/>
     </row>
     <row r="121" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D121" s="130"/>
       <c r="E121" s="130"/>
       <c r="F121" s="130"/>
-      <c r="G121" s="279" t="s">
-        <v>187</v>
-      </c>
-      <c r="H121" s="280"/>
-      <c r="I121" s="280"/>
-      <c r="J121" s="280"/>
-      <c r="K121" s="280"/>
-      <c r="L121" s="280"/>
-      <c r="M121" s="280"/>
-      <c r="N121" s="280"/>
-      <c r="O121" s="280"/>
-      <c r="P121" s="281"/>
-      <c r="Q121" s="215" t="s">
-        <v>188</v>
-      </c>
-      <c r="R121" s="216"/>
-      <c r="S121" s="216"/>
-      <c r="T121" s="216"/>
-      <c r="U121" s="216"/>
-      <c r="V121" s="216"/>
-      <c r="W121" s="216"/>
-      <c r="X121" s="216"/>
-      <c r="Y121" s="216"/>
-      <c r="Z121" s="217"/>
+      <c r="G121" s="234" t="s">
+        <v>185</v>
+      </c>
+      <c r="H121" s="235"/>
+      <c r="I121" s="235"/>
+      <c r="J121" s="235"/>
+      <c r="K121" s="235"/>
+      <c r="L121" s="235"/>
+      <c r="M121" s="235"/>
+      <c r="N121" s="235"/>
+      <c r="O121" s="235"/>
+      <c r="P121" s="236"/>
+      <c r="Q121" s="240" t="s">
+        <v>186</v>
+      </c>
+      <c r="R121" s="241"/>
+      <c r="S121" s="241"/>
+      <c r="T121" s="241"/>
+      <c r="U121" s="241"/>
+      <c r="V121" s="241"/>
+      <c r="W121" s="241"/>
+      <c r="X121" s="241"/>
+      <c r="Y121" s="241"/>
+      <c r="Z121" s="242"/>
       <c r="AA121" s="130"/>
       <c r="AG121" s="72"/>
       <c r="AH121" s="72"/>
@@ -9792,28 +9781,28 @@
       <c r="D122" s="130"/>
       <c r="E122" s="130"/>
       <c r="F122" s="130"/>
-      <c r="G122" s="282"/>
-      <c r="H122" s="283"/>
-      <c r="I122" s="283"/>
-      <c r="J122" s="283"/>
-      <c r="K122" s="283"/>
-      <c r="L122" s="283"/>
-      <c r="M122" s="283"/>
-      <c r="N122" s="283"/>
-      <c r="O122" s="283"/>
-      <c r="P122" s="284"/>
-      <c r="Q122" s="215" t="s">
-        <v>189</v>
-      </c>
-      <c r="R122" s="216"/>
-      <c r="S122" s="216"/>
-      <c r="T122" s="216"/>
-      <c r="U122" s="216"/>
-      <c r="V122" s="216"/>
-      <c r="W122" s="216"/>
-      <c r="X122" s="216"/>
-      <c r="Y122" s="216"/>
-      <c r="Z122" s="217"/>
+      <c r="G122" s="237"/>
+      <c r="H122" s="238"/>
+      <c r="I122" s="238"/>
+      <c r="J122" s="238"/>
+      <c r="K122" s="238"/>
+      <c r="L122" s="238"/>
+      <c r="M122" s="238"/>
+      <c r="N122" s="238"/>
+      <c r="O122" s="238"/>
+      <c r="P122" s="239"/>
+      <c r="Q122" s="240" t="s">
+        <v>187</v>
+      </c>
+      <c r="R122" s="241"/>
+      <c r="S122" s="241"/>
+      <c r="T122" s="241"/>
+      <c r="U122" s="241"/>
+      <c r="V122" s="241"/>
+      <c r="W122" s="241"/>
+      <c r="X122" s="241"/>
+      <c r="Y122" s="241"/>
+      <c r="Z122" s="242"/>
       <c r="AA122" s="130"/>
       <c r="AC122" s="73"/>
       <c r="AD122" s="73"/>
@@ -9836,28 +9825,28 @@
       <c r="D123" s="130"/>
       <c r="E123" s="130"/>
       <c r="F123" s="130"/>
-      <c r="G123" s="209" t="s">
-        <v>190</v>
-      </c>
-      <c r="H123" s="210"/>
-      <c r="I123" s="210"/>
-      <c r="J123" s="210"/>
-      <c r="K123" s="210"/>
-      <c r="L123" s="210"/>
-      <c r="M123" s="210"/>
-      <c r="N123" s="210"/>
-      <c r="O123" s="210"/>
-      <c r="P123" s="210"/>
-      <c r="Q123" s="210"/>
-      <c r="R123" s="210"/>
-      <c r="S123" s="210"/>
-      <c r="T123" s="210"/>
-      <c r="U123" s="210"/>
-      <c r="V123" s="210"/>
-      <c r="W123" s="210"/>
-      <c r="X123" s="210"/>
-      <c r="Y123" s="210"/>
-      <c r="Z123" s="211"/>
+      <c r="G123" s="225" t="s">
+        <v>188</v>
+      </c>
+      <c r="H123" s="226"/>
+      <c r="I123" s="226"/>
+      <c r="J123" s="226"/>
+      <c r="K123" s="226"/>
+      <c r="L123" s="226"/>
+      <c r="M123" s="226"/>
+      <c r="N123" s="226"/>
+      <c r="O123" s="226"/>
+      <c r="P123" s="226"/>
+      <c r="Q123" s="226"/>
+      <c r="R123" s="226"/>
+      <c r="S123" s="226"/>
+      <c r="T123" s="226"/>
+      <c r="U123" s="226"/>
+      <c r="V123" s="226"/>
+      <c r="W123" s="226"/>
+      <c r="X123" s="226"/>
+      <c r="Y123" s="226"/>
+      <c r="Z123" s="227"/>
       <c r="AA123" s="130"/>
       <c r="AJ123" s="73"/>
       <c r="AK123" s="73"/>
@@ -9938,7 +9927,7 @@
       <c r="F125" s="130"/>
       <c r="G125" s="159"/>
       <c r="H125" s="160" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I125" s="160"/>
       <c r="J125" s="160"/>
@@ -9949,10 +9938,10 @@
       <c r="O125" s="160"/>
       <c r="P125" s="130"/>
       <c r="Q125" s="161" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="R125" s="160" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="S125" s="160"/>
       <c r="T125" s="160"/>
@@ -10137,7 +10126,7 @@
     <row r="129" spans="1:58" ht="12" x14ac:dyDescent="0.2">
       <c r="D129" s="130"/>
       <c r="E129" s="130" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F129" s="130"/>
       <c r="G129" s="130"/>
@@ -10238,7 +10227,7 @@
       <c r="D131" s="130"/>
       <c r="E131" s="138"/>
       <c r="F131" s="138" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G131" s="130"/>
       <c r="H131" s="130"/>
@@ -10290,7 +10279,7 @@
       <c r="E132" s="138"/>
       <c r="F132" s="169"/>
       <c r="G132" s="138" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H132" s="130"/>
       <c r="I132" s="130"/>
@@ -10388,7 +10377,7 @@
     <row r="134" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C134" s="68"/>
       <c r="D134" s="133" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E134" s="133"/>
       <c r="F134" s="130"/>
@@ -10475,7 +10464,7 @@
       <c r="C136" s="5"/>
       <c r="D136" s="133"/>
       <c r="E136" s="133" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F136" s="130"/>
       <c r="G136" s="130"/>
@@ -10533,7 +10522,7 @@
       <c r="D138" s="133"/>
       <c r="E138" s="133"/>
       <c r="F138" s="130" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G138" s="130"/>
       <c r="H138" s="130"/>
@@ -10627,7 +10616,7 @@
     <row r="141" spans="1:58" ht="12" x14ac:dyDescent="0.2">
       <c r="D141" s="130"/>
       <c r="E141" s="130" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F141" s="130"/>
       <c r="G141" s="130"/>
@@ -10728,7 +10717,7 @@
       <c r="D143" s="130"/>
       <c r="E143" s="138"/>
       <c r="F143" s="138" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G143" s="130"/>
       <c r="H143" s="130"/>
@@ -10832,7 +10821,7 @@
     <row r="146" spans="1:58" ht="12" x14ac:dyDescent="0.2">
       <c r="C146" s="68"/>
       <c r="D146" s="133" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E146" s="133"/>
       <c r="F146" s="130"/>
@@ -10890,7 +10879,7 @@
     <row r="147" spans="1:58" ht="12" x14ac:dyDescent="0.2">
       <c r="D147" s="130"/>
       <c r="E147" s="133" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F147" s="133"/>
       <c r="G147" s="130"/>
@@ -11006,43 +10995,43 @@
       <c r="F149" s="171" t="s">
         <v>0</v>
       </c>
-      <c r="G149" s="197" t="s">
+      <c r="G149" s="200" t="s">
+        <v>204</v>
+      </c>
+      <c r="H149" s="217"/>
+      <c r="I149" s="217"/>
+      <c r="J149" s="217"/>
+      <c r="K149" s="217"/>
+      <c r="L149" s="219"/>
+      <c r="M149" s="200" t="s">
+        <v>205</v>
+      </c>
+      <c r="N149" s="217"/>
+      <c r="O149" s="217"/>
+      <c r="P149" s="217"/>
+      <c r="Q149" s="217"/>
+      <c r="R149" s="217"/>
+      <c r="S149" s="217"/>
+      <c r="T149" s="217"/>
+      <c r="U149" s="217"/>
+      <c r="V149" s="219"/>
+      <c r="W149" s="262" t="s">
         <v>206</v>
       </c>
-      <c r="H149" s="257"/>
-      <c r="I149" s="257"/>
-      <c r="J149" s="257"/>
-      <c r="K149" s="257"/>
-      <c r="L149" s="258"/>
-      <c r="M149" s="197" t="s">
+      <c r="X149" s="263"/>
+      <c r="Y149" s="264"/>
+      <c r="Z149" s="256" t="s">
         <v>207</v>
       </c>
-      <c r="N149" s="257"/>
-      <c r="O149" s="257"/>
-      <c r="P149" s="257"/>
-      <c r="Q149" s="257"/>
-      <c r="R149" s="257"/>
-      <c r="S149" s="257"/>
-      <c r="T149" s="257"/>
-      <c r="U149" s="257"/>
-      <c r="V149" s="258"/>
-      <c r="W149" s="273" t="s">
+      <c r="AA149" s="257"/>
+      <c r="AB149" s="257"/>
+      <c r="AC149" s="258"/>
+      <c r="AD149" s="279" t="s">
         <v>208</v>
       </c>
-      <c r="X149" s="274"/>
-      <c r="Y149" s="275"/>
-      <c r="Z149" s="347" t="s">
-        <v>209</v>
-      </c>
-      <c r="AA149" s="348"/>
-      <c r="AB149" s="348"/>
-      <c r="AC149" s="349"/>
-      <c r="AD149" s="259" t="s">
-        <v>210</v>
-      </c>
-      <c r="AE149" s="260"/>
-      <c r="AF149" s="260"/>
-      <c r="AG149" s="261"/>
+      <c r="AE149" s="280"/>
+      <c r="AF149" s="280"/>
+      <c r="AG149" s="281"/>
       <c r="AJ149" s="78"/>
       <c r="AK149" s="78"/>
       <c r="AL149" s="78"/>
@@ -11072,43 +11061,43 @@
       <c r="F150" s="172">
         <v>1</v>
       </c>
-      <c r="G150" s="220" t="s">
+      <c r="G150" s="221" t="s">
+        <v>209</v>
+      </c>
+      <c r="H150" s="222"/>
+      <c r="I150" s="222"/>
+      <c r="J150" s="222"/>
+      <c r="K150" s="222"/>
+      <c r="L150" s="223"/>
+      <c r="M150" s="221" t="s">
+        <v>210</v>
+      </c>
+      <c r="N150" s="222"/>
+      <c r="O150" s="222"/>
+      <c r="P150" s="222"/>
+      <c r="Q150" s="222"/>
+      <c r="R150" s="222"/>
+      <c r="S150" s="222"/>
+      <c r="T150" s="222"/>
+      <c r="U150" s="222"/>
+      <c r="V150" s="223"/>
+      <c r="W150" s="265" t="s">
         <v>211</v>
       </c>
-      <c r="H150" s="221"/>
-      <c r="I150" s="221"/>
-      <c r="J150" s="221"/>
-      <c r="K150" s="221"/>
-      <c r="L150" s="222"/>
-      <c r="M150" s="220" t="s">
+      <c r="X150" s="266"/>
+      <c r="Y150" s="267"/>
+      <c r="Z150" s="221" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA150" s="222"/>
+      <c r="AB150" s="222"/>
+      <c r="AC150" s="223"/>
+      <c r="AD150" s="221" t="s">
         <v>212</v>
       </c>
-      <c r="N150" s="221"/>
-      <c r="O150" s="221"/>
-      <c r="P150" s="221"/>
-      <c r="Q150" s="221"/>
-      <c r="R150" s="221"/>
-      <c r="S150" s="221"/>
-      <c r="T150" s="221"/>
-      <c r="U150" s="221"/>
-      <c r="V150" s="222"/>
-      <c r="W150" s="291" t="s">
-        <v>213</v>
-      </c>
-      <c r="X150" s="292"/>
-      <c r="Y150" s="293"/>
-      <c r="Z150" s="220" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA150" s="221"/>
-      <c r="AB150" s="221"/>
-      <c r="AC150" s="222"/>
-      <c r="AD150" s="220" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE150" s="221"/>
-      <c r="AF150" s="221"/>
-      <c r="AG150" s="222"/>
+      <c r="AE150" s="222"/>
+      <c r="AF150" s="222"/>
+      <c r="AG150" s="223"/>
       <c r="AI150" s="78"/>
       <c r="AJ150" s="78"/>
       <c r="AK150" s="78"/>
@@ -11139,43 +11128,43 @@
       <c r="F151" s="172">
         <v>2</v>
       </c>
-      <c r="G151" s="272" t="s">
+      <c r="G151" s="255" t="s">
+        <v>213</v>
+      </c>
+      <c r="H151" s="201"/>
+      <c r="I151" s="201"/>
+      <c r="J151" s="201"/>
+      <c r="K151" s="201"/>
+      <c r="L151" s="202"/>
+      <c r="M151" s="259" t="s">
+        <v>214</v>
+      </c>
+      <c r="N151" s="260"/>
+      <c r="O151" s="260"/>
+      <c r="P151" s="260"/>
+      <c r="Q151" s="260"/>
+      <c r="R151" s="260"/>
+      <c r="S151" s="260"/>
+      <c r="T151" s="260"/>
+      <c r="U151" s="260"/>
+      <c r="V151" s="261"/>
+      <c r="W151" s="265" t="s">
         <v>215</v>
       </c>
-      <c r="H151" s="198"/>
-      <c r="I151" s="198"/>
-      <c r="J151" s="198"/>
-      <c r="K151" s="198"/>
-      <c r="L151" s="199"/>
-      <c r="M151" s="288" t="s">
+      <c r="X151" s="266"/>
+      <c r="Y151" s="267"/>
+      <c r="Z151" s="221" t="s">
         <v>216</v>
       </c>
-      <c r="N151" s="289"/>
-      <c r="O151" s="289"/>
-      <c r="P151" s="289"/>
-      <c r="Q151" s="289"/>
-      <c r="R151" s="289"/>
-      <c r="S151" s="289"/>
-      <c r="T151" s="289"/>
-      <c r="U151" s="289"/>
-      <c r="V151" s="290"/>
-      <c r="W151" s="291" t="s">
-        <v>217</v>
-      </c>
-      <c r="X151" s="292"/>
-      <c r="Y151" s="293"/>
-      <c r="Z151" s="220" t="s">
-        <v>218</v>
-      </c>
-      <c r="AA151" s="221"/>
-      <c r="AB151" s="221"/>
-      <c r="AC151" s="222"/>
-      <c r="AD151" s="288" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE151" s="289"/>
-      <c r="AF151" s="289"/>
-      <c r="AG151" s="290"/>
+      <c r="AA151" s="222"/>
+      <c r="AB151" s="222"/>
+      <c r="AC151" s="223"/>
+      <c r="AD151" s="259" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE151" s="260"/>
+      <c r="AF151" s="260"/>
+      <c r="AG151" s="261"/>
       <c r="AJ151" s="78"/>
       <c r="AK151" s="78"/>
       <c r="AL151" s="78"/>
@@ -11259,7 +11248,7 @@
       <c r="D153" s="130"/>
       <c r="E153" s="133"/>
       <c r="F153" s="130" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G153" s="130"/>
       <c r="H153" s="130"/>
@@ -11308,7 +11297,7 @@
     </row>
     <row r="157" spans="1:58" ht="12" x14ac:dyDescent="0.15">
       <c r="E157" s="173" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F157" s="92"/>
       <c r="G157" s="92"/>
@@ -11348,7 +11337,7 @@
       <c r="D158" s="68"/>
       <c r="E158" s="83"/>
       <c r="F158" s="174" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G158" s="79"/>
       <c r="H158" s="79"/>
@@ -11385,39 +11374,119 @@
     </row>
   </sheetData>
   <mergeCells count="170">
-    <mergeCell ref="AL56:AP56"/>
-    <mergeCell ref="AL55:AP55"/>
-    <mergeCell ref="AL58:AP58"/>
-    <mergeCell ref="AL59:AP59"/>
-    <mergeCell ref="AL64:AP64"/>
-    <mergeCell ref="AL65:AP65"/>
-    <mergeCell ref="AL61:AP61"/>
-    <mergeCell ref="AL62:AP62"/>
-    <mergeCell ref="AD65:AG65"/>
-    <mergeCell ref="AD61:AG61"/>
-    <mergeCell ref="AD62:AG62"/>
-    <mergeCell ref="AD58:AG58"/>
-    <mergeCell ref="AD59:AG59"/>
-    <mergeCell ref="AD64:AG64"/>
-    <mergeCell ref="AD55:AG55"/>
-    <mergeCell ref="AD60:AG60"/>
-    <mergeCell ref="AD56:AG56"/>
-    <mergeCell ref="Z64:AB64"/>
-    <mergeCell ref="I64:L64"/>
-    <mergeCell ref="I65:L65"/>
-    <mergeCell ref="I62:L62"/>
-    <mergeCell ref="E78:J78"/>
-    <mergeCell ref="K78:Q78"/>
-    <mergeCell ref="I60:L60"/>
-    <mergeCell ref="U60:Y60"/>
-    <mergeCell ref="I63:L63"/>
-    <mergeCell ref="M63:T63"/>
-    <mergeCell ref="M62:T62"/>
-    <mergeCell ref="M61:T61"/>
-    <mergeCell ref="U65:Y65"/>
-    <mergeCell ref="U61:Y61"/>
-    <mergeCell ref="U62:Y62"/>
-    <mergeCell ref="U63:Y63"/>
+    <mergeCell ref="AL53:AP53"/>
+    <mergeCell ref="AL57:AP57"/>
+    <mergeCell ref="G99:Z99"/>
+    <mergeCell ref="R79:Y79"/>
+    <mergeCell ref="Z79:AD79"/>
+    <mergeCell ref="E73:J73"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="T73:U73"/>
+    <mergeCell ref="M65:T65"/>
+    <mergeCell ref="M64:T64"/>
+    <mergeCell ref="AD57:AG57"/>
+    <mergeCell ref="AL63:AP63"/>
+    <mergeCell ref="AL66:AP66"/>
+    <mergeCell ref="AL60:AP60"/>
+    <mergeCell ref="AD63:AG63"/>
+    <mergeCell ref="AD66:AG66"/>
+    <mergeCell ref="Z63:AB63"/>
+    <mergeCell ref="Z66:AB66"/>
+    <mergeCell ref="M66:T66"/>
+    <mergeCell ref="U52:Y53"/>
+    <mergeCell ref="Z62:AB62"/>
+    <mergeCell ref="Z65:AB65"/>
+    <mergeCell ref="E57:H57"/>
+    <mergeCell ref="I57:L57"/>
+    <mergeCell ref="Q45:U45"/>
+    <mergeCell ref="V45:AC45"/>
+    <mergeCell ref="E46:M46"/>
+    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="E64:H64"/>
+    <mergeCell ref="E65:H65"/>
+    <mergeCell ref="M59:T59"/>
+    <mergeCell ref="M58:T58"/>
+    <mergeCell ref="M57:T57"/>
+    <mergeCell ref="E58:H58"/>
+    <mergeCell ref="E59:H59"/>
+    <mergeCell ref="I61:L61"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="D54:AG54"/>
+    <mergeCell ref="U55:Y55"/>
+    <mergeCell ref="U57:Y57"/>
+    <mergeCell ref="M52:T53"/>
+    <mergeCell ref="Q46:U46"/>
+    <mergeCell ref="V46:AC46"/>
+    <mergeCell ref="E63:H63"/>
+    <mergeCell ref="U58:Y58"/>
+    <mergeCell ref="Z55:AB55"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="I58:L58"/>
+    <mergeCell ref="I59:L59"/>
+    <mergeCell ref="E61:H61"/>
+    <mergeCell ref="E62:H62"/>
+    <mergeCell ref="I52:L53"/>
+    <mergeCell ref="E52:H53"/>
+    <mergeCell ref="E51:AC51"/>
+    <mergeCell ref="Z52:AB53"/>
+    <mergeCell ref="Z58:AB58"/>
+    <mergeCell ref="M56:T56"/>
+    <mergeCell ref="U56:Y56"/>
+    <mergeCell ref="Z56:AB56"/>
+    <mergeCell ref="M60:T60"/>
+    <mergeCell ref="Z60:AB60"/>
+    <mergeCell ref="Z59:AB59"/>
+    <mergeCell ref="AD51:AG53"/>
+    <mergeCell ref="M55:T55"/>
+    <mergeCell ref="AC52:AC53"/>
+    <mergeCell ref="E45:M45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:J72"/>
+    <mergeCell ref="K71:N72"/>
+    <mergeCell ref="G149:L149"/>
+    <mergeCell ref="AD149:AG149"/>
+    <mergeCell ref="Z57:AB57"/>
+    <mergeCell ref="AE78:AH78"/>
+    <mergeCell ref="Z61:AB61"/>
+    <mergeCell ref="Z78:AD78"/>
+    <mergeCell ref="AE79:AH79"/>
+    <mergeCell ref="O71:O72"/>
+    <mergeCell ref="V71:AH72"/>
+    <mergeCell ref="T72:U72"/>
+    <mergeCell ref="E60:H60"/>
+    <mergeCell ref="E66:H66"/>
+    <mergeCell ref="I66:L66"/>
+    <mergeCell ref="U66:Y66"/>
+    <mergeCell ref="U59:Y59"/>
+    <mergeCell ref="U64:Y64"/>
+    <mergeCell ref="G151:L151"/>
+    <mergeCell ref="M149:V149"/>
+    <mergeCell ref="V73:AH73"/>
+    <mergeCell ref="E79:J79"/>
+    <mergeCell ref="Z150:AC150"/>
+    <mergeCell ref="Z151:AC151"/>
+    <mergeCell ref="Z149:AC149"/>
+    <mergeCell ref="M150:V150"/>
+    <mergeCell ref="Q96:Z96"/>
+    <mergeCell ref="G96:P96"/>
+    <mergeCell ref="G97:P98"/>
+    <mergeCell ref="E82:J82"/>
+    <mergeCell ref="K82:Q82"/>
+    <mergeCell ref="K79:Q79"/>
+    <mergeCell ref="AD151:AG151"/>
+    <mergeCell ref="M151:V151"/>
+    <mergeCell ref="W149:Y149"/>
+    <mergeCell ref="W150:Y150"/>
+    <mergeCell ref="R78:Y78"/>
+    <mergeCell ref="W151:Y151"/>
+    <mergeCell ref="Q97:Z97"/>
+    <mergeCell ref="Q98:Z98"/>
+    <mergeCell ref="R82:Y82"/>
+    <mergeCell ref="Z83:AD83"/>
     <mergeCell ref="AD150:AG150"/>
     <mergeCell ref="G123:Z123"/>
     <mergeCell ref="E80:J80"/>
@@ -11442,125 +11511,42 @@
     <mergeCell ref="R81:Y81"/>
     <mergeCell ref="Z81:AD81"/>
     <mergeCell ref="G150:L150"/>
-    <mergeCell ref="G151:L151"/>
-    <mergeCell ref="M149:V149"/>
-    <mergeCell ref="V73:AH73"/>
-    <mergeCell ref="E79:J79"/>
-    <mergeCell ref="Z150:AC150"/>
-    <mergeCell ref="Z151:AC151"/>
-    <mergeCell ref="Z149:AC149"/>
-    <mergeCell ref="M150:V150"/>
-    <mergeCell ref="Q96:Z96"/>
-    <mergeCell ref="G96:P96"/>
-    <mergeCell ref="G97:P98"/>
-    <mergeCell ref="E82:J82"/>
-    <mergeCell ref="K82:Q82"/>
-    <mergeCell ref="K79:Q79"/>
-    <mergeCell ref="AD151:AG151"/>
-    <mergeCell ref="M151:V151"/>
-    <mergeCell ref="W149:Y149"/>
-    <mergeCell ref="W150:Y150"/>
-    <mergeCell ref="R78:Y78"/>
-    <mergeCell ref="W151:Y151"/>
-    <mergeCell ref="Q97:Z97"/>
-    <mergeCell ref="Q98:Z98"/>
-    <mergeCell ref="R82:Y82"/>
-    <mergeCell ref="Z83:AD83"/>
-    <mergeCell ref="AD51:AG53"/>
-    <mergeCell ref="M55:T55"/>
-    <mergeCell ref="AC52:AC53"/>
-    <mergeCell ref="E45:M45"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:J72"/>
-    <mergeCell ref="K71:N72"/>
-    <mergeCell ref="G149:L149"/>
-    <mergeCell ref="AD149:AG149"/>
-    <mergeCell ref="Z57:AB57"/>
-    <mergeCell ref="AE78:AH78"/>
-    <mergeCell ref="Z61:AB61"/>
-    <mergeCell ref="Z78:AD78"/>
-    <mergeCell ref="AE79:AH79"/>
-    <mergeCell ref="O71:O72"/>
-    <mergeCell ref="V71:AH72"/>
-    <mergeCell ref="T72:U72"/>
-    <mergeCell ref="E60:H60"/>
-    <mergeCell ref="E66:H66"/>
-    <mergeCell ref="I66:L66"/>
-    <mergeCell ref="U66:Y66"/>
-    <mergeCell ref="U59:Y59"/>
-    <mergeCell ref="U64:Y64"/>
-    <mergeCell ref="Z55:AB55"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="I58:L58"/>
-    <mergeCell ref="I59:L59"/>
-    <mergeCell ref="E61:H61"/>
-    <mergeCell ref="E62:H62"/>
-    <mergeCell ref="I52:L53"/>
-    <mergeCell ref="E52:H53"/>
-    <mergeCell ref="E51:AC51"/>
-    <mergeCell ref="Z52:AB53"/>
-    <mergeCell ref="Z58:AB58"/>
-    <mergeCell ref="M56:T56"/>
-    <mergeCell ref="U56:Y56"/>
-    <mergeCell ref="Z56:AB56"/>
-    <mergeCell ref="M60:T60"/>
-    <mergeCell ref="Z60:AB60"/>
-    <mergeCell ref="Z59:AB59"/>
-    <mergeCell ref="Q45:U45"/>
-    <mergeCell ref="V45:AC45"/>
-    <mergeCell ref="E46:M46"/>
-    <mergeCell ref="N46:P46"/>
-    <mergeCell ref="E64:H64"/>
-    <mergeCell ref="E65:H65"/>
-    <mergeCell ref="M59:T59"/>
-    <mergeCell ref="M58:T58"/>
-    <mergeCell ref="M57:T57"/>
-    <mergeCell ref="E58:H58"/>
-    <mergeCell ref="E59:H59"/>
-    <mergeCell ref="I61:L61"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="I55:L55"/>
-    <mergeCell ref="D54:AG54"/>
-    <mergeCell ref="U55:Y55"/>
-    <mergeCell ref="U57:Y57"/>
-    <mergeCell ref="M52:T53"/>
-    <mergeCell ref="Q46:U46"/>
-    <mergeCell ref="V46:AC46"/>
-    <mergeCell ref="E63:H63"/>
-    <mergeCell ref="U58:Y58"/>
-    <mergeCell ref="AL53:AP53"/>
-    <mergeCell ref="AL57:AP57"/>
-    <mergeCell ref="G99:Z99"/>
-    <mergeCell ref="R79:Y79"/>
-    <mergeCell ref="Z79:AD79"/>
-    <mergeCell ref="E73:J73"/>
-    <mergeCell ref="K73:N73"/>
-    <mergeCell ref="T73:U73"/>
-    <mergeCell ref="M65:T65"/>
-    <mergeCell ref="M64:T64"/>
-    <mergeCell ref="AD57:AG57"/>
-    <mergeCell ref="AL63:AP63"/>
-    <mergeCell ref="AL66:AP66"/>
-    <mergeCell ref="AL60:AP60"/>
-    <mergeCell ref="AD63:AG63"/>
-    <mergeCell ref="AD66:AG66"/>
-    <mergeCell ref="Z63:AB63"/>
-    <mergeCell ref="Z66:AB66"/>
-    <mergeCell ref="M66:T66"/>
-    <mergeCell ref="U52:Y53"/>
-    <mergeCell ref="Z62:AB62"/>
-    <mergeCell ref="Z65:AB65"/>
-    <mergeCell ref="E57:H57"/>
-    <mergeCell ref="I57:L57"/>
+    <mergeCell ref="Z64:AB64"/>
+    <mergeCell ref="I64:L64"/>
+    <mergeCell ref="I65:L65"/>
+    <mergeCell ref="I62:L62"/>
+    <mergeCell ref="E78:J78"/>
+    <mergeCell ref="K78:Q78"/>
+    <mergeCell ref="I60:L60"/>
+    <mergeCell ref="U60:Y60"/>
+    <mergeCell ref="I63:L63"/>
+    <mergeCell ref="M63:T63"/>
+    <mergeCell ref="M62:T62"/>
+    <mergeCell ref="M61:T61"/>
+    <mergeCell ref="U65:Y65"/>
+    <mergeCell ref="U61:Y61"/>
+    <mergeCell ref="U62:Y62"/>
+    <mergeCell ref="U63:Y63"/>
+    <mergeCell ref="AL56:AP56"/>
+    <mergeCell ref="AL55:AP55"/>
+    <mergeCell ref="AL58:AP58"/>
+    <mergeCell ref="AL59:AP59"/>
+    <mergeCell ref="AL64:AP64"/>
+    <mergeCell ref="AL65:AP65"/>
+    <mergeCell ref="AL61:AP61"/>
+    <mergeCell ref="AL62:AP62"/>
+    <mergeCell ref="AD65:AG65"/>
+    <mergeCell ref="AD61:AG61"/>
+    <mergeCell ref="AD62:AG62"/>
+    <mergeCell ref="AD58:AG58"/>
+    <mergeCell ref="AD59:AG59"/>
+    <mergeCell ref="AD64:AG64"/>
+    <mergeCell ref="AD55:AG55"/>
+    <mergeCell ref="AD60:AG60"/>
+    <mergeCell ref="AD56:AG56"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P73:U73 AC55:AC66" xr:uid="{00000000-0002-0000-0400-000001000000}">
-      <formula1>"-,○"</formula1>
-    </dataValidation>
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I55:I66" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>画面項目種類</formula1>
     </dataValidation>
@@ -11610,14 +11596,14 @@
     <row r="1" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="173" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C2" s="130"/>
     </row>
     <row r="3" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="130"/>
       <c r="C3" s="130" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -11657,7 +11643,7 @@
     <row r="36" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="37" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="130" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D37" s="130"/>
       <c r="E37" s="130"/>
@@ -11720,85 +11706,85 @@
       <c r="D39" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="E39" s="227" t="s">
+      <c r="E39" s="270" t="s">
+        <v>95</v>
+      </c>
+      <c r="F39" s="270"/>
+      <c r="G39" s="270"/>
+      <c r="H39" s="270"/>
+      <c r="I39" s="270"/>
+      <c r="J39" s="270"/>
+      <c r="K39" s="270"/>
+      <c r="L39" s="270"/>
+      <c r="M39" s="270"/>
+      <c r="N39" s="270" t="s">
         <v>96</v>
       </c>
-      <c r="F39" s="227"/>
-      <c r="G39" s="227"/>
-      <c r="H39" s="227"/>
-      <c r="I39" s="227"/>
-      <c r="J39" s="227"/>
-      <c r="K39" s="227"/>
-      <c r="L39" s="227"/>
-      <c r="M39" s="227"/>
-      <c r="N39" s="227" t="s">
+      <c r="O39" s="270"/>
+      <c r="P39" s="270"/>
+      <c r="Q39" s="325" t="s">
         <v>97</v>
       </c>
-      <c r="O39" s="227"/>
-      <c r="P39" s="227"/>
-      <c r="Q39" s="306" t="s">
+      <c r="R39" s="326"/>
+      <c r="S39" s="326"/>
+      <c r="T39" s="326"/>
+      <c r="U39" s="327"/>
+      <c r="V39" s="270" t="s">
         <v>98</v>
       </c>
-      <c r="R39" s="307"/>
-      <c r="S39" s="307"/>
-      <c r="T39" s="307"/>
-      <c r="U39" s="308"/>
-      <c r="V39" s="227" t="s">
-        <v>99</v>
-      </c>
-      <c r="W39" s="227"/>
-      <c r="X39" s="227"/>
-      <c r="Y39" s="227"/>
-      <c r="Z39" s="227"/>
-      <c r="AA39" s="227"/>
-      <c r="AB39" s="227"/>
-      <c r="AC39" s="227"/>
+      <c r="W39" s="270"/>
+      <c r="X39" s="270"/>
+      <c r="Y39" s="270"/>
+      <c r="Z39" s="270"/>
+      <c r="AA39" s="270"/>
+      <c r="AB39" s="270"/>
+      <c r="AC39" s="270"/>
     </row>
     <row r="40" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C40" s="130"/>
       <c r="D40" s="175">
         <v>1</v>
       </c>
-      <c r="E40" s="241" t="s">
+      <c r="E40" s="308" t="s">
         <v>27</v>
       </c>
-      <c r="F40" s="241"/>
-      <c r="G40" s="241"/>
-      <c r="H40" s="241"/>
-      <c r="I40" s="241"/>
-      <c r="J40" s="241"/>
-      <c r="K40" s="241"/>
-      <c r="L40" s="241"/>
-      <c r="M40" s="241"/>
-      <c r="N40" s="241" t="s">
+      <c r="F40" s="308"/>
+      <c r="G40" s="308"/>
+      <c r="H40" s="308"/>
+      <c r="I40" s="308"/>
+      <c r="J40" s="308"/>
+      <c r="K40" s="308"/>
+      <c r="L40" s="308"/>
+      <c r="M40" s="308"/>
+      <c r="N40" s="308" t="s">
         <v>27</v>
       </c>
-      <c r="O40" s="241"/>
-      <c r="P40" s="241"/>
-      <c r="Q40" s="309" t="s">
+      <c r="O40" s="308"/>
+      <c r="P40" s="308"/>
+      <c r="Q40" s="328" t="s">
         <v>27</v>
       </c>
-      <c r="R40" s="266"/>
-      <c r="S40" s="266"/>
-      <c r="T40" s="266"/>
-      <c r="U40" s="267"/>
-      <c r="V40" s="241" t="s">
+      <c r="R40" s="247"/>
+      <c r="S40" s="247"/>
+      <c r="T40" s="247"/>
+      <c r="U40" s="248"/>
+      <c r="V40" s="308" t="s">
         <v>27</v>
       </c>
-      <c r="W40" s="241" t="s">
+      <c r="W40" s="308" t="s">
         <v>27</v>
       </c>
-      <c r="X40" s="241"/>
-      <c r="Y40" s="241"/>
-      <c r="Z40" s="241"/>
-      <c r="AA40" s="241"/>
-      <c r="AB40" s="241"/>
-      <c r="AC40" s="241"/>
+      <c r="X40" s="308"/>
+      <c r="Y40" s="308"/>
+      <c r="Z40" s="308"/>
+      <c r="AA40" s="308"/>
+      <c r="AB40" s="308"/>
+      <c r="AC40" s="308"/>
     </row>
     <row r="41" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="3:53" ht="12" x14ac:dyDescent="0.2">
       <c r="C42" s="130" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D42" s="130"/>
       <c r="E42" s="130"/>
@@ -11900,47 +11886,47 @@
     </row>
     <row r="44" spans="3:53" s="56" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="C44" s="131"/>
-      <c r="D44" s="242" t="s">
+      <c r="D44" s="294" t="s">
         <v>0</v>
       </c>
-      <c r="E44" s="245" t="s">
+      <c r="E44" s="287" t="s">
+        <v>99</v>
+      </c>
+      <c r="F44" s="288"/>
+      <c r="G44" s="288"/>
+      <c r="H44" s="288"/>
+      <c r="I44" s="288"/>
+      <c r="J44" s="288"/>
+      <c r="K44" s="288"/>
+      <c r="L44" s="288"/>
+      <c r="M44" s="288"/>
+      <c r="N44" s="288"/>
+      <c r="O44" s="288"/>
+      <c r="P44" s="288"/>
+      <c r="Q44" s="288"/>
+      <c r="R44" s="288"/>
+      <c r="S44" s="288"/>
+      <c r="T44" s="288"/>
+      <c r="U44" s="288"/>
+      <c r="V44" s="288"/>
+      <c r="W44" s="288"/>
+      <c r="X44" s="288"/>
+      <c r="Y44" s="288"/>
+      <c r="Z44" s="288"/>
+      <c r="AA44" s="288"/>
+      <c r="AB44" s="288"/>
+      <c r="AC44" s="289"/>
+      <c r="AD44" s="191" t="s">
         <v>100</v>
       </c>
-      <c r="F44" s="246"/>
-      <c r="G44" s="246"/>
-      <c r="H44" s="246"/>
-      <c r="I44" s="246"/>
-      <c r="J44" s="246"/>
-      <c r="K44" s="246"/>
-      <c r="L44" s="246"/>
-      <c r="M44" s="246"/>
-      <c r="N44" s="246"/>
-      <c r="O44" s="246"/>
-      <c r="P44" s="246"/>
-      <c r="Q44" s="246"/>
-      <c r="R44" s="246"/>
-      <c r="S44" s="246"/>
-      <c r="T44" s="246"/>
-      <c r="U44" s="246"/>
-      <c r="V44" s="246"/>
-      <c r="W44" s="246"/>
-      <c r="X44" s="246"/>
-      <c r="Y44" s="246"/>
-      <c r="Z44" s="246"/>
-      <c r="AA44" s="246"/>
-      <c r="AB44" s="246"/>
-      <c r="AC44" s="247"/>
-      <c r="AD44" s="188" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE44" s="189"/>
-      <c r="AF44" s="189"/>
-      <c r="AG44" s="190"/>
+      <c r="AE44" s="192"/>
+      <c r="AF44" s="192"/>
+      <c r="AG44" s="193"/>
       <c r="AH44" s="90"/>
       <c r="AI44" s="90"/>
       <c r="AJ44" s="90"/>
       <c r="AK44" s="138" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AL44" s="90"/>
       <c r="AM44" s="90"/>
@@ -11948,54 +11934,54 @@
     </row>
     <row r="45" spans="3:53" s="56" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" s="131"/>
-      <c r="D45" s="243"/>
-      <c r="E45" s="188" t="s">
+      <c r="D45" s="295"/>
+      <c r="E45" s="191" t="s">
+        <v>101</v>
+      </c>
+      <c r="F45" s="192"/>
+      <c r="G45" s="192"/>
+      <c r="H45" s="193"/>
+      <c r="I45" s="297" t="s">
         <v>102</v>
       </c>
-      <c r="F45" s="189"/>
-      <c r="G45" s="189"/>
-      <c r="H45" s="190"/>
-      <c r="I45" s="235" t="s">
+      <c r="J45" s="298"/>
+      <c r="K45" s="298"/>
+      <c r="L45" s="299"/>
+      <c r="M45" s="297" t="s">
         <v>103</v>
       </c>
-      <c r="J45" s="236"/>
-      <c r="K45" s="236"/>
-      <c r="L45" s="237"/>
-      <c r="M45" s="235" t="s">
+      <c r="N45" s="298"/>
+      <c r="O45" s="298"/>
+      <c r="P45" s="298"/>
+      <c r="Q45" s="298"/>
+      <c r="R45" s="298"/>
+      <c r="S45" s="298"/>
+      <c r="T45" s="299"/>
+      <c r="U45" s="191" t="s">
         <v>104</v>
       </c>
-      <c r="N45" s="236"/>
-      <c r="O45" s="236"/>
-      <c r="P45" s="236"/>
-      <c r="Q45" s="236"/>
-      <c r="R45" s="236"/>
-      <c r="S45" s="236"/>
-      <c r="T45" s="237"/>
-      <c r="U45" s="188" t="s">
+      <c r="V45" s="192"/>
+      <c r="W45" s="192"/>
+      <c r="X45" s="192"/>
+      <c r="Y45" s="193"/>
+      <c r="Z45" s="191" t="s">
         <v>105</v>
       </c>
-      <c r="V45" s="189"/>
-      <c r="W45" s="189"/>
-      <c r="X45" s="189"/>
-      <c r="Y45" s="190"/>
-      <c r="Z45" s="188" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA45" s="189"/>
-      <c r="AB45" s="190"/>
-      <c r="AC45" s="345" t="s">
-        <v>264</v>
-      </c>
-      <c r="AD45" s="191"/>
-      <c r="AE45" s="192"/>
-      <c r="AF45" s="192"/>
-      <c r="AG45" s="193"/>
+      <c r="AA45" s="192"/>
+      <c r="AB45" s="193"/>
+      <c r="AC45" s="268" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD45" s="194"/>
+      <c r="AE45" s="195"/>
+      <c r="AF45" s="195"/>
+      <c r="AG45" s="196"/>
       <c r="AH45" s="90"/>
       <c r="AI45" s="90"/>
       <c r="AJ45" s="90"/>
       <c r="AK45" s="90"/>
       <c r="AL45" s="138" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AM45" s="90"/>
       <c r="AN45" s="90"/>
@@ -12008,45 +11994,45 @@
     </row>
     <row r="46" spans="3:53" s="56" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="C46" s="131"/>
-      <c r="D46" s="244"/>
-      <c r="E46" s="194"/>
-      <c r="F46" s="195"/>
-      <c r="G46" s="195"/>
-      <c r="H46" s="196"/>
-      <c r="I46" s="238"/>
-      <c r="J46" s="239"/>
-      <c r="K46" s="239"/>
-      <c r="L46" s="240"/>
-      <c r="M46" s="238"/>
-      <c r="N46" s="239"/>
-      <c r="O46" s="239"/>
-      <c r="P46" s="239"/>
-      <c r="Q46" s="239"/>
-      <c r="R46" s="239"/>
-      <c r="S46" s="239"/>
-      <c r="T46" s="240"/>
-      <c r="U46" s="194"/>
-      <c r="V46" s="195"/>
-      <c r="W46" s="195"/>
-      <c r="X46" s="195"/>
-      <c r="Y46" s="196"/>
-      <c r="Z46" s="194"/>
-      <c r="AA46" s="195"/>
-      <c r="AB46" s="196"/>
-      <c r="AC46" s="346"/>
-      <c r="AD46" s="194"/>
-      <c r="AE46" s="195"/>
-      <c r="AF46" s="195"/>
-      <c r="AG46" s="196"/>
+      <c r="D46" s="296"/>
+      <c r="E46" s="197"/>
+      <c r="F46" s="198"/>
+      <c r="G46" s="198"/>
+      <c r="H46" s="199"/>
+      <c r="I46" s="300"/>
+      <c r="J46" s="301"/>
+      <c r="K46" s="301"/>
+      <c r="L46" s="302"/>
+      <c r="M46" s="300"/>
+      <c r="N46" s="301"/>
+      <c r="O46" s="301"/>
+      <c r="P46" s="301"/>
+      <c r="Q46" s="301"/>
+      <c r="R46" s="301"/>
+      <c r="S46" s="301"/>
+      <c r="T46" s="302"/>
+      <c r="U46" s="197"/>
+      <c r="V46" s="198"/>
+      <c r="W46" s="198"/>
+      <c r="X46" s="198"/>
+      <c r="Y46" s="199"/>
+      <c r="Z46" s="197"/>
+      <c r="AA46" s="198"/>
+      <c r="AB46" s="199"/>
+      <c r="AC46" s="269"/>
+      <c r="AD46" s="197"/>
+      <c r="AE46" s="198"/>
+      <c r="AF46" s="198"/>
+      <c r="AG46" s="199"/>
       <c r="AH46" s="90"/>
       <c r="AI46" s="90"/>
       <c r="AJ46" s="90"/>
       <c r="AK46" s="90"/>
-      <c r="AL46" s="321"/>
-      <c r="AM46" s="321"/>
-      <c r="AN46" s="321"/>
-      <c r="AO46" s="321"/>
-      <c r="AP46" s="321"/>
+      <c r="AL46" s="312"/>
+      <c r="AM46" s="312"/>
+      <c r="AN46" s="312"/>
+      <c r="AO46" s="312"/>
+      <c r="AP46" s="312"/>
       <c r="AQ46" s="90"/>
       <c r="AR46" s="90"/>
       <c r="AS46" s="90"/>
@@ -12054,38 +12040,38 @@
     </row>
     <row r="47" spans="3:53" s="56" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" s="131"/>
-      <c r="D47" s="229" t="s">
-        <v>119</v>
-      </c>
-      <c r="E47" s="230"/>
-      <c r="F47" s="230"/>
-      <c r="G47" s="230"/>
-      <c r="H47" s="230"/>
-      <c r="I47" s="230"/>
-      <c r="J47" s="230"/>
-      <c r="K47" s="230"/>
-      <c r="L47" s="230"/>
-      <c r="M47" s="230"/>
-      <c r="N47" s="230"/>
-      <c r="O47" s="230"/>
-      <c r="P47" s="230"/>
-      <c r="Q47" s="230"/>
-      <c r="R47" s="230"/>
-      <c r="S47" s="230"/>
-      <c r="T47" s="230"/>
-      <c r="U47" s="230"/>
-      <c r="V47" s="230"/>
-      <c r="W47" s="230"/>
-      <c r="X47" s="230"/>
-      <c r="Y47" s="230"/>
-      <c r="Z47" s="230"/>
-      <c r="AA47" s="230"/>
-      <c r="AB47" s="230"/>
-      <c r="AC47" s="230"/>
-      <c r="AD47" s="230"/>
-      <c r="AE47" s="230"/>
-      <c r="AF47" s="230"/>
-      <c r="AG47" s="231"/>
+      <c r="D47" s="304" t="s">
+        <v>118</v>
+      </c>
+      <c r="E47" s="305"/>
+      <c r="F47" s="305"/>
+      <c r="G47" s="305"/>
+      <c r="H47" s="305"/>
+      <c r="I47" s="305"/>
+      <c r="J47" s="305"/>
+      <c r="K47" s="305"/>
+      <c r="L47" s="305"/>
+      <c r="M47" s="305"/>
+      <c r="N47" s="305"/>
+      <c r="O47" s="305"/>
+      <c r="P47" s="305"/>
+      <c r="Q47" s="305"/>
+      <c r="R47" s="305"/>
+      <c r="S47" s="305"/>
+      <c r="T47" s="305"/>
+      <c r="U47" s="305"/>
+      <c r="V47" s="305"/>
+      <c r="W47" s="305"/>
+      <c r="X47" s="305"/>
+      <c r="Y47" s="305"/>
+      <c r="Z47" s="305"/>
+      <c r="AA47" s="305"/>
+      <c r="AB47" s="305"/>
+      <c r="AC47" s="305"/>
+      <c r="AD47" s="305"/>
+      <c r="AE47" s="305"/>
+      <c r="AF47" s="305"/>
+      <c r="AG47" s="306"/>
       <c r="AH47" s="90"/>
       <c r="AI47" s="90"/>
       <c r="AJ47" s="90"/>
@@ -12105,49 +12091,49 @@
       <c r="D48" s="137">
         <v>1</v>
       </c>
-      <c r="E48" s="206" t="s">
-        <v>108</v>
-      </c>
-      <c r="F48" s="207"/>
-      <c r="G48" s="207"/>
+      <c r="E48" s="203" t="s">
+        <v>107</v>
+      </c>
+      <c r="F48" s="204"/>
+      <c r="G48" s="204"/>
       <c r="H48" s="208"/>
-      <c r="I48" s="226" t="s">
+      <c r="I48" s="215" t="s">
         <v>23</v>
       </c>
-      <c r="J48" s="226"/>
-      <c r="K48" s="226"/>
-      <c r="L48" s="226"/>
-      <c r="M48" s="220" t="s">
+      <c r="J48" s="215"/>
+      <c r="K48" s="215"/>
+      <c r="L48" s="215"/>
+      <c r="M48" s="221" t="s">
         <v>27</v>
       </c>
-      <c r="N48" s="221"/>
-      <c r="O48" s="221"/>
-      <c r="P48" s="221"/>
-      <c r="Q48" s="221"/>
-      <c r="R48" s="221"/>
-      <c r="S48" s="221"/>
-      <c r="T48" s="222"/>
-      <c r="U48" s="212" t="s">
+      <c r="N48" s="222"/>
+      <c r="O48" s="222"/>
+      <c r="P48" s="222"/>
+      <c r="Q48" s="222"/>
+      <c r="R48" s="222"/>
+      <c r="S48" s="222"/>
+      <c r="T48" s="223"/>
+      <c r="U48" s="209" t="s">
         <v>27</v>
       </c>
-      <c r="V48" s="213"/>
-      <c r="W48" s="213"/>
-      <c r="X48" s="213"/>
-      <c r="Y48" s="214"/>
-      <c r="Z48" s="212" t="s">
+      <c r="V48" s="210"/>
+      <c r="W48" s="210"/>
+      <c r="X48" s="210"/>
+      <c r="Y48" s="211"/>
+      <c r="Z48" s="209" t="s">
         <v>27</v>
       </c>
-      <c r="AA48" s="213"/>
-      <c r="AB48" s="214"/>
+      <c r="AA48" s="210"/>
+      <c r="AB48" s="211"/>
       <c r="AC48" s="142" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD48" s="212" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE48" s="213"/>
-      <c r="AF48" s="213"/>
-      <c r="AG48" s="214"/>
+        <v>263</v>
+      </c>
+      <c r="AD48" s="209" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE48" s="210"/>
+      <c r="AF48" s="210"/>
+      <c r="AG48" s="211"/>
       <c r="AL48" s="127"/>
       <c r="AM48" s="124"/>
       <c r="AN48" s="124"/>
@@ -12164,49 +12150,49 @@
       <c r="D49" s="137">
         <v>2</v>
       </c>
-      <c r="E49" s="206" t="s">
-        <v>109</v>
-      </c>
-      <c r="F49" s="207"/>
-      <c r="G49" s="207"/>
+      <c r="E49" s="203" t="s">
+        <v>108</v>
+      </c>
+      <c r="F49" s="204"/>
+      <c r="G49" s="204"/>
       <c r="H49" s="208"/>
-      <c r="I49" s="226" t="s">
+      <c r="I49" s="215" t="s">
         <v>23</v>
       </c>
-      <c r="J49" s="226"/>
-      <c r="K49" s="226"/>
-      <c r="L49" s="226"/>
-      <c r="M49" s="220" t="s">
+      <c r="J49" s="215"/>
+      <c r="K49" s="215"/>
+      <c r="L49" s="215"/>
+      <c r="M49" s="221" t="s">
         <v>27</v>
       </c>
-      <c r="N49" s="221"/>
-      <c r="O49" s="221"/>
-      <c r="P49" s="221"/>
-      <c r="Q49" s="221"/>
-      <c r="R49" s="221"/>
-      <c r="S49" s="221"/>
-      <c r="T49" s="222"/>
-      <c r="U49" s="212" t="s">
+      <c r="N49" s="222"/>
+      <c r="O49" s="222"/>
+      <c r="P49" s="222"/>
+      <c r="Q49" s="222"/>
+      <c r="R49" s="222"/>
+      <c r="S49" s="222"/>
+      <c r="T49" s="223"/>
+      <c r="U49" s="209" t="s">
         <v>27</v>
       </c>
-      <c r="V49" s="213"/>
-      <c r="W49" s="213"/>
-      <c r="X49" s="213"/>
-      <c r="Y49" s="214"/>
-      <c r="Z49" s="212" t="s">
+      <c r="V49" s="210"/>
+      <c r="W49" s="210"/>
+      <c r="X49" s="210"/>
+      <c r="Y49" s="211"/>
+      <c r="Z49" s="209" t="s">
         <v>27</v>
       </c>
-      <c r="AA49" s="213"/>
-      <c r="AB49" s="214"/>
+      <c r="AA49" s="210"/>
+      <c r="AB49" s="211"/>
       <c r="AC49" s="142" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD49" s="212" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE49" s="213"/>
-      <c r="AF49" s="213"/>
-      <c r="AG49" s="214"/>
+        <v>263</v>
+      </c>
+      <c r="AD49" s="209" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE49" s="210"/>
+      <c r="AF49" s="210"/>
+      <c r="AG49" s="211"/>
       <c r="AL49" s="127"/>
       <c r="AM49" s="124"/>
       <c r="AN49" s="124"/>
@@ -12223,28 +12209,28 @@
       <c r="D50" s="137">
         <v>3</v>
       </c>
-      <c r="E50" s="206" t="s">
-        <v>110</v>
-      </c>
-      <c r="F50" s="207"/>
-      <c r="G50" s="207"/>
+      <c r="E50" s="203" t="s">
+        <v>109</v>
+      </c>
+      <c r="F50" s="204"/>
+      <c r="G50" s="204"/>
       <c r="H50" s="208"/>
-      <c r="I50" s="226" t="s">
+      <c r="I50" s="215" t="s">
         <v>23</v>
       </c>
-      <c r="J50" s="226"/>
-      <c r="K50" s="226"/>
-      <c r="L50" s="226"/>
-      <c r="M50" s="310" t="s">
+      <c r="J50" s="215"/>
+      <c r="K50" s="215"/>
+      <c r="L50" s="215"/>
+      <c r="M50" s="329" t="s">
         <v>27</v>
       </c>
-      <c r="N50" s="310"/>
-      <c r="O50" s="310"/>
-      <c r="P50" s="310"/>
-      <c r="Q50" s="310"/>
-      <c r="R50" s="310"/>
-      <c r="S50" s="310"/>
-      <c r="T50" s="310"/>
+      <c r="N50" s="329"/>
+      <c r="O50" s="329"/>
+      <c r="P50" s="329"/>
+      <c r="Q50" s="329"/>
+      <c r="R50" s="329"/>
+      <c r="S50" s="329"/>
+      <c r="T50" s="329"/>
       <c r="U50" s="311" t="s">
         <v>27</v>
       </c>
@@ -12258,14 +12244,14 @@
       <c r="AA50" s="311"/>
       <c r="AB50" s="311"/>
       <c r="AC50" s="142" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD50" s="212" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE50" s="213"/>
-      <c r="AF50" s="213"/>
-      <c r="AG50" s="214"/>
+        <v>263</v>
+      </c>
+      <c r="AD50" s="209" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE50" s="210"/>
+      <c r="AF50" s="210"/>
+      <c r="AG50" s="211"/>
       <c r="AH50" s="90"/>
       <c r="AI50" s="90"/>
       <c r="AJ50" s="90"/>
@@ -12285,47 +12271,47 @@
       <c r="D51" s="137">
         <v>4</v>
       </c>
-      <c r="E51" s="206" t="s">
-        <v>111</v>
-      </c>
-      <c r="F51" s="207"/>
-      <c r="G51" s="207"/>
+      <c r="E51" s="203" t="s">
+        <v>110</v>
+      </c>
+      <c r="F51" s="204"/>
+      <c r="G51" s="204"/>
       <c r="H51" s="208"/>
-      <c r="I51" s="226" t="s">
+      <c r="I51" s="215" t="s">
         <v>23</v>
       </c>
-      <c r="J51" s="226"/>
-      <c r="K51" s="226"/>
-      <c r="L51" s="226"/>
-      <c r="M51" s="220" t="s">
+      <c r="J51" s="215"/>
+      <c r="K51" s="215"/>
+      <c r="L51" s="215"/>
+      <c r="M51" s="221" t="s">
         <v>27</v>
       </c>
-      <c r="N51" s="221"/>
-      <c r="O51" s="221"/>
-      <c r="P51" s="221"/>
-      <c r="Q51" s="221"/>
-      <c r="R51" s="221"/>
-      <c r="S51" s="221"/>
-      <c r="T51" s="222"/>
-      <c r="U51" s="212"/>
-      <c r="V51" s="213"/>
-      <c r="W51" s="213"/>
-      <c r="X51" s="213"/>
-      <c r="Y51" s="214"/>
+      <c r="N51" s="222"/>
+      <c r="O51" s="222"/>
+      <c r="P51" s="222"/>
+      <c r="Q51" s="222"/>
+      <c r="R51" s="222"/>
+      <c r="S51" s="222"/>
+      <c r="T51" s="223"/>
+      <c r="U51" s="209"/>
+      <c r="V51" s="210"/>
+      <c r="W51" s="210"/>
+      <c r="X51" s="210"/>
+      <c r="Y51" s="211"/>
       <c r="Z51" s="311" t="s">
         <v>27</v>
       </c>
       <c r="AA51" s="311"/>
       <c r="AB51" s="311"/>
       <c r="AC51" s="142" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD51" s="212" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE51" s="213"/>
-      <c r="AF51" s="213"/>
-      <c r="AG51" s="214"/>
+        <v>263</v>
+      </c>
+      <c r="AD51" s="209" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE51" s="210"/>
+      <c r="AF51" s="210"/>
+      <c r="AG51" s="211"/>
       <c r="AH51" s="90"/>
       <c r="AI51" s="90"/>
       <c r="AJ51" s="90"/>
@@ -12345,47 +12331,47 @@
       <c r="D52" s="137">
         <v>5</v>
       </c>
-      <c r="E52" s="206" t="s">
-        <v>112</v>
-      </c>
-      <c r="F52" s="207"/>
-      <c r="G52" s="207"/>
+      <c r="E52" s="203" t="s">
+        <v>111</v>
+      </c>
+      <c r="F52" s="204"/>
+      <c r="G52" s="204"/>
       <c r="H52" s="208"/>
-      <c r="I52" s="226" t="s">
+      <c r="I52" s="215" t="s">
         <v>23</v>
       </c>
-      <c r="J52" s="226"/>
-      <c r="K52" s="226"/>
-      <c r="L52" s="226"/>
-      <c r="M52" s="220" t="s">
+      <c r="J52" s="215"/>
+      <c r="K52" s="215"/>
+      <c r="L52" s="215"/>
+      <c r="M52" s="221" t="s">
         <v>27</v>
       </c>
-      <c r="N52" s="221"/>
-      <c r="O52" s="221"/>
-      <c r="P52" s="221"/>
-      <c r="Q52" s="221"/>
-      <c r="R52" s="221"/>
-      <c r="S52" s="221"/>
-      <c r="T52" s="222"/>
-      <c r="U52" s="212"/>
-      <c r="V52" s="213"/>
-      <c r="W52" s="213"/>
-      <c r="X52" s="213"/>
-      <c r="Y52" s="214"/>
+      <c r="N52" s="222"/>
+      <c r="O52" s="222"/>
+      <c r="P52" s="222"/>
+      <c r="Q52" s="222"/>
+      <c r="R52" s="222"/>
+      <c r="S52" s="222"/>
+      <c r="T52" s="223"/>
+      <c r="U52" s="209"/>
+      <c r="V52" s="210"/>
+      <c r="W52" s="210"/>
+      <c r="X52" s="210"/>
+      <c r="Y52" s="211"/>
       <c r="Z52" s="311" t="s">
         <v>27</v>
       </c>
       <c r="AA52" s="311"/>
       <c r="AB52" s="311"/>
       <c r="AC52" s="142" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD52" s="212" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE52" s="213"/>
-      <c r="AF52" s="213"/>
-      <c r="AG52" s="214"/>
+        <v>263</v>
+      </c>
+      <c r="AD52" s="209" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE52" s="210"/>
+      <c r="AF52" s="210"/>
+      <c r="AG52" s="211"/>
       <c r="AH52" s="90"/>
       <c r="AI52" s="90"/>
       <c r="AJ52" s="90"/>
@@ -12405,49 +12391,49 @@
       <c r="D53" s="137">
         <v>6</v>
       </c>
-      <c r="E53" s="206" t="s">
-        <v>113</v>
-      </c>
-      <c r="F53" s="207"/>
-      <c r="G53" s="207"/>
+      <c r="E53" s="203" t="s">
+        <v>112</v>
+      </c>
+      <c r="F53" s="204"/>
+      <c r="G53" s="204"/>
       <c r="H53" s="208"/>
-      <c r="I53" s="226" t="s">
+      <c r="I53" s="215" t="s">
         <v>23</v>
       </c>
-      <c r="J53" s="226"/>
-      <c r="K53" s="226"/>
-      <c r="L53" s="226"/>
-      <c r="M53" s="220" t="s">
+      <c r="J53" s="215"/>
+      <c r="K53" s="215"/>
+      <c r="L53" s="215"/>
+      <c r="M53" s="221" t="s">
         <v>27</v>
       </c>
-      <c r="N53" s="221"/>
-      <c r="O53" s="221"/>
-      <c r="P53" s="221"/>
-      <c r="Q53" s="221"/>
-      <c r="R53" s="221"/>
-      <c r="S53" s="221"/>
-      <c r="T53" s="222"/>
-      <c r="U53" s="212" t="s">
+      <c r="N53" s="222"/>
+      <c r="O53" s="222"/>
+      <c r="P53" s="222"/>
+      <c r="Q53" s="222"/>
+      <c r="R53" s="222"/>
+      <c r="S53" s="222"/>
+      <c r="T53" s="223"/>
+      <c r="U53" s="209" t="s">
         <v>27</v>
       </c>
-      <c r="V53" s="213"/>
-      <c r="W53" s="213"/>
-      <c r="X53" s="213"/>
-      <c r="Y53" s="214"/>
-      <c r="Z53" s="212" t="s">
+      <c r="V53" s="210"/>
+      <c r="W53" s="210"/>
+      <c r="X53" s="210"/>
+      <c r="Y53" s="211"/>
+      <c r="Z53" s="209" t="s">
         <v>27</v>
       </c>
-      <c r="AA53" s="213"/>
-      <c r="AB53" s="214"/>
+      <c r="AA53" s="210"/>
+      <c r="AB53" s="211"/>
       <c r="AC53" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="AD53" s="212" t="s">
-        <v>113</v>
-      </c>
-      <c r="AE53" s="213"/>
-      <c r="AF53" s="213"/>
-      <c r="AG53" s="214"/>
+      <c r="AD53" s="209" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE53" s="210"/>
+      <c r="AF53" s="210"/>
+      <c r="AG53" s="211"/>
       <c r="AL53" s="124"/>
       <c r="AM53" s="124"/>
       <c r="AN53" s="124"/>
@@ -12460,49 +12446,49 @@
       <c r="D54" s="137">
         <v>7</v>
       </c>
-      <c r="E54" s="206" t="s">
-        <v>114</v>
-      </c>
-      <c r="F54" s="207"/>
-      <c r="G54" s="207"/>
+      <c r="E54" s="203" t="s">
+        <v>113</v>
+      </c>
+      <c r="F54" s="204"/>
+      <c r="G54" s="204"/>
       <c r="H54" s="208"/>
-      <c r="I54" s="226" t="s">
+      <c r="I54" s="215" t="s">
         <v>23</v>
       </c>
-      <c r="J54" s="226"/>
-      <c r="K54" s="226"/>
-      <c r="L54" s="226"/>
-      <c r="M54" s="220" t="s">
+      <c r="J54" s="215"/>
+      <c r="K54" s="215"/>
+      <c r="L54" s="215"/>
+      <c r="M54" s="221" t="s">
         <v>27</v>
       </c>
-      <c r="N54" s="221"/>
-      <c r="O54" s="221"/>
-      <c r="P54" s="221"/>
-      <c r="Q54" s="221"/>
-      <c r="R54" s="221"/>
-      <c r="S54" s="221"/>
-      <c r="T54" s="222"/>
-      <c r="U54" s="212" t="s">
+      <c r="N54" s="222"/>
+      <c r="O54" s="222"/>
+      <c r="P54" s="222"/>
+      <c r="Q54" s="222"/>
+      <c r="R54" s="222"/>
+      <c r="S54" s="222"/>
+      <c r="T54" s="223"/>
+      <c r="U54" s="209" t="s">
         <v>27</v>
       </c>
-      <c r="V54" s="213"/>
-      <c r="W54" s="213"/>
-      <c r="X54" s="213"/>
-      <c r="Y54" s="214"/>
-      <c r="Z54" s="212" t="s">
+      <c r="V54" s="210"/>
+      <c r="W54" s="210"/>
+      <c r="X54" s="210"/>
+      <c r="Y54" s="211"/>
+      <c r="Z54" s="209" t="s">
         <v>27</v>
       </c>
-      <c r="AA54" s="213"/>
-      <c r="AB54" s="214"/>
+      <c r="AA54" s="210"/>
+      <c r="AB54" s="211"/>
       <c r="AC54" s="142" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD54" s="212" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE54" s="213"/>
-      <c r="AF54" s="213"/>
-      <c r="AG54" s="214"/>
+        <v>263</v>
+      </c>
+      <c r="AD54" s="209" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE54" s="210"/>
+      <c r="AF54" s="210"/>
+      <c r="AG54" s="211"/>
       <c r="AL54" s="124"/>
       <c r="AM54" s="124"/>
       <c r="AN54" s="124"/>
@@ -12519,49 +12505,49 @@
       <c r="D55" s="137">
         <v>8</v>
       </c>
-      <c r="E55" s="206" t="s">
-        <v>115</v>
-      </c>
-      <c r="F55" s="207"/>
-      <c r="G55" s="207"/>
+      <c r="E55" s="203" t="s">
+        <v>114</v>
+      </c>
+      <c r="F55" s="204"/>
+      <c r="G55" s="204"/>
       <c r="H55" s="208"/>
-      <c r="I55" s="226" t="s">
+      <c r="I55" s="215" t="s">
         <v>23</v>
       </c>
-      <c r="J55" s="226"/>
-      <c r="K55" s="226"/>
-      <c r="L55" s="226"/>
-      <c r="M55" s="220" t="s">
+      <c r="J55" s="215"/>
+      <c r="K55" s="215"/>
+      <c r="L55" s="215"/>
+      <c r="M55" s="221" t="s">
         <v>27</v>
       </c>
-      <c r="N55" s="221"/>
-      <c r="O55" s="221"/>
-      <c r="P55" s="221"/>
-      <c r="Q55" s="221"/>
-      <c r="R55" s="221"/>
-      <c r="S55" s="221"/>
-      <c r="T55" s="222"/>
-      <c r="U55" s="212" t="s">
+      <c r="N55" s="222"/>
+      <c r="O55" s="222"/>
+      <c r="P55" s="222"/>
+      <c r="Q55" s="222"/>
+      <c r="R55" s="222"/>
+      <c r="S55" s="222"/>
+      <c r="T55" s="223"/>
+      <c r="U55" s="209" t="s">
         <v>27</v>
       </c>
-      <c r="V55" s="213"/>
-      <c r="W55" s="213"/>
-      <c r="X55" s="213"/>
-      <c r="Y55" s="214"/>
-      <c r="Z55" s="212" t="s">
+      <c r="V55" s="210"/>
+      <c r="W55" s="210"/>
+      <c r="X55" s="210"/>
+      <c r="Y55" s="211"/>
+      <c r="Z55" s="209" t="s">
         <v>27</v>
       </c>
-      <c r="AA55" s="213"/>
-      <c r="AB55" s="214"/>
+      <c r="AA55" s="210"/>
+      <c r="AB55" s="211"/>
       <c r="AC55" s="142" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD55" s="212" t="s">
-        <v>125</v>
-      </c>
-      <c r="AE55" s="213"/>
-      <c r="AF55" s="213"/>
-      <c r="AG55" s="214"/>
+        <v>263</v>
+      </c>
+      <c r="AD55" s="209" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE55" s="210"/>
+      <c r="AF55" s="210"/>
+      <c r="AG55" s="211"/>
       <c r="AL55" s="124"/>
       <c r="AM55" s="124"/>
       <c r="AN55" s="124"/>
@@ -12578,49 +12564,49 @@
       <c r="D56" s="137">
         <v>9</v>
       </c>
-      <c r="E56" s="206" t="s">
-        <v>116</v>
-      </c>
-      <c r="F56" s="207"/>
-      <c r="G56" s="207"/>
+      <c r="E56" s="203" t="s">
+        <v>115</v>
+      </c>
+      <c r="F56" s="204"/>
+      <c r="G56" s="204"/>
       <c r="H56" s="208"/>
-      <c r="I56" s="226" t="s">
+      <c r="I56" s="215" t="s">
         <v>23</v>
       </c>
-      <c r="J56" s="226"/>
-      <c r="K56" s="226"/>
-      <c r="L56" s="226"/>
-      <c r="M56" s="220" t="s">
+      <c r="J56" s="215"/>
+      <c r="K56" s="215"/>
+      <c r="L56" s="215"/>
+      <c r="M56" s="221" t="s">
         <v>27</v>
       </c>
-      <c r="N56" s="221"/>
-      <c r="O56" s="221"/>
-      <c r="P56" s="221"/>
-      <c r="Q56" s="221"/>
-      <c r="R56" s="221"/>
-      <c r="S56" s="221"/>
-      <c r="T56" s="222"/>
-      <c r="U56" s="212" t="s">
+      <c r="N56" s="222"/>
+      <c r="O56" s="222"/>
+      <c r="P56" s="222"/>
+      <c r="Q56" s="222"/>
+      <c r="R56" s="222"/>
+      <c r="S56" s="222"/>
+      <c r="T56" s="223"/>
+      <c r="U56" s="209" t="s">
         <v>27</v>
       </c>
-      <c r="V56" s="213"/>
-      <c r="W56" s="213"/>
-      <c r="X56" s="213"/>
-      <c r="Y56" s="214"/>
-      <c r="Z56" s="212" t="s">
+      <c r="V56" s="210"/>
+      <c r="W56" s="210"/>
+      <c r="X56" s="210"/>
+      <c r="Y56" s="211"/>
+      <c r="Z56" s="209" t="s">
         <v>27</v>
       </c>
-      <c r="AA56" s="213"/>
-      <c r="AB56" s="214"/>
+      <c r="AA56" s="210"/>
+      <c r="AB56" s="211"/>
       <c r="AC56" s="142" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD56" s="212" t="s">
-        <v>125</v>
-      </c>
-      <c r="AE56" s="213"/>
-      <c r="AF56" s="213"/>
-      <c r="AG56" s="214"/>
+        <v>263</v>
+      </c>
+      <c r="AD56" s="209" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE56" s="210"/>
+      <c r="AF56" s="210"/>
+      <c r="AG56" s="211"/>
       <c r="AL56" s="120"/>
       <c r="AM56" s="120"/>
       <c r="AN56" s="120"/>
@@ -12635,49 +12621,49 @@
       <c r="D57" s="137">
         <v>10</v>
       </c>
-      <c r="E57" s="212" t="s">
-        <v>117</v>
-      </c>
-      <c r="F57" s="213"/>
-      <c r="G57" s="213"/>
-      <c r="H57" s="214"/>
-      <c r="I57" s="226" t="s">
+      <c r="E57" s="209" t="s">
+        <v>116</v>
+      </c>
+      <c r="F57" s="210"/>
+      <c r="G57" s="210"/>
+      <c r="H57" s="211"/>
+      <c r="I57" s="215" t="s">
         <v>23</v>
       </c>
-      <c r="J57" s="226"/>
-      <c r="K57" s="226"/>
-      <c r="L57" s="226"/>
-      <c r="M57" s="220" t="s">
+      <c r="J57" s="215"/>
+      <c r="K57" s="215"/>
+      <c r="L57" s="215"/>
+      <c r="M57" s="221" t="s">
         <v>27</v>
       </c>
-      <c r="N57" s="221"/>
-      <c r="O57" s="221"/>
-      <c r="P57" s="221"/>
-      <c r="Q57" s="221"/>
-      <c r="R57" s="221"/>
-      <c r="S57" s="221"/>
-      <c r="T57" s="222"/>
-      <c r="U57" s="212" t="s">
+      <c r="N57" s="222"/>
+      <c r="O57" s="222"/>
+      <c r="P57" s="222"/>
+      <c r="Q57" s="222"/>
+      <c r="R57" s="222"/>
+      <c r="S57" s="222"/>
+      <c r="T57" s="223"/>
+      <c r="U57" s="209" t="s">
         <v>27</v>
       </c>
-      <c r="V57" s="213"/>
-      <c r="W57" s="213"/>
-      <c r="X57" s="213"/>
-      <c r="Y57" s="214"/>
-      <c r="Z57" s="212" t="s">
+      <c r="V57" s="210"/>
+      <c r="W57" s="210"/>
+      <c r="X57" s="210"/>
+      <c r="Y57" s="211"/>
+      <c r="Z57" s="209" t="s">
         <v>27</v>
       </c>
-      <c r="AA57" s="213"/>
-      <c r="AB57" s="214"/>
+      <c r="AA57" s="210"/>
+      <c r="AB57" s="211"/>
       <c r="AC57" s="142" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD57" s="212" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE57" s="213"/>
-      <c r="AF57" s="213"/>
-      <c r="AG57" s="214"/>
+        <v>263</v>
+      </c>
+      <c r="AD57" s="209" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE57" s="210"/>
+      <c r="AF57" s="210"/>
+      <c r="AG57" s="211"/>
       <c r="AH57" s="103"/>
       <c r="AI57" s="103"/>
       <c r="AJ57" s="103"/>
@@ -12695,49 +12681,49 @@
       <c r="D58" s="137">
         <v>11</v>
       </c>
-      <c r="E58" s="212" t="s">
-        <v>118</v>
-      </c>
-      <c r="F58" s="213"/>
-      <c r="G58" s="213"/>
-      <c r="H58" s="214"/>
-      <c r="I58" s="226" t="s">
+      <c r="E58" s="209" t="s">
+        <v>117</v>
+      </c>
+      <c r="F58" s="210"/>
+      <c r="G58" s="210"/>
+      <c r="H58" s="211"/>
+      <c r="I58" s="215" t="s">
         <v>23</v>
       </c>
-      <c r="J58" s="226"/>
-      <c r="K58" s="226"/>
-      <c r="L58" s="226"/>
-      <c r="M58" s="220" t="s">
+      <c r="J58" s="215"/>
+      <c r="K58" s="215"/>
+      <c r="L58" s="215"/>
+      <c r="M58" s="221" t="s">
         <v>27</v>
       </c>
-      <c r="N58" s="221"/>
-      <c r="O58" s="221"/>
-      <c r="P58" s="221"/>
-      <c r="Q58" s="221"/>
-      <c r="R58" s="221"/>
-      <c r="S58" s="221"/>
-      <c r="T58" s="222"/>
-      <c r="U58" s="212" t="s">
+      <c r="N58" s="222"/>
+      <c r="O58" s="222"/>
+      <c r="P58" s="222"/>
+      <c r="Q58" s="222"/>
+      <c r="R58" s="222"/>
+      <c r="S58" s="222"/>
+      <c r="T58" s="223"/>
+      <c r="U58" s="209" t="s">
         <v>27</v>
       </c>
-      <c r="V58" s="213"/>
-      <c r="W58" s="213"/>
-      <c r="X58" s="213"/>
-      <c r="Y58" s="214"/>
-      <c r="Z58" s="212" t="s">
+      <c r="V58" s="210"/>
+      <c r="W58" s="210"/>
+      <c r="X58" s="210"/>
+      <c r="Y58" s="211"/>
+      <c r="Z58" s="209" t="s">
         <v>27</v>
       </c>
-      <c r="AA58" s="213"/>
-      <c r="AB58" s="214"/>
+      <c r="AA58" s="210"/>
+      <c r="AB58" s="211"/>
       <c r="AC58" s="142" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD58" s="212" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE58" s="213"/>
-      <c r="AF58" s="213"/>
-      <c r="AG58" s="214"/>
+        <v>263</v>
+      </c>
+      <c r="AD58" s="209" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE58" s="210"/>
+      <c r="AF58" s="210"/>
+      <c r="AG58" s="211"/>
       <c r="AL58" s="124"/>
       <c r="AM58" s="124"/>
       <c r="AN58" s="124"/>
@@ -12754,49 +12740,49 @@
       <c r="D59" s="137">
         <v>12</v>
       </c>
-      <c r="E59" s="206" t="s">
-        <v>99</v>
-      </c>
-      <c r="F59" s="207"/>
-      <c r="G59" s="207"/>
+      <c r="E59" s="203" t="s">
+        <v>98</v>
+      </c>
+      <c r="F59" s="204"/>
+      <c r="G59" s="204"/>
       <c r="H59" s="208"/>
-      <c r="I59" s="226" t="s">
+      <c r="I59" s="215" t="s">
         <v>23</v>
       </c>
-      <c r="J59" s="226"/>
-      <c r="K59" s="226"/>
-      <c r="L59" s="226"/>
-      <c r="M59" s="220" t="s">
+      <c r="J59" s="215"/>
+      <c r="K59" s="215"/>
+      <c r="L59" s="215"/>
+      <c r="M59" s="221" t="s">
         <v>27</v>
       </c>
-      <c r="N59" s="221"/>
-      <c r="O59" s="221"/>
-      <c r="P59" s="221"/>
-      <c r="Q59" s="221"/>
-      <c r="R59" s="221"/>
-      <c r="S59" s="221"/>
-      <c r="T59" s="222"/>
-      <c r="U59" s="212" t="s">
+      <c r="N59" s="222"/>
+      <c r="O59" s="222"/>
+      <c r="P59" s="222"/>
+      <c r="Q59" s="222"/>
+      <c r="R59" s="222"/>
+      <c r="S59" s="222"/>
+      <c r="T59" s="223"/>
+      <c r="U59" s="209" t="s">
         <v>27</v>
       </c>
-      <c r="V59" s="213"/>
-      <c r="W59" s="213"/>
-      <c r="X59" s="213"/>
-      <c r="Y59" s="214"/>
-      <c r="Z59" s="212" t="s">
+      <c r="V59" s="210"/>
+      <c r="W59" s="210"/>
+      <c r="X59" s="210"/>
+      <c r="Y59" s="211"/>
+      <c r="Z59" s="209" t="s">
         <v>27</v>
       </c>
-      <c r="AA59" s="213"/>
-      <c r="AB59" s="214"/>
+      <c r="AA59" s="210"/>
+      <c r="AB59" s="211"/>
       <c r="AC59" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="AD59" s="212" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE59" s="213"/>
-      <c r="AF59" s="213"/>
-      <c r="AG59" s="214"/>
+      <c r="AD59" s="209" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE59" s="210"/>
+      <c r="AF59" s="210"/>
+      <c r="AG59" s="211"/>
       <c r="AL59" s="124"/>
       <c r="AM59" s="124"/>
       <c r="AN59" s="124"/>
@@ -12866,7 +12852,7 @@
     </row>
     <row r="62" spans="3:52" ht="12" x14ac:dyDescent="0.2">
       <c r="C62" s="130" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D62" s="173"/>
       <c r="E62" s="176"/>
@@ -12957,49 +12943,49 @@
     </row>
     <row r="64" spans="3:52" ht="12" x14ac:dyDescent="0.2">
       <c r="C64" s="130"/>
-      <c r="D64" s="249" t="s">
+      <c r="D64" s="271" t="s">
         <v>0</v>
       </c>
-      <c r="E64" s="251" t="s">
+      <c r="E64" s="273" t="s">
+        <v>143</v>
+      </c>
+      <c r="F64" s="274"/>
+      <c r="G64" s="274"/>
+      <c r="H64" s="274"/>
+      <c r="I64" s="274"/>
+      <c r="J64" s="275"/>
+      <c r="K64" s="273" t="s">
         <v>144</v>
       </c>
-      <c r="F64" s="252"/>
-      <c r="G64" s="252"/>
-      <c r="H64" s="252"/>
-      <c r="I64" s="252"/>
-      <c r="J64" s="253"/>
-      <c r="K64" s="251" t="s">
+      <c r="L64" s="274"/>
+      <c r="M64" s="274"/>
+      <c r="N64" s="275"/>
+      <c r="O64" s="290" t="s">
         <v>145</v>
       </c>
-      <c r="L64" s="252"/>
-      <c r="M64" s="252"/>
-      <c r="N64" s="253"/>
-      <c r="O64" s="268" t="s">
+      <c r="P64" s="146" t="s">
         <v>146</v>
-      </c>
-      <c r="P64" s="146" t="s">
-        <v>147</v>
       </c>
       <c r="Q64" s="147"/>
       <c r="R64" s="147"/>
       <c r="S64" s="147"/>
       <c r="T64" s="147"/>
       <c r="U64" s="147"/>
-      <c r="V64" s="251" t="s">
-        <v>99</v>
-      </c>
-      <c r="W64" s="252"/>
-      <c r="X64" s="252"/>
-      <c r="Y64" s="252"/>
-      <c r="Z64" s="252"/>
-      <c r="AA64" s="252"/>
-      <c r="AB64" s="252"/>
-      <c r="AC64" s="252"/>
-      <c r="AD64" s="252"/>
-      <c r="AE64" s="252"/>
-      <c r="AF64" s="252"/>
-      <c r="AG64" s="252"/>
-      <c r="AH64" s="253"/>
+      <c r="V64" s="273" t="s">
+        <v>98</v>
+      </c>
+      <c r="W64" s="274"/>
+      <c r="X64" s="274"/>
+      <c r="Y64" s="274"/>
+      <c r="Z64" s="274"/>
+      <c r="AA64" s="274"/>
+      <c r="AB64" s="274"/>
+      <c r="AC64" s="274"/>
+      <c r="AD64" s="274"/>
+      <c r="AE64" s="274"/>
+      <c r="AF64" s="274"/>
+      <c r="AG64" s="274"/>
+      <c r="AH64" s="275"/>
       <c r="AK64" s="68"/>
       <c r="AL64" s="68"/>
       <c r="AM64" s="68"/>
@@ -13016,47 +13002,47 @@
     </row>
     <row r="65" spans="3:53" ht="12" x14ac:dyDescent="0.2">
       <c r="C65" s="130"/>
-      <c r="D65" s="250"/>
-      <c r="E65" s="254"/>
-      <c r="F65" s="255"/>
-      <c r="G65" s="255"/>
-      <c r="H65" s="255"/>
-      <c r="I65" s="255"/>
-      <c r="J65" s="256"/>
-      <c r="K65" s="254"/>
-      <c r="L65" s="255"/>
-      <c r="M65" s="255"/>
-      <c r="N65" s="256"/>
-      <c r="O65" s="269"/>
+      <c r="D65" s="272"/>
+      <c r="E65" s="276"/>
+      <c r="F65" s="277"/>
+      <c r="G65" s="277"/>
+      <c r="H65" s="277"/>
+      <c r="I65" s="277"/>
+      <c r="J65" s="278"/>
+      <c r="K65" s="276"/>
+      <c r="L65" s="277"/>
+      <c r="M65" s="277"/>
+      <c r="N65" s="278"/>
+      <c r="O65" s="291"/>
       <c r="P65" s="148" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q65" s="148" t="s">
         <v>148</v>
       </c>
-      <c r="Q65" s="148" t="s">
+      <c r="R65" s="148" t="s">
         <v>149</v>
       </c>
-      <c r="R65" s="148" t="s">
+      <c r="S65" s="148" t="s">
         <v>150</v>
       </c>
-      <c r="S65" s="148" t="s">
+      <c r="T65" s="292" t="s">
         <v>151</v>
       </c>
-      <c r="T65" s="270" t="s">
-        <v>152</v>
-      </c>
-      <c r="U65" s="271"/>
-      <c r="V65" s="254"/>
-      <c r="W65" s="255"/>
-      <c r="X65" s="255"/>
-      <c r="Y65" s="255"/>
-      <c r="Z65" s="255"/>
-      <c r="AA65" s="255"/>
-      <c r="AB65" s="255"/>
-      <c r="AC65" s="255"/>
-      <c r="AD65" s="255"/>
-      <c r="AE65" s="255"/>
-      <c r="AF65" s="255"/>
-      <c r="AG65" s="255"/>
-      <c r="AH65" s="256"/>
+      <c r="U65" s="293"/>
+      <c r="V65" s="276"/>
+      <c r="W65" s="277"/>
+      <c r="X65" s="277"/>
+      <c r="Y65" s="277"/>
+      <c r="Z65" s="277"/>
+      <c r="AA65" s="277"/>
+      <c r="AB65" s="277"/>
+      <c r="AC65" s="277"/>
+      <c r="AD65" s="277"/>
+      <c r="AE65" s="277"/>
+      <c r="AF65" s="277"/>
+      <c r="AG65" s="277"/>
+      <c r="AH65" s="278"/>
       <c r="AK65" s="68"/>
       <c r="AL65" s="68"/>
       <c r="AM65" s="68"/>
@@ -13076,25 +13062,25 @@
       <c r="D66" s="149">
         <v>1</v>
       </c>
-      <c r="E66" s="215" t="s">
-        <v>223</v>
-      </c>
-      <c r="F66" s="216"/>
-      <c r="G66" s="216"/>
-      <c r="H66" s="216"/>
-      <c r="I66" s="216"/>
-      <c r="J66" s="217"/>
-      <c r="K66" s="212" t="s">
-        <v>224</v>
-      </c>
-      <c r="L66" s="213"/>
-      <c r="M66" s="213"/>
-      <c r="N66" s="214"/>
+      <c r="E66" s="240" t="s">
+        <v>221</v>
+      </c>
+      <c r="F66" s="241"/>
+      <c r="G66" s="241"/>
+      <c r="H66" s="241"/>
+      <c r="I66" s="241"/>
+      <c r="J66" s="242"/>
+      <c r="K66" s="209" t="s">
+        <v>222</v>
+      </c>
+      <c r="L66" s="210"/>
+      <c r="M66" s="210"/>
+      <c r="N66" s="211"/>
       <c r="O66" s="178" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P66" s="151" t="s">
-        <v>28</v>
+        <v>263</v>
       </c>
       <c r="Q66" s="151" t="s">
         <v>27</v>
@@ -13105,25 +13091,25 @@
       <c r="S66" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="T66" s="218" t="s">
+      <c r="T66" s="309" t="s">
         <v>27</v>
       </c>
-      <c r="U66" s="219"/>
-      <c r="V66" s="212" t="s">
+      <c r="U66" s="310"/>
+      <c r="V66" s="209" t="s">
         <v>27</v>
       </c>
-      <c r="W66" s="213"/>
-      <c r="X66" s="213"/>
-      <c r="Y66" s="213"/>
-      <c r="Z66" s="213"/>
-      <c r="AA66" s="213"/>
-      <c r="AB66" s="213"/>
-      <c r="AC66" s="213"/>
-      <c r="AD66" s="213"/>
-      <c r="AE66" s="213"/>
-      <c r="AF66" s="213"/>
-      <c r="AG66" s="213"/>
-      <c r="AH66" s="214"/>
+      <c r="W66" s="210"/>
+      <c r="X66" s="210"/>
+      <c r="Y66" s="210"/>
+      <c r="Z66" s="210"/>
+      <c r="AA66" s="210"/>
+      <c r="AB66" s="210"/>
+      <c r="AC66" s="210"/>
+      <c r="AD66" s="210"/>
+      <c r="AE66" s="210"/>
+      <c r="AF66" s="210"/>
+      <c r="AG66" s="210"/>
+      <c r="AH66" s="211"/>
       <c r="AK66" s="68"/>
       <c r="AL66" s="68"/>
       <c r="AM66" s="68"/>
@@ -13143,28 +13129,28 @@
       <c r="D67" s="149">
         <v>2</v>
       </c>
-      <c r="E67" s="215" t="s">
-        <v>225</v>
-      </c>
-      <c r="F67" s="216"/>
-      <c r="G67" s="216"/>
-      <c r="H67" s="216"/>
-      <c r="I67" s="216"/>
-      <c r="J67" s="217"/>
-      <c r="K67" s="212" t="s">
-        <v>224</v>
-      </c>
-      <c r="L67" s="213"/>
-      <c r="M67" s="213"/>
-      <c r="N67" s="214"/>
+      <c r="E67" s="240" t="s">
+        <v>223</v>
+      </c>
+      <c r="F67" s="241"/>
+      <c r="G67" s="241"/>
+      <c r="H67" s="241"/>
+      <c r="I67" s="241"/>
+      <c r="J67" s="242"/>
+      <c r="K67" s="209" t="s">
+        <v>222</v>
+      </c>
+      <c r="L67" s="210"/>
+      <c r="M67" s="210"/>
+      <c r="N67" s="211"/>
       <c r="O67" s="150" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P67" s="151" t="s">
         <v>27</v>
       </c>
       <c r="Q67" s="151" t="s">
-        <v>28</v>
+        <v>263</v>
       </c>
       <c r="R67" s="151" t="s">
         <v>27</v>
@@ -13172,25 +13158,25 @@
       <c r="S67" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="T67" s="218" t="s">
+      <c r="T67" s="309" t="s">
         <v>27</v>
       </c>
-      <c r="U67" s="219"/>
-      <c r="V67" s="212" t="s">
+      <c r="U67" s="310"/>
+      <c r="V67" s="209" t="s">
         <v>27</v>
       </c>
-      <c r="W67" s="213"/>
-      <c r="X67" s="213"/>
-      <c r="Y67" s="213"/>
-      <c r="Z67" s="213"/>
-      <c r="AA67" s="213"/>
-      <c r="AB67" s="213"/>
-      <c r="AC67" s="213"/>
-      <c r="AD67" s="213"/>
-      <c r="AE67" s="213"/>
-      <c r="AF67" s="213"/>
-      <c r="AG67" s="213"/>
-      <c r="AH67" s="214"/>
+      <c r="W67" s="210"/>
+      <c r="X67" s="210"/>
+      <c r="Y67" s="210"/>
+      <c r="Z67" s="210"/>
+      <c r="AA67" s="210"/>
+      <c r="AB67" s="210"/>
+      <c r="AC67" s="210"/>
+      <c r="AD67" s="210"/>
+      <c r="AE67" s="210"/>
+      <c r="AF67" s="210"/>
+      <c r="AG67" s="210"/>
+      <c r="AH67" s="211"/>
       <c r="AK67" s="68"/>
       <c r="AL67" s="68"/>
       <c r="AM67" s="68"/>
@@ -13303,7 +13289,7 @@
     </row>
     <row r="70" spans="3:53" ht="12" x14ac:dyDescent="0.2">
       <c r="C70" s="130" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D70" s="130"/>
       <c r="E70" s="130"/>
@@ -13385,138 +13371,138 @@
       <c r="D72" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="E72" s="300" t="s">
+      <c r="E72" s="216" t="s">
+        <v>154</v>
+      </c>
+      <c r="F72" s="217"/>
+      <c r="G72" s="217"/>
+      <c r="H72" s="217"/>
+      <c r="I72" s="217"/>
+      <c r="J72" s="218"/>
+      <c r="K72" s="216" t="s">
+        <v>155</v>
+      </c>
+      <c r="L72" s="217"/>
+      <c r="M72" s="217"/>
+      <c r="N72" s="217"/>
+      <c r="O72" s="217"/>
+      <c r="P72" s="217"/>
+      <c r="Q72" s="219"/>
+      <c r="R72" s="200" t="s">
         <v>156</v>
       </c>
-      <c r="F72" s="257"/>
-      <c r="G72" s="257"/>
-      <c r="H72" s="257"/>
-      <c r="I72" s="257"/>
-      <c r="J72" s="301"/>
-      <c r="K72" s="300" t="s">
+      <c r="S72" s="217"/>
+      <c r="T72" s="217"/>
+      <c r="U72" s="217"/>
+      <c r="V72" s="217"/>
+      <c r="W72" s="217"/>
+      <c r="X72" s="217"/>
+      <c r="Y72" s="219"/>
+      <c r="Z72" s="287" t="s">
         <v>157</v>
       </c>
-      <c r="L72" s="257"/>
-      <c r="M72" s="257"/>
-      <c r="N72" s="257"/>
-      <c r="O72" s="257"/>
-      <c r="P72" s="257"/>
-      <c r="Q72" s="258"/>
-      <c r="R72" s="197" t="s">
+      <c r="AA72" s="288"/>
+      <c r="AB72" s="288"/>
+      <c r="AC72" s="288"/>
+      <c r="AD72" s="289"/>
+      <c r="AE72" s="284" t="s">
         <v>158</v>
       </c>
-      <c r="S72" s="257"/>
-      <c r="T72" s="257"/>
-      <c r="U72" s="257"/>
-      <c r="V72" s="257"/>
-      <c r="W72" s="257"/>
-      <c r="X72" s="257"/>
-      <c r="Y72" s="258"/>
-      <c r="Z72" s="245" t="s">
-        <v>159</v>
-      </c>
-      <c r="AA72" s="246"/>
-      <c r="AB72" s="246"/>
-      <c r="AC72" s="246"/>
-      <c r="AD72" s="247"/>
-      <c r="AE72" s="262" t="s">
-        <v>160</v>
-      </c>
-      <c r="AF72" s="263"/>
-      <c r="AG72" s="263"/>
-      <c r="AH72" s="264"/>
+      <c r="AF72" s="285"/>
+      <c r="AG72" s="285"/>
+      <c r="AH72" s="286"/>
     </row>
     <row r="73" spans="3:53" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C73" s="130"/>
       <c r="D73" s="137">
         <v>1</v>
       </c>
-      <c r="E73" s="212" t="s">
+      <c r="E73" s="209" t="s">
+        <v>224</v>
+      </c>
+      <c r="F73" s="210"/>
+      <c r="G73" s="210"/>
+      <c r="H73" s="210"/>
+      <c r="I73" s="210"/>
+      <c r="J73" s="211"/>
+      <c r="K73" s="209" t="s">
+        <v>225</v>
+      </c>
+      <c r="L73" s="210"/>
+      <c r="M73" s="210"/>
+      <c r="N73" s="210"/>
+      <c r="O73" s="210"/>
+      <c r="P73" s="210"/>
+      <c r="Q73" s="211"/>
+      <c r="R73" s="209" t="s">
         <v>226</v>
       </c>
-      <c r="F73" s="213"/>
-      <c r="G73" s="213"/>
-      <c r="H73" s="213"/>
-      <c r="I73" s="213"/>
-      <c r="J73" s="214"/>
-      <c r="K73" s="212" t="s">
-        <v>227</v>
-      </c>
-      <c r="L73" s="213"/>
-      <c r="M73" s="213"/>
-      <c r="N73" s="213"/>
-      <c r="O73" s="213"/>
-      <c r="P73" s="213"/>
-      <c r="Q73" s="214"/>
-      <c r="R73" s="212" t="s">
-        <v>228</v>
-      </c>
-      <c r="S73" s="213"/>
-      <c r="T73" s="213"/>
-      <c r="U73" s="213"/>
-      <c r="V73" s="213"/>
-      <c r="W73" s="213"/>
-      <c r="X73" s="213"/>
-      <c r="Y73" s="214"/>
-      <c r="Z73" s="212" t="s">
-        <v>233</v>
-      </c>
-      <c r="AA73" s="213"/>
-      <c r="AB73" s="213"/>
-      <c r="AC73" s="213"/>
-      <c r="AD73" s="214"/>
-      <c r="AE73" s="312" t="s">
-        <v>163</v>
-      </c>
-      <c r="AF73" s="313"/>
-      <c r="AG73" s="313"/>
-      <c r="AH73" s="314"/>
+      <c r="S73" s="210"/>
+      <c r="T73" s="210"/>
+      <c r="U73" s="210"/>
+      <c r="V73" s="210"/>
+      <c r="W73" s="210"/>
+      <c r="X73" s="210"/>
+      <c r="Y73" s="211"/>
+      <c r="Z73" s="209" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA73" s="210"/>
+      <c r="AB73" s="210"/>
+      <c r="AC73" s="210"/>
+      <c r="AD73" s="211"/>
+      <c r="AE73" s="322" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF73" s="323"/>
+      <c r="AG73" s="323"/>
+      <c r="AH73" s="324"/>
     </row>
     <row r="74" spans="3:53" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C74" s="130"/>
       <c r="D74" s="137">
         <v>2</v>
       </c>
-      <c r="E74" s="212" t="s">
+      <c r="E74" s="209" t="s">
+        <v>227</v>
+      </c>
+      <c r="F74" s="210"/>
+      <c r="G74" s="210"/>
+      <c r="H74" s="210"/>
+      <c r="I74" s="210"/>
+      <c r="J74" s="211"/>
+      <c r="K74" s="209" t="s">
+        <v>228</v>
+      </c>
+      <c r="L74" s="210"/>
+      <c r="M74" s="210"/>
+      <c r="N74" s="210"/>
+      <c r="O74" s="210"/>
+      <c r="P74" s="210"/>
+      <c r="Q74" s="211"/>
+      <c r="R74" s="209" t="s">
         <v>229</v>
       </c>
-      <c r="F74" s="213"/>
-      <c r="G74" s="213"/>
-      <c r="H74" s="213"/>
-      <c r="I74" s="213"/>
-      <c r="J74" s="214"/>
-      <c r="K74" s="212" t="s">
+      <c r="S74" s="210"/>
+      <c r="T74" s="210"/>
+      <c r="U74" s="210"/>
+      <c r="V74" s="210"/>
+      <c r="W74" s="210"/>
+      <c r="X74" s="210"/>
+      <c r="Y74" s="211"/>
+      <c r="Z74" s="209" t="s">
         <v>230</v>
       </c>
-      <c r="L74" s="213"/>
-      <c r="M74" s="213"/>
-      <c r="N74" s="213"/>
-      <c r="O74" s="213"/>
-      <c r="P74" s="213"/>
-      <c r="Q74" s="214"/>
-      <c r="R74" s="212" t="s">
-        <v>231</v>
-      </c>
-      <c r="S74" s="213"/>
-      <c r="T74" s="213"/>
-      <c r="U74" s="213"/>
-      <c r="V74" s="213"/>
-      <c r="W74" s="213"/>
-      <c r="X74" s="213"/>
-      <c r="Y74" s="214"/>
-      <c r="Z74" s="212" t="s">
-        <v>232</v>
-      </c>
-      <c r="AA74" s="213"/>
-      <c r="AB74" s="213"/>
-      <c r="AC74" s="213"/>
-      <c r="AD74" s="214"/>
-      <c r="AE74" s="312" t="s">
-        <v>163</v>
-      </c>
-      <c r="AF74" s="313"/>
-      <c r="AG74" s="313"/>
-      <c r="AH74" s="314"/>
+      <c r="AA74" s="210"/>
+      <c r="AB74" s="210"/>
+      <c r="AC74" s="210"/>
+      <c r="AD74" s="211"/>
+      <c r="AE74" s="322" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF74" s="323"/>
+      <c r="AG74" s="323"/>
+      <c r="AH74" s="324"/>
     </row>
     <row r="75" spans="3:53" x14ac:dyDescent="0.15">
       <c r="D75" s="82"/>
@@ -13586,7 +13572,7 @@
     </row>
     <row r="77" spans="3:53" ht="12" x14ac:dyDescent="0.2">
       <c r="C77" s="130" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D77" s="130"/>
       <c r="E77" s="130"/>
@@ -13623,7 +13609,7 @@
     <row r="78" spans="3:53" ht="12" x14ac:dyDescent="0.2">
       <c r="C78" s="130"/>
       <c r="D78" s="130" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E78" s="130"/>
       <c r="F78" s="130"/>
@@ -13660,7 +13646,7 @@
       <c r="C79" s="130"/>
       <c r="D79" s="130"/>
       <c r="E79" s="133" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F79" s="133"/>
       <c r="G79" s="130"/>
@@ -13732,7 +13718,7 @@
       <c r="E81" s="130"/>
       <c r="F81" s="130"/>
       <c r="G81" s="130" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H81" s="130"/>
       <c r="I81" s="130"/>
@@ -13834,7 +13820,7 @@
       <c r="C84" s="130"/>
       <c r="D84" s="130"/>
       <c r="E84" s="130" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F84" s="130"/>
       <c r="G84" s="130"/>
@@ -13905,7 +13891,7 @@
       <c r="D86" s="130"/>
       <c r="E86" s="130"/>
       <c r="F86" s="130" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G86" s="130"/>
       <c r="H86" s="130"/>
@@ -13975,7 +13961,7 @@
       <c r="D88" s="130"/>
       <c r="E88" s="130"/>
       <c r="F88" s="130" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G88" s="130"/>
       <c r="H88" s="130"/>
@@ -14045,82 +14031,82 @@
       <c r="D90" s="130"/>
       <c r="E90" s="130"/>
       <c r="F90" s="130"/>
-      <c r="G90" s="242" t="s">
+      <c r="G90" s="294" t="s">
         <v>0</v>
       </c>
-      <c r="H90" s="188" t="s">
-        <v>238</v>
-      </c>
-      <c r="I90" s="189"/>
-      <c r="J90" s="189"/>
-      <c r="K90" s="189"/>
-      <c r="L90" s="189"/>
-      <c r="M90" s="190"/>
-      <c r="N90" s="276" t="s">
-        <v>239</v>
-      </c>
-      <c r="O90" s="277"/>
-      <c r="P90" s="277"/>
-      <c r="Q90" s="277"/>
-      <c r="R90" s="277"/>
-      <c r="S90" s="277"/>
-      <c r="T90" s="277"/>
-      <c r="U90" s="277"/>
-      <c r="V90" s="277"/>
-      <c r="W90" s="277"/>
-      <c r="X90" s="278"/>
-      <c r="Y90" s="188" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z90" s="189"/>
-      <c r="AA90" s="189"/>
-      <c r="AB90" s="189"/>
-      <c r="AC90" s="189"/>
-      <c r="AD90" s="190"/>
-      <c r="AE90" s="188" t="s">
-        <v>99</v>
-      </c>
-      <c r="AF90" s="189"/>
-      <c r="AG90" s="189"/>
-      <c r="AH90" s="190"/>
+      <c r="H90" s="191" t="s">
+        <v>236</v>
+      </c>
+      <c r="I90" s="192"/>
+      <c r="J90" s="192"/>
+      <c r="K90" s="192"/>
+      <c r="L90" s="192"/>
+      <c r="M90" s="193"/>
+      <c r="N90" s="252" t="s">
+        <v>237</v>
+      </c>
+      <c r="O90" s="253"/>
+      <c r="P90" s="253"/>
+      <c r="Q90" s="253"/>
+      <c r="R90" s="253"/>
+      <c r="S90" s="253"/>
+      <c r="T90" s="253"/>
+      <c r="U90" s="253"/>
+      <c r="V90" s="253"/>
+      <c r="W90" s="253"/>
+      <c r="X90" s="254"/>
+      <c r="Y90" s="191" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z90" s="192"/>
+      <c r="AA90" s="192"/>
+      <c r="AB90" s="192"/>
+      <c r="AC90" s="192"/>
+      <c r="AD90" s="193"/>
+      <c r="AE90" s="191" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF90" s="192"/>
+      <c r="AG90" s="192"/>
+      <c r="AH90" s="193"/>
     </row>
     <row r="91" spans="3:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C91" s="130"/>
       <c r="D91" s="130"/>
       <c r="E91" s="130"/>
       <c r="F91" s="130"/>
-      <c r="G91" s="244"/>
-      <c r="H91" s="194"/>
-      <c r="I91" s="195"/>
-      <c r="J91" s="195"/>
-      <c r="K91" s="195"/>
-      <c r="L91" s="195"/>
-      <c r="M91" s="196"/>
-      <c r="N91" s="276" t="s">
-        <v>104</v>
-      </c>
-      <c r="O91" s="277"/>
-      <c r="P91" s="277"/>
-      <c r="Q91" s="277"/>
-      <c r="R91" s="278"/>
-      <c r="S91" s="203" t="s">
-        <v>240</v>
-      </c>
-      <c r="T91" s="204"/>
-      <c r="U91" s="204"/>
-      <c r="V91" s="204"/>
-      <c r="W91" s="204"/>
-      <c r="X91" s="205"/>
-      <c r="Y91" s="194"/>
-      <c r="Z91" s="195"/>
-      <c r="AA91" s="195"/>
-      <c r="AB91" s="195"/>
-      <c r="AC91" s="195"/>
-      <c r="AD91" s="196"/>
-      <c r="AE91" s="194"/>
-      <c r="AF91" s="195"/>
-      <c r="AG91" s="195"/>
-      <c r="AH91" s="196"/>
+      <c r="G91" s="296"/>
+      <c r="H91" s="197"/>
+      <c r="I91" s="198"/>
+      <c r="J91" s="198"/>
+      <c r="K91" s="198"/>
+      <c r="L91" s="198"/>
+      <c r="M91" s="199"/>
+      <c r="N91" s="252" t="s">
+        <v>103</v>
+      </c>
+      <c r="O91" s="253"/>
+      <c r="P91" s="253"/>
+      <c r="Q91" s="253"/>
+      <c r="R91" s="254"/>
+      <c r="S91" s="249" t="s">
+        <v>238</v>
+      </c>
+      <c r="T91" s="250"/>
+      <c r="U91" s="250"/>
+      <c r="V91" s="250"/>
+      <c r="W91" s="250"/>
+      <c r="X91" s="251"/>
+      <c r="Y91" s="197"/>
+      <c r="Z91" s="198"/>
+      <c r="AA91" s="198"/>
+      <c r="AB91" s="198"/>
+      <c r="AC91" s="198"/>
+      <c r="AD91" s="199"/>
+      <c r="AE91" s="197"/>
+      <c r="AF91" s="198"/>
+      <c r="AG91" s="198"/>
+      <c r="AH91" s="199"/>
     </row>
     <row r="92" spans="3:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C92" s="130"/>
@@ -14130,41 +14116,41 @@
       <c r="G92" s="137">
         <v>1</v>
       </c>
-      <c r="H92" s="303" t="s">
-        <v>241</v>
-      </c>
-      <c r="I92" s="304"/>
-      <c r="J92" s="304"/>
-      <c r="K92" s="304"/>
-      <c r="L92" s="304"/>
-      <c r="M92" s="305"/>
+      <c r="H92" s="313" t="s">
+        <v>239</v>
+      </c>
+      <c r="I92" s="314"/>
+      <c r="J92" s="314"/>
+      <c r="K92" s="314"/>
+      <c r="L92" s="314"/>
+      <c r="M92" s="315"/>
       <c r="N92" s="180" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O92" s="181"/>
       <c r="P92" s="181"/>
       <c r="Q92" s="181"/>
       <c r="R92" s="182"/>
-      <c r="S92" s="303" t="s">
-        <v>243</v>
-      </c>
-      <c r="T92" s="304"/>
-      <c r="U92" s="304"/>
-      <c r="V92" s="304"/>
-      <c r="W92" s="304"/>
-      <c r="X92" s="305"/>
-      <c r="Y92" s="212" t="s">
+      <c r="S92" s="313" t="s">
+        <v>241</v>
+      </c>
+      <c r="T92" s="314"/>
+      <c r="U92" s="314"/>
+      <c r="V92" s="314"/>
+      <c r="W92" s="314"/>
+      <c r="X92" s="315"/>
+      <c r="Y92" s="209" t="s">
         <v>27</v>
       </c>
-      <c r="Z92" s="213"/>
-      <c r="AA92" s="213"/>
-      <c r="AB92" s="213"/>
-      <c r="AC92" s="213"/>
-      <c r="AD92" s="214"/>
-      <c r="AE92" s="212"/>
-      <c r="AF92" s="213"/>
-      <c r="AG92" s="213"/>
-      <c r="AH92" s="214"/>
+      <c r="Z92" s="210"/>
+      <c r="AA92" s="210"/>
+      <c r="AB92" s="210"/>
+      <c r="AC92" s="210"/>
+      <c r="AD92" s="211"/>
+      <c r="AE92" s="209"/>
+      <c r="AF92" s="210"/>
+      <c r="AG92" s="210"/>
+      <c r="AH92" s="211"/>
     </row>
     <row r="93" spans="3:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C93" s="130"/>
@@ -14174,41 +14160,41 @@
       <c r="G93" s="137">
         <v>2</v>
       </c>
-      <c r="H93" s="303" t="s">
-        <v>244</v>
-      </c>
-      <c r="I93" s="304"/>
-      <c r="J93" s="304"/>
-      <c r="K93" s="304"/>
-      <c r="L93" s="304"/>
-      <c r="M93" s="305"/>
-      <c r="N93" s="315" t="s">
-        <v>245</v>
-      </c>
-      <c r="O93" s="316"/>
-      <c r="P93" s="316"/>
-      <c r="Q93" s="316"/>
-      <c r="R93" s="317"/>
-      <c r="S93" s="303" t="s">
-        <v>110</v>
-      </c>
-      <c r="T93" s="304"/>
-      <c r="U93" s="304"/>
-      <c r="V93" s="304"/>
-      <c r="W93" s="304"/>
-      <c r="X93" s="305"/>
-      <c r="Y93" s="212" t="s">
+      <c r="H93" s="313" t="s">
+        <v>242</v>
+      </c>
+      <c r="I93" s="314"/>
+      <c r="J93" s="314"/>
+      <c r="K93" s="314"/>
+      <c r="L93" s="314"/>
+      <c r="M93" s="315"/>
+      <c r="N93" s="316" t="s">
+        <v>243</v>
+      </c>
+      <c r="O93" s="317"/>
+      <c r="P93" s="317"/>
+      <c r="Q93" s="317"/>
+      <c r="R93" s="318"/>
+      <c r="S93" s="313" t="s">
+        <v>109</v>
+      </c>
+      <c r="T93" s="314"/>
+      <c r="U93" s="314"/>
+      <c r="V93" s="314"/>
+      <c r="W93" s="314"/>
+      <c r="X93" s="315"/>
+      <c r="Y93" s="209" t="s">
         <v>27</v>
       </c>
-      <c r="Z93" s="213"/>
-      <c r="AA93" s="213"/>
-      <c r="AB93" s="213"/>
-      <c r="AC93" s="213"/>
-      <c r="AD93" s="214"/>
-      <c r="AE93" s="212"/>
-      <c r="AF93" s="213"/>
-      <c r="AG93" s="213"/>
-      <c r="AH93" s="214"/>
+      <c r="Z93" s="210"/>
+      <c r="AA93" s="210"/>
+      <c r="AB93" s="210"/>
+      <c r="AC93" s="210"/>
+      <c r="AD93" s="211"/>
+      <c r="AE93" s="209"/>
+      <c r="AF93" s="210"/>
+      <c r="AG93" s="210"/>
+      <c r="AH93" s="211"/>
     </row>
     <row r="94" spans="3:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C94" s="130"/>
@@ -14218,39 +14204,39 @@
       <c r="G94" s="137">
         <v>3</v>
       </c>
-      <c r="H94" s="303" t="s">
-        <v>246</v>
-      </c>
-      <c r="I94" s="304"/>
-      <c r="J94" s="304"/>
-      <c r="K94" s="304"/>
-      <c r="L94" s="304"/>
-      <c r="M94" s="305"/>
-      <c r="N94" s="318"/>
-      <c r="O94" s="319"/>
-      <c r="P94" s="319"/>
-      <c r="Q94" s="319"/>
-      <c r="R94" s="320"/>
-      <c r="S94" s="303" t="s">
-        <v>111</v>
-      </c>
-      <c r="T94" s="304"/>
-      <c r="U94" s="304"/>
-      <c r="V94" s="304"/>
-      <c r="W94" s="304"/>
-      <c r="X94" s="305"/>
-      <c r="Y94" s="212" t="s">
+      <c r="H94" s="313" t="s">
+        <v>244</v>
+      </c>
+      <c r="I94" s="314"/>
+      <c r="J94" s="314"/>
+      <c r="K94" s="314"/>
+      <c r="L94" s="314"/>
+      <c r="M94" s="315"/>
+      <c r="N94" s="319"/>
+      <c r="O94" s="320"/>
+      <c r="P94" s="320"/>
+      <c r="Q94" s="320"/>
+      <c r="R94" s="321"/>
+      <c r="S94" s="313" t="s">
+        <v>110</v>
+      </c>
+      <c r="T94" s="314"/>
+      <c r="U94" s="314"/>
+      <c r="V94" s="314"/>
+      <c r="W94" s="314"/>
+      <c r="X94" s="315"/>
+      <c r="Y94" s="209" t="s">
         <v>27</v>
       </c>
-      <c r="Z94" s="213"/>
-      <c r="AA94" s="213"/>
-      <c r="AB94" s="213"/>
-      <c r="AC94" s="213"/>
-      <c r="AD94" s="214"/>
-      <c r="AE94" s="212"/>
-      <c r="AF94" s="213"/>
-      <c r="AG94" s="213"/>
-      <c r="AH94" s="214"/>
+      <c r="Z94" s="210"/>
+      <c r="AA94" s="210"/>
+      <c r="AB94" s="210"/>
+      <c r="AC94" s="210"/>
+      <c r="AD94" s="211"/>
+      <c r="AE94" s="209"/>
+      <c r="AF94" s="210"/>
+      <c r="AG94" s="210"/>
+      <c r="AH94" s="211"/>
     </row>
     <row r="95" spans="3:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C95" s="130"/>
@@ -14260,39 +14246,39 @@
       <c r="G95" s="137">
         <v>4</v>
       </c>
-      <c r="H95" s="303" t="s">
-        <v>247</v>
-      </c>
-      <c r="I95" s="304"/>
-      <c r="J95" s="304"/>
-      <c r="K95" s="304"/>
-      <c r="L95" s="304"/>
-      <c r="M95" s="305"/>
-      <c r="N95" s="318"/>
-      <c r="O95" s="319"/>
-      <c r="P95" s="319"/>
-      <c r="Q95" s="319"/>
-      <c r="R95" s="320"/>
-      <c r="S95" s="303" t="s">
-        <v>112</v>
-      </c>
-      <c r="T95" s="304"/>
-      <c r="U95" s="304"/>
-      <c r="V95" s="304"/>
-      <c r="W95" s="304"/>
-      <c r="X95" s="305"/>
-      <c r="Y95" s="212" t="s">
+      <c r="H95" s="313" t="s">
+        <v>245</v>
+      </c>
+      <c r="I95" s="314"/>
+      <c r="J95" s="314"/>
+      <c r="K95" s="314"/>
+      <c r="L95" s="314"/>
+      <c r="M95" s="315"/>
+      <c r="N95" s="319"/>
+      <c r="O95" s="320"/>
+      <c r="P95" s="320"/>
+      <c r="Q95" s="320"/>
+      <c r="R95" s="321"/>
+      <c r="S95" s="313" t="s">
+        <v>111</v>
+      </c>
+      <c r="T95" s="314"/>
+      <c r="U95" s="314"/>
+      <c r="V95" s="314"/>
+      <c r="W95" s="314"/>
+      <c r="X95" s="315"/>
+      <c r="Y95" s="209" t="s">
         <v>27</v>
       </c>
-      <c r="Z95" s="213"/>
-      <c r="AA95" s="213"/>
-      <c r="AB95" s="213"/>
-      <c r="AC95" s="213"/>
-      <c r="AD95" s="214"/>
-      <c r="AE95" s="212"/>
-      <c r="AF95" s="213"/>
-      <c r="AG95" s="213"/>
-      <c r="AH95" s="214"/>
+      <c r="Z95" s="210"/>
+      <c r="AA95" s="210"/>
+      <c r="AB95" s="210"/>
+      <c r="AC95" s="210"/>
+      <c r="AD95" s="211"/>
+      <c r="AE95" s="209"/>
+      <c r="AF95" s="210"/>
+      <c r="AG95" s="210"/>
+      <c r="AH95" s="211"/>
     </row>
     <row r="96" spans="3:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C96" s="130"/>
@@ -14302,39 +14288,39 @@
       <c r="G96" s="137">
         <v>5</v>
       </c>
-      <c r="H96" s="303" t="s">
-        <v>248</v>
-      </c>
-      <c r="I96" s="304"/>
-      <c r="J96" s="304"/>
-      <c r="K96" s="304"/>
-      <c r="L96" s="304"/>
-      <c r="M96" s="305"/>
-      <c r="N96" s="318"/>
-      <c r="O96" s="319"/>
-      <c r="P96" s="319"/>
-      <c r="Q96" s="319"/>
-      <c r="R96" s="320"/>
-      <c r="S96" s="303" t="s">
-        <v>117</v>
-      </c>
-      <c r="T96" s="304"/>
-      <c r="U96" s="304"/>
-      <c r="V96" s="304"/>
-      <c r="W96" s="304"/>
-      <c r="X96" s="305"/>
-      <c r="Y96" s="212" t="s">
+      <c r="H96" s="313" t="s">
+        <v>246</v>
+      </c>
+      <c r="I96" s="314"/>
+      <c r="J96" s="314"/>
+      <c r="K96" s="314"/>
+      <c r="L96" s="314"/>
+      <c r="M96" s="315"/>
+      <c r="N96" s="319"/>
+      <c r="O96" s="320"/>
+      <c r="P96" s="320"/>
+      <c r="Q96" s="320"/>
+      <c r="R96" s="321"/>
+      <c r="S96" s="313" t="s">
+        <v>116</v>
+      </c>
+      <c r="T96" s="314"/>
+      <c r="U96" s="314"/>
+      <c r="V96" s="314"/>
+      <c r="W96" s="314"/>
+      <c r="X96" s="315"/>
+      <c r="Y96" s="209" t="s">
         <v>27</v>
       </c>
-      <c r="Z96" s="213"/>
-      <c r="AA96" s="213"/>
-      <c r="AB96" s="213"/>
-      <c r="AC96" s="213"/>
-      <c r="AD96" s="214"/>
-      <c r="AE96" s="212"/>
-      <c r="AF96" s="213"/>
-      <c r="AG96" s="213"/>
-      <c r="AH96" s="214"/>
+      <c r="Z96" s="210"/>
+      <c r="AA96" s="210"/>
+      <c r="AB96" s="210"/>
+      <c r="AC96" s="210"/>
+      <c r="AD96" s="211"/>
+      <c r="AE96" s="209"/>
+      <c r="AF96" s="210"/>
+      <c r="AG96" s="210"/>
+      <c r="AH96" s="211"/>
     </row>
     <row r="97" spans="3:37" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C97" s="130"/>
@@ -14344,39 +14330,39 @@
       <c r="G97" s="137">
         <v>6</v>
       </c>
-      <c r="H97" s="303" t="s">
-        <v>249</v>
-      </c>
-      <c r="I97" s="304"/>
-      <c r="J97" s="304"/>
-      <c r="K97" s="304"/>
-      <c r="L97" s="304"/>
-      <c r="M97" s="305"/>
-      <c r="N97" s="318"/>
-      <c r="O97" s="319"/>
-      <c r="P97" s="319"/>
-      <c r="Q97" s="319"/>
-      <c r="R97" s="320"/>
-      <c r="S97" s="303" t="s">
-        <v>118</v>
-      </c>
-      <c r="T97" s="304"/>
-      <c r="U97" s="304"/>
-      <c r="V97" s="304"/>
-      <c r="W97" s="304"/>
-      <c r="X97" s="305"/>
-      <c r="Y97" s="212" t="s">
+      <c r="H97" s="313" t="s">
+        <v>247</v>
+      </c>
+      <c r="I97" s="314"/>
+      <c r="J97" s="314"/>
+      <c r="K97" s="314"/>
+      <c r="L97" s="314"/>
+      <c r="M97" s="315"/>
+      <c r="N97" s="319"/>
+      <c r="O97" s="320"/>
+      <c r="P97" s="320"/>
+      <c r="Q97" s="320"/>
+      <c r="R97" s="321"/>
+      <c r="S97" s="313" t="s">
+        <v>117</v>
+      </c>
+      <c r="T97" s="314"/>
+      <c r="U97" s="314"/>
+      <c r="V97" s="314"/>
+      <c r="W97" s="314"/>
+      <c r="X97" s="315"/>
+      <c r="Y97" s="209" t="s">
         <v>27</v>
       </c>
-      <c r="Z97" s="213"/>
-      <c r="AA97" s="213"/>
-      <c r="AB97" s="213"/>
-      <c r="AC97" s="213"/>
-      <c r="AD97" s="214"/>
-      <c r="AE97" s="212"/>
-      <c r="AF97" s="213"/>
-      <c r="AG97" s="213"/>
-      <c r="AH97" s="214"/>
+      <c r="Z97" s="210"/>
+      <c r="AA97" s="210"/>
+      <c r="AB97" s="210"/>
+      <c r="AC97" s="210"/>
+      <c r="AD97" s="211"/>
+      <c r="AE97" s="209"/>
+      <c r="AF97" s="210"/>
+      <c r="AG97" s="210"/>
+      <c r="AH97" s="211"/>
     </row>
     <row r="98" spans="3:37" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C98" s="130"/>
@@ -14386,39 +14372,39 @@
       <c r="G98" s="137">
         <v>7</v>
       </c>
-      <c r="H98" s="303" t="s">
-        <v>188</v>
-      </c>
-      <c r="I98" s="304"/>
-      <c r="J98" s="304"/>
-      <c r="K98" s="304"/>
-      <c r="L98" s="304"/>
-      <c r="M98" s="305"/>
-      <c r="N98" s="318"/>
-      <c r="O98" s="319"/>
-      <c r="P98" s="319"/>
-      <c r="Q98" s="319"/>
-      <c r="R98" s="320"/>
-      <c r="S98" s="303" t="s">
-        <v>109</v>
-      </c>
-      <c r="T98" s="304"/>
-      <c r="U98" s="304"/>
-      <c r="V98" s="304"/>
-      <c r="W98" s="304"/>
-      <c r="X98" s="305"/>
-      <c r="Y98" s="212" t="s">
+      <c r="H98" s="313" t="s">
+        <v>186</v>
+      </c>
+      <c r="I98" s="314"/>
+      <c r="J98" s="314"/>
+      <c r="K98" s="314"/>
+      <c r="L98" s="314"/>
+      <c r="M98" s="315"/>
+      <c r="N98" s="319"/>
+      <c r="O98" s="320"/>
+      <c r="P98" s="320"/>
+      <c r="Q98" s="320"/>
+      <c r="R98" s="321"/>
+      <c r="S98" s="313" t="s">
+        <v>108</v>
+      </c>
+      <c r="T98" s="314"/>
+      <c r="U98" s="314"/>
+      <c r="V98" s="314"/>
+      <c r="W98" s="314"/>
+      <c r="X98" s="315"/>
+      <c r="Y98" s="209" t="s">
         <v>27</v>
       </c>
-      <c r="Z98" s="213"/>
-      <c r="AA98" s="213"/>
-      <c r="AB98" s="213"/>
-      <c r="AC98" s="213"/>
-      <c r="AD98" s="214"/>
-      <c r="AE98" s="212"/>
-      <c r="AF98" s="213"/>
-      <c r="AG98" s="213"/>
-      <c r="AH98" s="214"/>
+      <c r="Z98" s="210"/>
+      <c r="AA98" s="210"/>
+      <c r="AB98" s="210"/>
+      <c r="AC98" s="210"/>
+      <c r="AD98" s="211"/>
+      <c r="AE98" s="209"/>
+      <c r="AF98" s="210"/>
+      <c r="AG98" s="210"/>
+      <c r="AH98" s="211"/>
     </row>
     <row r="99" spans="3:37" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C99" s="130"/>
@@ -14428,39 +14414,39 @@
       <c r="G99" s="137">
         <v>8</v>
       </c>
-      <c r="H99" s="303" t="s">
-        <v>250</v>
-      </c>
-      <c r="I99" s="304"/>
-      <c r="J99" s="304"/>
-      <c r="K99" s="304"/>
-      <c r="L99" s="304"/>
-      <c r="M99" s="305"/>
-      <c r="N99" s="318"/>
-      <c r="O99" s="319"/>
-      <c r="P99" s="319"/>
-      <c r="Q99" s="319"/>
-      <c r="R99" s="320"/>
-      <c r="S99" s="303" t="s">
-        <v>114</v>
-      </c>
-      <c r="T99" s="304"/>
-      <c r="U99" s="304"/>
-      <c r="V99" s="304"/>
-      <c r="W99" s="304"/>
-      <c r="X99" s="305"/>
-      <c r="Y99" s="212" t="s">
+      <c r="H99" s="313" t="s">
+        <v>248</v>
+      </c>
+      <c r="I99" s="314"/>
+      <c r="J99" s="314"/>
+      <c r="K99" s="314"/>
+      <c r="L99" s="314"/>
+      <c r="M99" s="315"/>
+      <c r="N99" s="319"/>
+      <c r="O99" s="320"/>
+      <c r="P99" s="320"/>
+      <c r="Q99" s="320"/>
+      <c r="R99" s="321"/>
+      <c r="S99" s="313" t="s">
+        <v>113</v>
+      </c>
+      <c r="T99" s="314"/>
+      <c r="U99" s="314"/>
+      <c r="V99" s="314"/>
+      <c r="W99" s="314"/>
+      <c r="X99" s="315"/>
+      <c r="Y99" s="209" t="s">
         <v>27</v>
       </c>
-      <c r="Z99" s="213"/>
-      <c r="AA99" s="213"/>
-      <c r="AB99" s="213"/>
-      <c r="AC99" s="213"/>
-      <c r="AD99" s="214"/>
-      <c r="AE99" s="212"/>
-      <c r="AF99" s="213"/>
-      <c r="AG99" s="213"/>
-      <c r="AH99" s="214"/>
+      <c r="Z99" s="210"/>
+      <c r="AA99" s="210"/>
+      <c r="AB99" s="210"/>
+      <c r="AC99" s="210"/>
+      <c r="AD99" s="211"/>
+      <c r="AE99" s="209"/>
+      <c r="AF99" s="210"/>
+      <c r="AG99" s="210"/>
+      <c r="AH99" s="211"/>
     </row>
     <row r="100" spans="3:37" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C100" s="130"/>
@@ -14470,39 +14456,39 @@
       <c r="G100" s="137">
         <v>9</v>
       </c>
-      <c r="H100" s="303" t="s">
-        <v>251</v>
-      </c>
-      <c r="I100" s="304"/>
-      <c r="J100" s="304"/>
-      <c r="K100" s="304"/>
-      <c r="L100" s="304"/>
-      <c r="M100" s="305"/>
-      <c r="N100" s="318"/>
-      <c r="O100" s="319"/>
-      <c r="P100" s="319"/>
-      <c r="Q100" s="319"/>
-      <c r="R100" s="320"/>
-      <c r="S100" s="303" t="s">
-        <v>115</v>
-      </c>
-      <c r="T100" s="304"/>
-      <c r="U100" s="304"/>
-      <c r="V100" s="304"/>
-      <c r="W100" s="304"/>
-      <c r="X100" s="305"/>
-      <c r="Y100" s="212" t="s">
+      <c r="H100" s="313" t="s">
+        <v>249</v>
+      </c>
+      <c r="I100" s="314"/>
+      <c r="J100" s="314"/>
+      <c r="K100" s="314"/>
+      <c r="L100" s="314"/>
+      <c r="M100" s="315"/>
+      <c r="N100" s="319"/>
+      <c r="O100" s="320"/>
+      <c r="P100" s="320"/>
+      <c r="Q100" s="320"/>
+      <c r="R100" s="321"/>
+      <c r="S100" s="313" t="s">
+        <v>114</v>
+      </c>
+      <c r="T100" s="314"/>
+      <c r="U100" s="314"/>
+      <c r="V100" s="314"/>
+      <c r="W100" s="314"/>
+      <c r="X100" s="315"/>
+      <c r="Y100" s="209" t="s">
         <v>27</v>
       </c>
-      <c r="Z100" s="213"/>
-      <c r="AA100" s="213"/>
-      <c r="AB100" s="213"/>
-      <c r="AC100" s="213"/>
-      <c r="AD100" s="214"/>
-      <c r="AE100" s="212"/>
-      <c r="AF100" s="213"/>
-      <c r="AG100" s="213"/>
-      <c r="AH100" s="214"/>
+      <c r="Z100" s="210"/>
+      <c r="AA100" s="210"/>
+      <c r="AB100" s="210"/>
+      <c r="AC100" s="210"/>
+      <c r="AD100" s="211"/>
+      <c r="AE100" s="209"/>
+      <c r="AF100" s="210"/>
+      <c r="AG100" s="210"/>
+      <c r="AH100" s="211"/>
     </row>
     <row r="101" spans="3:37" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C101" s="130"/>
@@ -14512,39 +14498,39 @@
       <c r="G101" s="137">
         <v>10</v>
       </c>
-      <c r="H101" s="303" t="s">
-        <v>252</v>
-      </c>
-      <c r="I101" s="304"/>
-      <c r="J101" s="304"/>
-      <c r="K101" s="304"/>
-      <c r="L101" s="304"/>
-      <c r="M101" s="305"/>
-      <c r="N101" s="318"/>
-      <c r="O101" s="319"/>
-      <c r="P101" s="319"/>
-      <c r="Q101" s="319"/>
-      <c r="R101" s="320"/>
-      <c r="S101" s="303" t="s">
-        <v>116</v>
-      </c>
-      <c r="T101" s="304"/>
-      <c r="U101" s="304"/>
-      <c r="V101" s="304"/>
-      <c r="W101" s="304"/>
-      <c r="X101" s="305"/>
-      <c r="Y101" s="212" t="s">
+      <c r="H101" s="313" t="s">
+        <v>250</v>
+      </c>
+      <c r="I101" s="314"/>
+      <c r="J101" s="314"/>
+      <c r="K101" s="314"/>
+      <c r="L101" s="314"/>
+      <c r="M101" s="315"/>
+      <c r="N101" s="319"/>
+      <c r="O101" s="320"/>
+      <c r="P101" s="320"/>
+      <c r="Q101" s="320"/>
+      <c r="R101" s="321"/>
+      <c r="S101" s="313" t="s">
+        <v>115</v>
+      </c>
+      <c r="T101" s="314"/>
+      <c r="U101" s="314"/>
+      <c r="V101" s="314"/>
+      <c r="W101" s="314"/>
+      <c r="X101" s="315"/>
+      <c r="Y101" s="209" t="s">
         <v>27</v>
       </c>
-      <c r="Z101" s="213"/>
-      <c r="AA101" s="213"/>
-      <c r="AB101" s="213"/>
-      <c r="AC101" s="213"/>
-      <c r="AD101" s="214"/>
-      <c r="AE101" s="212"/>
-      <c r="AF101" s="213"/>
-      <c r="AG101" s="213"/>
-      <c r="AH101" s="214"/>
+      <c r="Z101" s="210"/>
+      <c r="AA101" s="210"/>
+      <c r="AB101" s="210"/>
+      <c r="AC101" s="210"/>
+      <c r="AD101" s="211"/>
+      <c r="AE101" s="209"/>
+      <c r="AF101" s="210"/>
+      <c r="AG101" s="210"/>
+      <c r="AH101" s="211"/>
     </row>
     <row r="102" spans="3:37" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C102" s="130"/>
@@ -14554,39 +14540,39 @@
       <c r="G102" s="137">
         <v>11</v>
       </c>
-      <c r="H102" s="303" t="s">
-        <v>253</v>
-      </c>
-      <c r="I102" s="304"/>
-      <c r="J102" s="304"/>
-      <c r="K102" s="304"/>
-      <c r="L102" s="304"/>
-      <c r="M102" s="305"/>
-      <c r="N102" s="318"/>
-      <c r="O102" s="319"/>
-      <c r="P102" s="319"/>
-      <c r="Q102" s="319"/>
-      <c r="R102" s="320"/>
-      <c r="S102" s="303" t="s">
-        <v>99</v>
-      </c>
-      <c r="T102" s="304"/>
-      <c r="U102" s="304"/>
-      <c r="V102" s="304"/>
-      <c r="W102" s="304"/>
-      <c r="X102" s="305"/>
-      <c r="Y102" s="212" t="s">
+      <c r="H102" s="313" t="s">
+        <v>251</v>
+      </c>
+      <c r="I102" s="314"/>
+      <c r="J102" s="314"/>
+      <c r="K102" s="314"/>
+      <c r="L102" s="314"/>
+      <c r="M102" s="315"/>
+      <c r="N102" s="319"/>
+      <c r="O102" s="320"/>
+      <c r="P102" s="320"/>
+      <c r="Q102" s="320"/>
+      <c r="R102" s="321"/>
+      <c r="S102" s="313" t="s">
+        <v>98</v>
+      </c>
+      <c r="T102" s="314"/>
+      <c r="U102" s="314"/>
+      <c r="V102" s="314"/>
+      <c r="W102" s="314"/>
+      <c r="X102" s="315"/>
+      <c r="Y102" s="209" t="s">
         <v>27</v>
       </c>
-      <c r="Z102" s="213"/>
-      <c r="AA102" s="213"/>
-      <c r="AB102" s="213"/>
-      <c r="AC102" s="213"/>
-      <c r="AD102" s="214"/>
-      <c r="AE102" s="212"/>
-      <c r="AF102" s="213"/>
-      <c r="AG102" s="213"/>
-      <c r="AH102" s="214"/>
+      <c r="Z102" s="210"/>
+      <c r="AA102" s="210"/>
+      <c r="AB102" s="210"/>
+      <c r="AC102" s="210"/>
+      <c r="AD102" s="211"/>
+      <c r="AE102" s="209"/>
+      <c r="AF102" s="210"/>
+      <c r="AG102" s="210"/>
+      <c r="AH102" s="211"/>
     </row>
     <row r="103" spans="3:37" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C103" s="130"/>
@@ -14596,39 +14582,39 @@
       <c r="G103" s="137">
         <v>12</v>
       </c>
-      <c r="H103" s="303" t="s">
-        <v>254</v>
-      </c>
-      <c r="I103" s="304"/>
-      <c r="J103" s="304"/>
-      <c r="K103" s="304"/>
-      <c r="L103" s="304"/>
-      <c r="M103" s="305"/>
-      <c r="N103" s="318"/>
-      <c r="O103" s="319"/>
-      <c r="P103" s="319"/>
-      <c r="Q103" s="319"/>
-      <c r="R103" s="320"/>
-      <c r="S103" s="303" t="s">
-        <v>113</v>
-      </c>
-      <c r="T103" s="304"/>
-      <c r="U103" s="304"/>
-      <c r="V103" s="304"/>
-      <c r="W103" s="304"/>
-      <c r="X103" s="305"/>
-      <c r="Y103" s="212" t="s">
+      <c r="H103" s="313" t="s">
+        <v>252</v>
+      </c>
+      <c r="I103" s="314"/>
+      <c r="J103" s="314"/>
+      <c r="K103" s="314"/>
+      <c r="L103" s="314"/>
+      <c r="M103" s="315"/>
+      <c r="N103" s="319"/>
+      <c r="O103" s="320"/>
+      <c r="P103" s="320"/>
+      <c r="Q103" s="320"/>
+      <c r="R103" s="321"/>
+      <c r="S103" s="313" t="s">
+        <v>112</v>
+      </c>
+      <c r="T103" s="314"/>
+      <c r="U103" s="314"/>
+      <c r="V103" s="314"/>
+      <c r="W103" s="314"/>
+      <c r="X103" s="315"/>
+      <c r="Y103" s="209" t="s">
         <v>27</v>
       </c>
-      <c r="Z103" s="213"/>
-      <c r="AA103" s="213"/>
-      <c r="AB103" s="213"/>
-      <c r="AC103" s="213"/>
-      <c r="AD103" s="214"/>
-      <c r="AE103" s="212"/>
-      <c r="AF103" s="213"/>
-      <c r="AG103" s="213"/>
-      <c r="AH103" s="214"/>
+      <c r="Z103" s="210"/>
+      <c r="AA103" s="210"/>
+      <c r="AB103" s="210"/>
+      <c r="AC103" s="210"/>
+      <c r="AD103" s="211"/>
+      <c r="AE103" s="209"/>
+      <c r="AF103" s="210"/>
+      <c r="AG103" s="210"/>
+      <c r="AH103" s="211"/>
     </row>
     <row r="104" spans="3:37" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C104" s="130"/>
@@ -14638,14 +14624,14 @@
       <c r="G104" s="137">
         <v>13</v>
       </c>
-      <c r="H104" s="303" t="s">
-        <v>255</v>
-      </c>
-      <c r="I104" s="304"/>
-      <c r="J104" s="304"/>
-      <c r="K104" s="304"/>
-      <c r="L104" s="304"/>
-      <c r="M104" s="305"/>
+      <c r="H104" s="313" t="s">
+        <v>253</v>
+      </c>
+      <c r="I104" s="314"/>
+      <c r="J104" s="314"/>
+      <c r="K104" s="314"/>
+      <c r="L104" s="314"/>
+      <c r="M104" s="315"/>
       <c r="N104" s="183" t="s">
         <v>27</v>
       </c>
@@ -14653,26 +14639,26 @@
       <c r="P104" s="184"/>
       <c r="Q104" s="184"/>
       <c r="R104" s="185"/>
-      <c r="S104" s="303" t="s">
+      <c r="S104" s="313" t="s">
         <v>27</v>
       </c>
-      <c r="T104" s="304"/>
-      <c r="U104" s="304"/>
-      <c r="V104" s="304"/>
-      <c r="W104" s="304"/>
-      <c r="X104" s="305"/>
-      <c r="Y104" s="212" t="s">
-        <v>256</v>
-      </c>
-      <c r="Z104" s="213"/>
-      <c r="AA104" s="213"/>
-      <c r="AB104" s="213"/>
-      <c r="AC104" s="213"/>
-      <c r="AD104" s="214"/>
-      <c r="AE104" s="212"/>
-      <c r="AF104" s="213"/>
-      <c r="AG104" s="213"/>
-      <c r="AH104" s="214"/>
+      <c r="T104" s="314"/>
+      <c r="U104" s="314"/>
+      <c r="V104" s="314"/>
+      <c r="W104" s="314"/>
+      <c r="X104" s="315"/>
+      <c r="Y104" s="209" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z104" s="210"/>
+      <c r="AA104" s="210"/>
+      <c r="AB104" s="210"/>
+      <c r="AC104" s="210"/>
+      <c r="AD104" s="211"/>
+      <c r="AE104" s="209"/>
+      <c r="AF104" s="210"/>
+      <c r="AG104" s="210"/>
+      <c r="AH104" s="211"/>
     </row>
     <row r="105" spans="3:37" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C105" s="130"/>
@@ -14749,7 +14735,7 @@
       <c r="C107" s="130"/>
       <c r="D107" s="130"/>
       <c r="E107" s="130" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F107" s="130"/>
       <c r="G107" s="130"/>
@@ -14820,7 +14806,7 @@
       <c r="D109" s="130"/>
       <c r="E109" s="130"/>
       <c r="F109" s="130" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G109" s="130"/>
       <c r="H109" s="130"/>
@@ -14921,7 +14907,7 @@
     </row>
     <row r="112" spans="3:37" ht="12" x14ac:dyDescent="0.2">
       <c r="D112" s="130" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E112" s="130"/>
       <c r="F112" s="130"/>
@@ -14984,7 +14970,7 @@
     <row r="114" spans="4:31" ht="12" x14ac:dyDescent="0.2">
       <c r="D114" s="130"/>
       <c r="E114" s="130" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F114" s="130"/>
       <c r="G114" s="130"/>
@@ -15047,7 +15033,7 @@
       <c r="D116" s="130"/>
       <c r="E116" s="130"/>
       <c r="F116" s="130" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G116" s="130"/>
       <c r="H116" s="130"/>
@@ -15077,6 +15063,162 @@
     </row>
   </sheetData>
   <mergeCells count="180">
+    <mergeCell ref="S98:X98"/>
+    <mergeCell ref="H98:M98"/>
+    <mergeCell ref="Y98:AD98"/>
+    <mergeCell ref="AE98:AH98"/>
+    <mergeCell ref="AE96:AH96"/>
+    <mergeCell ref="H97:M97"/>
+    <mergeCell ref="S97:X97"/>
+    <mergeCell ref="Y97:AD97"/>
+    <mergeCell ref="AE97:AH97"/>
+    <mergeCell ref="E66:J66"/>
+    <mergeCell ref="K66:N66"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="V66:AH66"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:J65"/>
+    <mergeCell ref="K64:N65"/>
+    <mergeCell ref="O64:O65"/>
+    <mergeCell ref="V64:AH65"/>
+    <mergeCell ref="T65:U65"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="M56:T56"/>
+    <mergeCell ref="U56:Y56"/>
+    <mergeCell ref="Z56:AB56"/>
+    <mergeCell ref="AD56:AG56"/>
+    <mergeCell ref="E39:M39"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="Q39:U39"/>
+    <mergeCell ref="V39:AC39"/>
+    <mergeCell ref="E40:M40"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="Q40:U40"/>
+    <mergeCell ref="V40:AC40"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="M55:T55"/>
+    <mergeCell ref="U55:Y55"/>
+    <mergeCell ref="Z55:AB55"/>
+    <mergeCell ref="AD55:AG55"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="M50:T50"/>
+    <mergeCell ref="U50:Y50"/>
+    <mergeCell ref="N90:X90"/>
+    <mergeCell ref="AE74:AH74"/>
+    <mergeCell ref="AE72:AH72"/>
+    <mergeCell ref="E73:J73"/>
+    <mergeCell ref="K73:Q73"/>
+    <mergeCell ref="R73:Y73"/>
+    <mergeCell ref="Z73:AD73"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="H90:M91"/>
+    <mergeCell ref="S91:X91"/>
+    <mergeCell ref="Y90:AD91"/>
+    <mergeCell ref="AE90:AH91"/>
+    <mergeCell ref="N91:R91"/>
+    <mergeCell ref="E72:J72"/>
+    <mergeCell ref="K72:Q72"/>
+    <mergeCell ref="R72:Y72"/>
+    <mergeCell ref="Z72:AD72"/>
+    <mergeCell ref="AE73:AH73"/>
+    <mergeCell ref="E74:J74"/>
+    <mergeCell ref="K74:Q74"/>
+    <mergeCell ref="R74:Y74"/>
+    <mergeCell ref="Z74:AD74"/>
+    <mergeCell ref="H92:M92"/>
+    <mergeCell ref="S92:X92"/>
+    <mergeCell ref="Y92:AD92"/>
+    <mergeCell ref="AE92:AH92"/>
+    <mergeCell ref="E67:J67"/>
+    <mergeCell ref="K67:N67"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="V67:AH67"/>
+    <mergeCell ref="H104:M104"/>
+    <mergeCell ref="S104:X104"/>
+    <mergeCell ref="Y104:AD104"/>
+    <mergeCell ref="AE104:AH104"/>
+    <mergeCell ref="N93:R103"/>
+    <mergeCell ref="H99:M99"/>
+    <mergeCell ref="S99:X99"/>
+    <mergeCell ref="Y99:AD99"/>
+    <mergeCell ref="AE99:AH99"/>
+    <mergeCell ref="H93:M93"/>
+    <mergeCell ref="S93:X93"/>
+    <mergeCell ref="Y93:AD93"/>
+    <mergeCell ref="H103:M103"/>
+    <mergeCell ref="S103:X103"/>
+    <mergeCell ref="Y103:AD103"/>
+    <mergeCell ref="AE103:AH103"/>
+    <mergeCell ref="AE93:AH93"/>
+    <mergeCell ref="H94:M94"/>
+    <mergeCell ref="S94:X94"/>
+    <mergeCell ref="Y94:AD94"/>
+    <mergeCell ref="H102:M102"/>
+    <mergeCell ref="S102:X102"/>
+    <mergeCell ref="Y102:AD102"/>
+    <mergeCell ref="AE102:AH102"/>
+    <mergeCell ref="H101:M101"/>
+    <mergeCell ref="S101:X101"/>
+    <mergeCell ref="Y101:AD101"/>
+    <mergeCell ref="AE101:AH101"/>
+    <mergeCell ref="S100:X100"/>
+    <mergeCell ref="Y100:AD100"/>
+    <mergeCell ref="AE100:AH100"/>
+    <mergeCell ref="H100:M100"/>
+    <mergeCell ref="AE94:AH94"/>
+    <mergeCell ref="H95:M95"/>
+    <mergeCell ref="S95:X95"/>
+    <mergeCell ref="Y95:AD95"/>
+    <mergeCell ref="AE95:AH95"/>
+    <mergeCell ref="H96:M96"/>
+    <mergeCell ref="S96:X96"/>
+    <mergeCell ref="Y96:AD96"/>
+    <mergeCell ref="AL46:AP46"/>
+    <mergeCell ref="D47:AG47"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="M48:T48"/>
+    <mergeCell ref="U48:Y48"/>
+    <mergeCell ref="Z48:AB48"/>
+    <mergeCell ref="AD48:AG48"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="E44:AC44"/>
+    <mergeCell ref="AD44:AG46"/>
+    <mergeCell ref="E45:H46"/>
+    <mergeCell ref="I45:L46"/>
+    <mergeCell ref="M45:T46"/>
+    <mergeCell ref="U45:Y46"/>
+    <mergeCell ref="Z45:AB46"/>
+    <mergeCell ref="AC45:AC46"/>
+    <mergeCell ref="Z50:AB50"/>
+    <mergeCell ref="AD50:AG50"/>
+    <mergeCell ref="AD51:AG51"/>
+    <mergeCell ref="Z49:AB49"/>
+    <mergeCell ref="AD49:AG49"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="M49:T49"/>
+    <mergeCell ref="U49:Y49"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="M51:T51"/>
+    <mergeCell ref="U51:Y51"/>
+    <mergeCell ref="Z51:AB51"/>
+    <mergeCell ref="AD53:AG53"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="M54:T54"/>
+    <mergeCell ref="U54:Y54"/>
+    <mergeCell ref="Z54:AB54"/>
+    <mergeCell ref="AD54:AG54"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="M53:T53"/>
+    <mergeCell ref="U53:Y53"/>
+    <mergeCell ref="Z53:AB53"/>
     <mergeCell ref="E52:H52"/>
     <mergeCell ref="I52:L52"/>
     <mergeCell ref="M52:T52"/>
@@ -15101,168 +15243,9 @@
     <mergeCell ref="U58:Y58"/>
     <mergeCell ref="Z58:AB58"/>
     <mergeCell ref="AD58:AG58"/>
-    <mergeCell ref="AD53:AG53"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="M54:T54"/>
-    <mergeCell ref="U54:Y54"/>
-    <mergeCell ref="Z54:AB54"/>
-    <mergeCell ref="AD54:AG54"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="M53:T53"/>
-    <mergeCell ref="U53:Y53"/>
-    <mergeCell ref="Z53:AB53"/>
-    <mergeCell ref="Z50:AB50"/>
-    <mergeCell ref="AD50:AG50"/>
-    <mergeCell ref="AD51:AG51"/>
-    <mergeCell ref="Z49:AB49"/>
-    <mergeCell ref="AD49:AG49"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="M49:T49"/>
-    <mergeCell ref="U49:Y49"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="M51:T51"/>
-    <mergeCell ref="U51:Y51"/>
-    <mergeCell ref="Z51:AB51"/>
-    <mergeCell ref="AL46:AP46"/>
-    <mergeCell ref="D47:AG47"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="M48:T48"/>
-    <mergeCell ref="U48:Y48"/>
-    <mergeCell ref="Z48:AB48"/>
-    <mergeCell ref="AD48:AG48"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="E44:AC44"/>
-    <mergeCell ref="AD44:AG46"/>
-    <mergeCell ref="E45:H46"/>
-    <mergeCell ref="I45:L46"/>
-    <mergeCell ref="M45:T46"/>
-    <mergeCell ref="U45:Y46"/>
-    <mergeCell ref="Z45:AB46"/>
-    <mergeCell ref="AC45:AC46"/>
-    <mergeCell ref="AE93:AH93"/>
-    <mergeCell ref="H94:M94"/>
-    <mergeCell ref="S94:X94"/>
-    <mergeCell ref="Y94:AD94"/>
-    <mergeCell ref="H102:M102"/>
-    <mergeCell ref="S102:X102"/>
-    <mergeCell ref="Y102:AD102"/>
-    <mergeCell ref="AE102:AH102"/>
-    <mergeCell ref="H101:M101"/>
-    <mergeCell ref="S101:X101"/>
-    <mergeCell ref="Y101:AD101"/>
-    <mergeCell ref="AE101:AH101"/>
-    <mergeCell ref="S100:X100"/>
-    <mergeCell ref="Y100:AD100"/>
-    <mergeCell ref="AE100:AH100"/>
-    <mergeCell ref="H100:M100"/>
-    <mergeCell ref="AE94:AH94"/>
-    <mergeCell ref="H95:M95"/>
-    <mergeCell ref="S95:X95"/>
-    <mergeCell ref="Y95:AD95"/>
-    <mergeCell ref="AE95:AH95"/>
-    <mergeCell ref="H96:M96"/>
-    <mergeCell ref="S96:X96"/>
-    <mergeCell ref="Y96:AD96"/>
-    <mergeCell ref="H92:M92"/>
-    <mergeCell ref="S92:X92"/>
-    <mergeCell ref="Y92:AD92"/>
-    <mergeCell ref="AE92:AH92"/>
-    <mergeCell ref="E67:J67"/>
-    <mergeCell ref="K67:N67"/>
-    <mergeCell ref="T67:U67"/>
-    <mergeCell ref="V67:AH67"/>
-    <mergeCell ref="H104:M104"/>
-    <mergeCell ref="S104:X104"/>
-    <mergeCell ref="Y104:AD104"/>
-    <mergeCell ref="AE104:AH104"/>
-    <mergeCell ref="N93:R103"/>
-    <mergeCell ref="H99:M99"/>
-    <mergeCell ref="S99:X99"/>
-    <mergeCell ref="Y99:AD99"/>
-    <mergeCell ref="AE99:AH99"/>
-    <mergeCell ref="H93:M93"/>
-    <mergeCell ref="S93:X93"/>
-    <mergeCell ref="Y93:AD93"/>
-    <mergeCell ref="H103:M103"/>
-    <mergeCell ref="S103:X103"/>
-    <mergeCell ref="Y103:AD103"/>
-    <mergeCell ref="AE103:AH103"/>
-    <mergeCell ref="N90:X90"/>
-    <mergeCell ref="AE74:AH74"/>
-    <mergeCell ref="AE72:AH72"/>
-    <mergeCell ref="E73:J73"/>
-    <mergeCell ref="K73:Q73"/>
-    <mergeCell ref="R73:Y73"/>
-    <mergeCell ref="Z73:AD73"/>
-    <mergeCell ref="G90:G91"/>
-    <mergeCell ref="H90:M91"/>
-    <mergeCell ref="S91:X91"/>
-    <mergeCell ref="Y90:AD91"/>
-    <mergeCell ref="AE90:AH91"/>
-    <mergeCell ref="N91:R91"/>
-    <mergeCell ref="E72:J72"/>
-    <mergeCell ref="K72:Q72"/>
-    <mergeCell ref="R72:Y72"/>
-    <mergeCell ref="Z72:AD72"/>
-    <mergeCell ref="AE73:AH73"/>
-    <mergeCell ref="E74:J74"/>
-    <mergeCell ref="K74:Q74"/>
-    <mergeCell ref="R74:Y74"/>
-    <mergeCell ref="Z74:AD74"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="M56:T56"/>
-    <mergeCell ref="U56:Y56"/>
-    <mergeCell ref="Z56:AB56"/>
-    <mergeCell ref="AD56:AG56"/>
-    <mergeCell ref="E39:M39"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="Q39:U39"/>
-    <mergeCell ref="V39:AC39"/>
-    <mergeCell ref="E40:M40"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="Q40:U40"/>
-    <mergeCell ref="V40:AC40"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="I55:L55"/>
-    <mergeCell ref="M55:T55"/>
-    <mergeCell ref="U55:Y55"/>
-    <mergeCell ref="Z55:AB55"/>
-    <mergeCell ref="AD55:AG55"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="M50:T50"/>
-    <mergeCell ref="U50:Y50"/>
-    <mergeCell ref="E66:J66"/>
-    <mergeCell ref="K66:N66"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="V66:AH66"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:J65"/>
-    <mergeCell ref="K64:N65"/>
-    <mergeCell ref="O64:O65"/>
-    <mergeCell ref="V64:AH65"/>
-    <mergeCell ref="T65:U65"/>
-    <mergeCell ref="S98:X98"/>
-    <mergeCell ref="H98:M98"/>
-    <mergeCell ref="Y98:AD98"/>
-    <mergeCell ref="AE98:AH98"/>
-    <mergeCell ref="AE96:AH96"/>
-    <mergeCell ref="H97:M97"/>
-    <mergeCell ref="S97:X97"/>
-    <mergeCell ref="Y97:AD97"/>
-    <mergeCell ref="AE97:AH97"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC48:AC59 P66:U67" xr:uid="{00000000-0002-0000-0500-000001000000}">
-      <formula1>"-,○"</formula1>
-    </dataValidation>
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I48:I59" xr:uid="{75A213D8-586E-445A-9CCF-B5FFBE23260F}">
       <formula1>画面項目種類</formula1>
     </dataValidation>
@@ -15322,14 +15305,14 @@
     <row r="1" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="130" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C2" s="130"/>
     </row>
     <row r="3" spans="2:37" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="130"/>
       <c r="C3" s="130" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AK3" s="66"/>
     </row>
@@ -15395,7 +15378,7 @@
     </row>
     <row r="32" spans="3:34" ht="12" x14ac:dyDescent="0.2">
       <c r="C32" s="133" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D32" s="134"/>
       <c r="E32" s="134"/>
@@ -15468,39 +15451,39 @@
       <c r="D34" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="E34" s="227" t="s">
+      <c r="E34" s="270" t="s">
+        <v>95</v>
+      </c>
+      <c r="F34" s="270"/>
+      <c r="G34" s="270"/>
+      <c r="H34" s="270"/>
+      <c r="I34" s="270"/>
+      <c r="J34" s="270"/>
+      <c r="K34" s="270"/>
+      <c r="L34" s="270"/>
+      <c r="M34" s="270"/>
+      <c r="N34" s="270" t="s">
         <v>96</v>
       </c>
-      <c r="F34" s="227"/>
-      <c r="G34" s="227"/>
-      <c r="H34" s="227"/>
-      <c r="I34" s="227"/>
-      <c r="J34" s="227"/>
-      <c r="K34" s="227"/>
-      <c r="L34" s="227"/>
-      <c r="M34" s="227"/>
-      <c r="N34" s="227" t="s">
+      <c r="O34" s="270"/>
+      <c r="P34" s="270"/>
+      <c r="Q34" s="270" t="s">
         <v>97</v>
       </c>
-      <c r="O34" s="227"/>
-      <c r="P34" s="227"/>
-      <c r="Q34" s="227" t="s">
+      <c r="R34" s="270"/>
+      <c r="S34" s="270"/>
+      <c r="T34" s="270"/>
+      <c r="U34" s="270"/>
+      <c r="V34" s="270" t="s">
         <v>98</v>
       </c>
-      <c r="R34" s="227"/>
-      <c r="S34" s="227"/>
-      <c r="T34" s="227"/>
-      <c r="U34" s="227"/>
-      <c r="V34" s="227" t="s">
-        <v>99</v>
-      </c>
-      <c r="W34" s="227"/>
-      <c r="X34" s="227"/>
-      <c r="Y34" s="227"/>
-      <c r="Z34" s="227"/>
-      <c r="AA34" s="227"/>
-      <c r="AB34" s="227"/>
-      <c r="AC34" s="227"/>
+      <c r="W34" s="270"/>
+      <c r="X34" s="270"/>
+      <c r="Y34" s="270"/>
+      <c r="Z34" s="270"/>
+      <c r="AA34" s="270"/>
+      <c r="AB34" s="270"/>
+      <c r="AC34" s="270"/>
       <c r="AD34" s="93"/>
       <c r="AE34" s="93"/>
       <c r="AF34" s="93"/>
@@ -15512,37 +15495,37 @@
       <c r="D35" s="175">
         <v>1</v>
       </c>
-      <c r="E35" s="241" t="s">
+      <c r="E35" s="308" t="s">
         <v>27</v>
       </c>
-      <c r="F35" s="241"/>
-      <c r="G35" s="241"/>
-      <c r="H35" s="241"/>
-      <c r="I35" s="241"/>
-      <c r="J35" s="241"/>
-      <c r="K35" s="241"/>
-      <c r="L35" s="241"/>
-      <c r="M35" s="241"/>
-      <c r="N35" s="241" t="s">
+      <c r="F35" s="308"/>
+      <c r="G35" s="308"/>
+      <c r="H35" s="308"/>
+      <c r="I35" s="308"/>
+      <c r="J35" s="308"/>
+      <c r="K35" s="308"/>
+      <c r="L35" s="308"/>
+      <c r="M35" s="308"/>
+      <c r="N35" s="308" t="s">
         <v>27</v>
       </c>
-      <c r="O35" s="241"/>
-      <c r="P35" s="241"/>
-      <c r="Q35" s="241" t="s">
+      <c r="O35" s="308"/>
+      <c r="P35" s="308"/>
+      <c r="Q35" s="308" t="s">
         <v>27</v>
       </c>
-      <c r="R35" s="241"/>
-      <c r="S35" s="241"/>
-      <c r="T35" s="241"/>
-      <c r="U35" s="241"/>
-      <c r="V35" s="241"/>
-      <c r="W35" s="241"/>
-      <c r="X35" s="241"/>
-      <c r="Y35" s="241"/>
-      <c r="Z35" s="241"/>
-      <c r="AA35" s="241"/>
-      <c r="AB35" s="241"/>
-      <c r="AC35" s="241"/>
+      <c r="R35" s="308"/>
+      <c r="S35" s="308"/>
+      <c r="T35" s="308"/>
+      <c r="U35" s="308"/>
+      <c r="V35" s="308"/>
+      <c r="W35" s="308"/>
+      <c r="X35" s="308"/>
+      <c r="Y35" s="308"/>
+      <c r="Z35" s="308"/>
+      <c r="AA35" s="308"/>
+      <c r="AB35" s="308"/>
+      <c r="AC35" s="308"/>
       <c r="AM35" s="9"/>
     </row>
     <row r="36" spans="1:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -15585,7 +15568,7 @@
     </row>
     <row r="38" spans="1:53" ht="12" x14ac:dyDescent="0.2">
       <c r="C38" s="130" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D38" s="130"/>
       <c r="E38" s="130"/>
@@ -15681,144 +15664,144 @@
     </row>
     <row r="40" spans="1:53" s="57" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C40" s="173"/>
-      <c r="D40" s="242" t="s">
+      <c r="D40" s="294" t="s">
         <v>0</v>
       </c>
-      <c r="E40" s="197" t="s">
+      <c r="E40" s="200" t="s">
+        <v>99</v>
+      </c>
+      <c r="F40" s="217"/>
+      <c r="G40" s="217"/>
+      <c r="H40" s="217"/>
+      <c r="I40" s="217"/>
+      <c r="J40" s="217"/>
+      <c r="K40" s="217"/>
+      <c r="L40" s="217"/>
+      <c r="M40" s="217"/>
+      <c r="N40" s="217"/>
+      <c r="O40" s="217"/>
+      <c r="P40" s="217"/>
+      <c r="Q40" s="217"/>
+      <c r="R40" s="217"/>
+      <c r="S40" s="217"/>
+      <c r="T40" s="217"/>
+      <c r="U40" s="217"/>
+      <c r="V40" s="217"/>
+      <c r="W40" s="217"/>
+      <c r="X40" s="217"/>
+      <c r="Y40" s="217"/>
+      <c r="Z40" s="217"/>
+      <c r="AA40" s="217"/>
+      <c r="AB40" s="217"/>
+      <c r="AC40" s="219"/>
+      <c r="AD40" s="191" t="s">
         <v>100</v>
       </c>
-      <c r="F40" s="257"/>
-      <c r="G40" s="257"/>
-      <c r="H40" s="257"/>
-      <c r="I40" s="257"/>
-      <c r="J40" s="257"/>
-      <c r="K40" s="257"/>
-      <c r="L40" s="257"/>
-      <c r="M40" s="257"/>
-      <c r="N40" s="257"/>
-      <c r="O40" s="257"/>
-      <c r="P40" s="257"/>
-      <c r="Q40" s="257"/>
-      <c r="R40" s="257"/>
-      <c r="S40" s="257"/>
-      <c r="T40" s="257"/>
-      <c r="U40" s="257"/>
-      <c r="V40" s="257"/>
-      <c r="W40" s="257"/>
-      <c r="X40" s="257"/>
-      <c r="Y40" s="257"/>
-      <c r="Z40" s="257"/>
-      <c r="AA40" s="257"/>
-      <c r="AB40" s="257"/>
-      <c r="AC40" s="258"/>
-      <c r="AD40" s="188" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE40" s="189"/>
-      <c r="AF40" s="189"/>
-      <c r="AG40" s="190"/>
+      <c r="AE40" s="192"/>
+      <c r="AF40" s="192"/>
+      <c r="AG40" s="193"/>
       <c r="AH40" s="69"/>
       <c r="AI40" s="69"/>
-      <c r="AJ40" s="336"/>
-      <c r="AK40" s="337"/>
-      <c r="AL40" s="337"/>
-      <c r="AM40" s="338"/>
+      <c r="AJ40" s="330"/>
+      <c r="AK40" s="331"/>
+      <c r="AL40" s="331"/>
+      <c r="AM40" s="332"/>
       <c r="AN40" s="100"/>
       <c r="AO40" s="103"/>
       <c r="AP40" s="90"/>
     </row>
     <row r="41" spans="1:53" s="57" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C41" s="173"/>
-      <c r="D41" s="243"/>
-      <c r="E41" s="188" t="s">
+      <c r="D41" s="295"/>
+      <c r="E41" s="191" t="s">
+        <v>101</v>
+      </c>
+      <c r="F41" s="192"/>
+      <c r="G41" s="192"/>
+      <c r="H41" s="193"/>
+      <c r="I41" s="297" t="s">
         <v>102</v>
       </c>
-      <c r="F41" s="189"/>
-      <c r="G41" s="189"/>
-      <c r="H41" s="190"/>
-      <c r="I41" s="235" t="s">
+      <c r="J41" s="298"/>
+      <c r="K41" s="298"/>
+      <c r="L41" s="299"/>
+      <c r="M41" s="297" t="s">
         <v>103</v>
       </c>
-      <c r="J41" s="236"/>
-      <c r="K41" s="236"/>
-      <c r="L41" s="237"/>
-      <c r="M41" s="235" t="s">
+      <c r="N41" s="298"/>
+      <c r="O41" s="298"/>
+      <c r="P41" s="298"/>
+      <c r="Q41" s="298"/>
+      <c r="R41" s="298"/>
+      <c r="S41" s="298"/>
+      <c r="T41" s="299"/>
+      <c r="U41" s="191" t="s">
         <v>104</v>
       </c>
-      <c r="N41" s="236"/>
-      <c r="O41" s="236"/>
-      <c r="P41" s="236"/>
-      <c r="Q41" s="236"/>
-      <c r="R41" s="236"/>
-      <c r="S41" s="236"/>
-      <c r="T41" s="237"/>
-      <c r="U41" s="188" t="s">
+      <c r="V41" s="192"/>
+      <c r="W41" s="192"/>
+      <c r="X41" s="192"/>
+      <c r="Y41" s="193"/>
+      <c r="Z41" s="191" t="s">
         <v>105</v>
       </c>
-      <c r="V41" s="189"/>
-      <c r="W41" s="189"/>
-      <c r="X41" s="189"/>
-      <c r="Y41" s="190"/>
-      <c r="Z41" s="188" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA41" s="189"/>
-      <c r="AB41" s="190"/>
-      <c r="AC41" s="345" t="s">
-        <v>264</v>
-      </c>
-      <c r="AD41" s="191"/>
-      <c r="AE41" s="192"/>
-      <c r="AF41" s="192"/>
-      <c r="AG41" s="193"/>
+      <c r="AA41" s="192"/>
+      <c r="AB41" s="193"/>
+      <c r="AC41" s="268" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD41" s="194"/>
+      <c r="AE41" s="195"/>
+      <c r="AF41" s="195"/>
+      <c r="AG41" s="196"/>
       <c r="AH41" s="69"/>
       <c r="AI41" s="69"/>
-      <c r="AJ41" s="336"/>
-      <c r="AK41" s="337"/>
-      <c r="AL41" s="337"/>
-      <c r="AM41" s="338"/>
+      <c r="AJ41" s="330"/>
+      <c r="AK41" s="331"/>
+      <c r="AL41" s="331"/>
+      <c r="AM41" s="332"/>
       <c r="AN41" s="100"/>
       <c r="AO41" s="103"/>
       <c r="AP41" s="90"/>
     </row>
     <row r="42" spans="1:53" s="57" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C42" s="173"/>
-      <c r="D42" s="244"/>
-      <c r="E42" s="194"/>
-      <c r="F42" s="195"/>
-      <c r="G42" s="195"/>
-      <c r="H42" s="196"/>
-      <c r="I42" s="238"/>
-      <c r="J42" s="239"/>
-      <c r="K42" s="239"/>
-      <c r="L42" s="240"/>
-      <c r="M42" s="238"/>
-      <c r="N42" s="239"/>
-      <c r="O42" s="239"/>
-      <c r="P42" s="239"/>
-      <c r="Q42" s="239"/>
-      <c r="R42" s="239"/>
-      <c r="S42" s="239"/>
-      <c r="T42" s="240"/>
-      <c r="U42" s="194"/>
-      <c r="V42" s="195"/>
-      <c r="W42" s="195"/>
-      <c r="X42" s="195"/>
-      <c r="Y42" s="196"/>
-      <c r="Z42" s="194"/>
-      <c r="AA42" s="195"/>
-      <c r="AB42" s="196"/>
-      <c r="AC42" s="346"/>
-      <c r="AD42" s="194"/>
-      <c r="AE42" s="195"/>
-      <c r="AF42" s="195"/>
-      <c r="AG42" s="196"/>
+      <c r="D42" s="296"/>
+      <c r="E42" s="197"/>
+      <c r="F42" s="198"/>
+      <c r="G42" s="198"/>
+      <c r="H42" s="199"/>
+      <c r="I42" s="300"/>
+      <c r="J42" s="301"/>
+      <c r="K42" s="301"/>
+      <c r="L42" s="302"/>
+      <c r="M42" s="300"/>
+      <c r="N42" s="301"/>
+      <c r="O42" s="301"/>
+      <c r="P42" s="301"/>
+      <c r="Q42" s="301"/>
+      <c r="R42" s="301"/>
+      <c r="S42" s="301"/>
+      <c r="T42" s="302"/>
+      <c r="U42" s="197"/>
+      <c r="V42" s="198"/>
+      <c r="W42" s="198"/>
+      <c r="X42" s="198"/>
+      <c r="Y42" s="199"/>
+      <c r="Z42" s="197"/>
+      <c r="AA42" s="198"/>
+      <c r="AB42" s="199"/>
+      <c r="AC42" s="269"/>
+      <c r="AD42" s="197"/>
+      <c r="AE42" s="198"/>
+      <c r="AF42" s="198"/>
+      <c r="AG42" s="199"/>
       <c r="AH42" s="69"/>
       <c r="AI42" s="69"/>
-      <c r="AJ42" s="336"/>
-      <c r="AK42" s="337"/>
-      <c r="AL42" s="337"/>
-      <c r="AM42" s="338"/>
+      <c r="AJ42" s="330"/>
+      <c r="AK42" s="331"/>
+      <c r="AL42" s="331"/>
+      <c r="AM42" s="332"/>
       <c r="AN42" s="100"/>
       <c r="AO42" s="103"/>
       <c r="AP42" s="90"/>
@@ -15829,18 +15812,18 @@
       <c r="D43" s="137">
         <v>1</v>
       </c>
-      <c r="E43" s="212" t="s">
-        <v>262</v>
-      </c>
-      <c r="F43" s="213"/>
-      <c r="G43" s="213"/>
-      <c r="H43" s="214"/>
-      <c r="I43" s="302" t="s">
+      <c r="E43" s="209" t="s">
+        <v>260</v>
+      </c>
+      <c r="F43" s="210"/>
+      <c r="G43" s="210"/>
+      <c r="H43" s="211"/>
+      <c r="I43" s="220" t="s">
         <v>23</v>
       </c>
-      <c r="J43" s="302"/>
-      <c r="K43" s="302"/>
-      <c r="L43" s="302"/>
+      <c r="J43" s="220"/>
+      <c r="K43" s="220"/>
+      <c r="L43" s="220"/>
       <c r="M43" s="311" t="s">
         <v>27</v>
       </c>
@@ -15851,18 +15834,18 @@
       <c r="R43" s="311"/>
       <c r="S43" s="311"/>
       <c r="T43" s="311"/>
-      <c r="U43" s="212" t="s">
+      <c r="U43" s="209" t="s">
         <v>27</v>
       </c>
-      <c r="V43" s="213"/>
-      <c r="W43" s="213"/>
-      <c r="X43" s="213"/>
-      <c r="Y43" s="214"/>
-      <c r="Z43" s="220" t="s">
+      <c r="V43" s="210"/>
+      <c r="W43" s="210"/>
+      <c r="X43" s="210"/>
+      <c r="Y43" s="211"/>
+      <c r="Z43" s="221" t="s">
         <v>27</v>
       </c>
-      <c r="AA43" s="221"/>
-      <c r="AB43" s="222"/>
+      <c r="AA43" s="222"/>
+      <c r="AB43" s="223"/>
       <c r="AC43" s="151" t="s">
         <v>27</v>
       </c>
@@ -15874,10 +15857,10 @@
       <c r="AG43" s="145"/>
       <c r="AH43" s="101"/>
       <c r="AI43" s="96"/>
-      <c r="AJ43" s="339"/>
-      <c r="AK43" s="340"/>
-      <c r="AL43" s="340"/>
-      <c r="AM43" s="341"/>
+      <c r="AJ43" s="333"/>
+      <c r="AK43" s="334"/>
+      <c r="AL43" s="334"/>
+      <c r="AM43" s="335"/>
       <c r="AN43" s="96"/>
       <c r="AO43" s="96"/>
     </row>
@@ -15964,7 +15947,7 @@
     <row r="46" spans="1:53" ht="12" x14ac:dyDescent="0.2">
       <c r="A46" s="71"/>
       <c r="C46" s="130" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D46" s="173"/>
       <c r="E46" s="176"/>
@@ -16057,49 +16040,49 @@
     <row r="48" spans="1:53" ht="12" x14ac:dyDescent="0.2">
       <c r="A48" s="71"/>
       <c r="C48" s="130"/>
-      <c r="D48" s="249" t="s">
+      <c r="D48" s="271" t="s">
         <v>0</v>
       </c>
-      <c r="E48" s="251" t="s">
+      <c r="E48" s="273" t="s">
+        <v>143</v>
+      </c>
+      <c r="F48" s="274"/>
+      <c r="G48" s="274"/>
+      <c r="H48" s="274"/>
+      <c r="I48" s="274"/>
+      <c r="J48" s="275"/>
+      <c r="K48" s="273" t="s">
         <v>144</v>
       </c>
-      <c r="F48" s="252"/>
-      <c r="G48" s="252"/>
-      <c r="H48" s="252"/>
-      <c r="I48" s="252"/>
-      <c r="J48" s="253"/>
-      <c r="K48" s="251" t="s">
+      <c r="L48" s="274"/>
+      <c r="M48" s="274"/>
+      <c r="N48" s="275"/>
+      <c r="O48" s="290" t="s">
         <v>145</v>
       </c>
-      <c r="L48" s="252"/>
-      <c r="M48" s="252"/>
-      <c r="N48" s="253"/>
-      <c r="O48" s="268" t="s">
+      <c r="P48" s="146" t="s">
         <v>146</v>
-      </c>
-      <c r="P48" s="146" t="s">
-        <v>147</v>
       </c>
       <c r="Q48" s="147"/>
       <c r="R48" s="147"/>
       <c r="S48" s="147"/>
       <c r="T48" s="147"/>
       <c r="U48" s="147"/>
-      <c r="V48" s="251" t="s">
-        <v>99</v>
-      </c>
-      <c r="W48" s="252"/>
-      <c r="X48" s="252"/>
-      <c r="Y48" s="252"/>
-      <c r="Z48" s="252"/>
-      <c r="AA48" s="252"/>
-      <c r="AB48" s="252"/>
-      <c r="AC48" s="252"/>
-      <c r="AD48" s="252"/>
-      <c r="AE48" s="252"/>
-      <c r="AF48" s="252"/>
-      <c r="AG48" s="252"/>
-      <c r="AH48" s="253"/>
+      <c r="V48" s="273" t="s">
+        <v>98</v>
+      </c>
+      <c r="W48" s="274"/>
+      <c r="X48" s="274"/>
+      <c r="Y48" s="274"/>
+      <c r="Z48" s="274"/>
+      <c r="AA48" s="274"/>
+      <c r="AB48" s="274"/>
+      <c r="AC48" s="274"/>
+      <c r="AD48" s="274"/>
+      <c r="AE48" s="274"/>
+      <c r="AF48" s="274"/>
+      <c r="AG48" s="274"/>
+      <c r="AH48" s="275"/>
       <c r="AK48" s="68"/>
       <c r="AL48" s="68"/>
       <c r="AM48" s="68"/>
@@ -16117,47 +16100,47 @@
     <row r="49" spans="1:53" ht="12" x14ac:dyDescent="0.2">
       <c r="A49" s="71"/>
       <c r="C49" s="130"/>
-      <c r="D49" s="250"/>
-      <c r="E49" s="254"/>
-      <c r="F49" s="255"/>
-      <c r="G49" s="255"/>
-      <c r="H49" s="255"/>
-      <c r="I49" s="255"/>
-      <c r="J49" s="256"/>
-      <c r="K49" s="254"/>
-      <c r="L49" s="255"/>
-      <c r="M49" s="255"/>
-      <c r="N49" s="256"/>
-      <c r="O49" s="269"/>
+      <c r="D49" s="272"/>
+      <c r="E49" s="276"/>
+      <c r="F49" s="277"/>
+      <c r="G49" s="277"/>
+      <c r="H49" s="277"/>
+      <c r="I49" s="277"/>
+      <c r="J49" s="278"/>
+      <c r="K49" s="276"/>
+      <c r="L49" s="277"/>
+      <c r="M49" s="277"/>
+      <c r="N49" s="278"/>
+      <c r="O49" s="291"/>
       <c r="P49" s="148" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q49" s="148" t="s">
         <v>148</v>
       </c>
-      <c r="Q49" s="148" t="s">
+      <c r="R49" s="148" t="s">
         <v>149</v>
       </c>
-      <c r="R49" s="148" t="s">
+      <c r="S49" s="148" t="s">
         <v>150</v>
       </c>
-      <c r="S49" s="148" t="s">
+      <c r="T49" s="292" t="s">
         <v>151</v>
       </c>
-      <c r="T49" s="270" t="s">
-        <v>152</v>
-      </c>
-      <c r="U49" s="271"/>
-      <c r="V49" s="254"/>
-      <c r="W49" s="255"/>
-      <c r="X49" s="255"/>
-      <c r="Y49" s="255"/>
-      <c r="Z49" s="255"/>
-      <c r="AA49" s="255"/>
-      <c r="AB49" s="255"/>
-      <c r="AC49" s="255"/>
-      <c r="AD49" s="255"/>
-      <c r="AE49" s="255"/>
-      <c r="AF49" s="255"/>
-      <c r="AG49" s="255"/>
-      <c r="AH49" s="256"/>
+      <c r="U49" s="293"/>
+      <c r="V49" s="276"/>
+      <c r="W49" s="277"/>
+      <c r="X49" s="277"/>
+      <c r="Y49" s="277"/>
+      <c r="Z49" s="277"/>
+      <c r="AA49" s="277"/>
+      <c r="AB49" s="277"/>
+      <c r="AC49" s="277"/>
+      <c r="AD49" s="277"/>
+      <c r="AE49" s="277"/>
+      <c r="AF49" s="277"/>
+      <c r="AG49" s="277"/>
+      <c r="AH49" s="278"/>
       <c r="AK49" s="68"/>
       <c r="AL49" s="68"/>
       <c r="AM49" s="68"/>
@@ -16178,20 +16161,20 @@
       <c r="D50" s="149">
         <v>1</v>
       </c>
-      <c r="E50" s="212" t="s">
+      <c r="E50" s="209" t="s">
         <v>27</v>
       </c>
-      <c r="F50" s="213"/>
-      <c r="G50" s="213"/>
-      <c r="H50" s="213"/>
-      <c r="I50" s="213"/>
-      <c r="J50" s="214"/>
-      <c r="K50" s="212" t="s">
+      <c r="F50" s="210"/>
+      <c r="G50" s="210"/>
+      <c r="H50" s="210"/>
+      <c r="I50" s="210"/>
+      <c r="J50" s="211"/>
+      <c r="K50" s="209" t="s">
         <v>27</v>
       </c>
-      <c r="L50" s="213"/>
-      <c r="M50" s="213"/>
-      <c r="N50" s="214"/>
+      <c r="L50" s="210"/>
+      <c r="M50" s="210"/>
+      <c r="N50" s="211"/>
       <c r="O50" s="178" t="s">
         <v>27</v>
       </c>
@@ -16207,23 +16190,23 @@
       <c r="S50" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="T50" s="218" t="s">
+      <c r="T50" s="309" t="s">
         <v>27</v>
       </c>
-      <c r="U50" s="219"/>
-      <c r="V50" s="212"/>
-      <c r="W50" s="213"/>
-      <c r="X50" s="213"/>
-      <c r="Y50" s="213"/>
-      <c r="Z50" s="213"/>
-      <c r="AA50" s="213"/>
-      <c r="AB50" s="213"/>
-      <c r="AC50" s="213"/>
-      <c r="AD50" s="213"/>
-      <c r="AE50" s="213"/>
-      <c r="AF50" s="213"/>
-      <c r="AG50" s="213"/>
-      <c r="AH50" s="214"/>
+      <c r="U50" s="310"/>
+      <c r="V50" s="209"/>
+      <c r="W50" s="210"/>
+      <c r="X50" s="210"/>
+      <c r="Y50" s="210"/>
+      <c r="Z50" s="210"/>
+      <c r="AA50" s="210"/>
+      <c r="AB50" s="210"/>
+      <c r="AC50" s="210"/>
+      <c r="AD50" s="210"/>
+      <c r="AE50" s="210"/>
+      <c r="AF50" s="210"/>
+      <c r="AG50" s="210"/>
+      <c r="AH50" s="211"/>
       <c r="AK50" s="68"/>
       <c r="AL50" s="68"/>
       <c r="AM50" s="68"/>
@@ -16339,7 +16322,7 @@
     <row r="53" spans="1:53" ht="12" x14ac:dyDescent="0.2">
       <c r="A53" s="71"/>
       <c r="C53" s="130" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D53" s="130"/>
       <c r="E53" s="130"/>
@@ -16354,46 +16337,46 @@
       <c r="D55" s="186" t="s">
         <v>0</v>
       </c>
-      <c r="E55" s="245" t="s">
+      <c r="E55" s="287" t="s">
+        <v>154</v>
+      </c>
+      <c r="F55" s="288"/>
+      <c r="G55" s="288"/>
+      <c r="H55" s="289"/>
+      <c r="I55" s="287" t="s">
+        <v>155</v>
+      </c>
+      <c r="J55" s="288"/>
+      <c r="K55" s="288"/>
+      <c r="L55" s="288"/>
+      <c r="M55" s="288"/>
+      <c r="N55" s="288"/>
+      <c r="O55" s="289"/>
+      <c r="P55" s="337" t="s">
         <v>156</v>
       </c>
-      <c r="F55" s="246"/>
-      <c r="G55" s="246"/>
-      <c r="H55" s="247"/>
-      <c r="I55" s="245" t="s">
+      <c r="Q55" s="338"/>
+      <c r="R55" s="338"/>
+      <c r="S55" s="338"/>
+      <c r="T55" s="338"/>
+      <c r="U55" s="338"/>
+      <c r="V55" s="338"/>
+      <c r="W55" s="338"/>
+      <c r="X55" s="338"/>
+      <c r="Y55" s="339"/>
+      <c r="Z55" s="287" t="s">
         <v>157</v>
       </c>
-      <c r="J55" s="246"/>
-      <c r="K55" s="246"/>
-      <c r="L55" s="246"/>
-      <c r="M55" s="246"/>
-      <c r="N55" s="246"/>
-      <c r="O55" s="247"/>
-      <c r="P55" s="323" t="s">
+      <c r="AA55" s="288"/>
+      <c r="AB55" s="288"/>
+      <c r="AC55" s="288"/>
+      <c r="AD55" s="289"/>
+      <c r="AE55" s="344" t="s">
         <v>158</v>
       </c>
-      <c r="Q55" s="324"/>
-      <c r="R55" s="324"/>
-      <c r="S55" s="324"/>
-      <c r="T55" s="324"/>
-      <c r="U55" s="324"/>
-      <c r="V55" s="324"/>
-      <c r="W55" s="324"/>
-      <c r="X55" s="324"/>
-      <c r="Y55" s="325"/>
-      <c r="Z55" s="245" t="s">
-        <v>159</v>
-      </c>
-      <c r="AA55" s="246"/>
-      <c r="AB55" s="246"/>
-      <c r="AC55" s="246"/>
-      <c r="AD55" s="247"/>
-      <c r="AE55" s="330" t="s">
-        <v>160</v>
-      </c>
-      <c r="AF55" s="331"/>
-      <c r="AG55" s="331"/>
-      <c r="AH55" s="332"/>
+      <c r="AF55" s="345"/>
+      <c r="AG55" s="345"/>
+      <c r="AH55" s="346"/>
       <c r="AI55" s="68"/>
       <c r="AJ55" s="68"/>
       <c r="AK55" s="68"/>
@@ -16415,44 +16398,44 @@
       <c r="D56" s="102">
         <v>1</v>
       </c>
-      <c r="E56" s="326" t="s">
+      <c r="E56" s="340" t="s">
         <v>17</v>
       </c>
-      <c r="F56" s="327"/>
-      <c r="G56" s="327"/>
-      <c r="H56" s="328"/>
-      <c r="I56" s="329" t="s">
+      <c r="F56" s="341"/>
+      <c r="G56" s="341"/>
+      <c r="H56" s="342"/>
+      <c r="I56" s="343" t="s">
         <v>17</v>
       </c>
-      <c r="J56" s="224"/>
-      <c r="K56" s="224"/>
-      <c r="L56" s="224"/>
-      <c r="M56" s="224"/>
-      <c r="N56" s="224"/>
-      <c r="O56" s="225"/>
-      <c r="P56" s="329" t="s">
+      <c r="J56" s="213"/>
+      <c r="K56" s="213"/>
+      <c r="L56" s="213"/>
+      <c r="M56" s="213"/>
+      <c r="N56" s="213"/>
+      <c r="O56" s="214"/>
+      <c r="P56" s="343" t="s">
         <v>17</v>
       </c>
-      <c r="Q56" s="224"/>
-      <c r="R56" s="224"/>
-      <c r="S56" s="224"/>
-      <c r="T56" s="224"/>
-      <c r="U56" s="224"/>
-      <c r="V56" s="224"/>
-      <c r="W56" s="224"/>
-      <c r="X56" s="224"/>
-      <c r="Y56" s="225"/>
-      <c r="Z56" s="329" t="s">
+      <c r="Q56" s="213"/>
+      <c r="R56" s="213"/>
+      <c r="S56" s="213"/>
+      <c r="T56" s="213"/>
+      <c r="U56" s="213"/>
+      <c r="V56" s="213"/>
+      <c r="W56" s="213"/>
+      <c r="X56" s="213"/>
+      <c r="Y56" s="214"/>
+      <c r="Z56" s="343" t="s">
         <v>17</v>
       </c>
-      <c r="AA56" s="224"/>
-      <c r="AB56" s="224"/>
-      <c r="AC56" s="224"/>
-      <c r="AD56" s="225"/>
-      <c r="AE56" s="333"/>
-      <c r="AF56" s="334"/>
-      <c r="AG56" s="334"/>
-      <c r="AH56" s="335"/>
+      <c r="AA56" s="213"/>
+      <c r="AB56" s="213"/>
+      <c r="AC56" s="213"/>
+      <c r="AD56" s="214"/>
+      <c r="AE56" s="347"/>
+      <c r="AF56" s="348"/>
+      <c r="AG56" s="348"/>
+      <c r="AH56" s="349"/>
       <c r="AI56" s="68"/>
       <c r="AJ56" s="68"/>
       <c r="AK56" s="68"/>
@@ -16471,10 +16454,10 @@
     </row>
     <row r="57" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A57" s="71"/>
-      <c r="AE57" s="322"/>
-      <c r="AF57" s="322"/>
-      <c r="AG57" s="322"/>
-      <c r="AH57" s="322"/>
+      <c r="AE57" s="336"/>
+      <c r="AF57" s="336"/>
+      <c r="AG57" s="336"/>
+      <c r="AH57" s="336"/>
     </row>
     <row r="58" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A58" s="71"/>
@@ -16482,7 +16465,7 @@
     <row r="59" spans="1:53" ht="12" x14ac:dyDescent="0.2">
       <c r="A59" s="71"/>
       <c r="C59" s="130" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D59" s="130"/>
       <c r="E59" s="130"/>
@@ -16706,20 +16689,21 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="V34:AC34"/>
-    <mergeCell ref="E34:M34"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="I41:L42"/>
-    <mergeCell ref="Q34:U34"/>
-    <mergeCell ref="Q35:U35"/>
-    <mergeCell ref="E41:H42"/>
-    <mergeCell ref="V35:AC35"/>
-    <mergeCell ref="U41:Y42"/>
-    <mergeCell ref="Z41:AB42"/>
-    <mergeCell ref="AC41:AC42"/>
-    <mergeCell ref="E35:M35"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="M41:T42"/>
+    <mergeCell ref="E50:J50"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="E48:J49"/>
+    <mergeCell ref="K48:N49"/>
+    <mergeCell ref="AE57:AH57"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="I55:O55"/>
+    <mergeCell ref="P55:Y55"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="I56:O56"/>
+    <mergeCell ref="P56:Y56"/>
+    <mergeCell ref="Z56:AD56"/>
+    <mergeCell ref="Z55:AD55"/>
+    <mergeCell ref="AE55:AH55"/>
+    <mergeCell ref="AE56:AH56"/>
     <mergeCell ref="D40:D42"/>
     <mergeCell ref="O48:O49"/>
     <mergeCell ref="T49:U49"/>
@@ -16736,21 +16720,20 @@
     <mergeCell ref="V50:AH50"/>
     <mergeCell ref="V48:AH49"/>
     <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E50:J50"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="E48:J49"/>
-    <mergeCell ref="K48:N49"/>
-    <mergeCell ref="AE57:AH57"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="I55:O55"/>
-    <mergeCell ref="P55:Y55"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="I56:O56"/>
-    <mergeCell ref="P56:Y56"/>
-    <mergeCell ref="Z56:AD56"/>
-    <mergeCell ref="Z55:AD55"/>
-    <mergeCell ref="AE55:AH55"/>
-    <mergeCell ref="AE56:AH56"/>
+    <mergeCell ref="V34:AC34"/>
+    <mergeCell ref="E34:M34"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="I41:L42"/>
+    <mergeCell ref="Q34:U34"/>
+    <mergeCell ref="Q35:U35"/>
+    <mergeCell ref="E41:H42"/>
+    <mergeCell ref="V35:AC35"/>
+    <mergeCell ref="U41:Y42"/>
+    <mergeCell ref="Z41:AB42"/>
+    <mergeCell ref="AC41:AC42"/>
+    <mergeCell ref="E35:M35"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="M41:T42"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="5">
@@ -16825,15 +16808,15 @@
         <v>16</v>
       </c>
       <c r="D1" s="53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="55" t="s">
         <v>17</v>
@@ -16847,7 +16830,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="50" t="s">
         <v>18</v>
@@ -16861,7 +16844,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="50" t="s">
         <v>19</v>
@@ -16875,7 +16858,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="50" t="s">
         <v>20</v>
